--- a/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
@@ -634,7 +634,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -690,7 +689,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -909,6 +908,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -918,7 +923,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1137,6 +1142,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>146000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>148000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>150000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1179,7 +1190,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1398,6 +1409,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1407,7 +1424,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1626,6 +1643,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>181238.94896035441</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>185158.85123809642</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>188840.93872565418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1668,7 +1691,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1887,6 +1910,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1896,7 +1925,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2115,6 +2144,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>35238.948960354406</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>37158.851238096424</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>38840.938725654181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2136,11 +2171,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="529148160"/>
-        <c:axId val="529178624"/>
+        <c:axId val="503441664"/>
+        <c:axId val="503873920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="529148160"/>
+        <c:axId val="503441664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2180,14 +2215,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529178624"/>
+        <c:crossAx val="503873920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="529178624"/>
+        <c:axId val="503873920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2236,7 +2271,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529148160"/>
+        <c:crossAx val="503441664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2366,7 +2401,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2585,6 +2620,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2594,7 +2635,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2813,6 +2854,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>146000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>148000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>150000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2846,7 +2893,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3065,6 +3112,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3074,7 +3127,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3293,6 +3346,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>181238.94896035441</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>185158.85123809642</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>188840.93872565418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3326,7 +3385,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3545,6 +3604,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3554,7 +3619,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3773,6 +3838,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>35238.948960354406</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>37158.851238096424</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>38840.938725654181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3794,11 +3865,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="558085632"/>
-        <c:axId val="558088576"/>
+        <c:axId val="548727808"/>
+        <c:axId val="551928576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="558085632"/>
+        <c:axId val="548727808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3808,14 +3879,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="558088576"/>
+        <c:crossAx val="551928576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="558088576"/>
+        <c:axId val="551928576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3826,7 +3897,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="558085632"/>
+        <c:crossAx val="548727808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3944,7 +4015,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4163,6 +4234,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4172,7 +4249,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4391,6 +4468,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>152000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>154000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>156000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4433,7 +4516,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4652,6 +4735,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4661,7 +4750,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4880,6 +4969,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>191198.66801863554</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>195224.07569361891</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>198997.6013598156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4922,7 +5017,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5141,6 +5236,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5150,7 +5251,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5369,6 +5470,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>39198.668018635537</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>41224.075693618914</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42997.601359815599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5390,11 +5497,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="652302208"/>
-        <c:axId val="652303744"/>
+        <c:axId val="567490432"/>
+        <c:axId val="567491968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="652302208"/>
+        <c:axId val="567490432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5434,14 +5541,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="652303744"/>
+        <c:crossAx val="567491968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="652303744"/>
+        <c:axId val="567491968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5490,7 +5597,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="652302208"/>
+        <c:crossAx val="567490432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5620,7 +5727,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5839,6 +5946,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5848,7 +5961,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6067,6 +6180,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>152000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>154000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>156000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6100,7 +6219,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6319,6 +6438,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6328,7 +6453,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6547,6 +6672,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>191198.66801863554</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>195224.07569361891</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>198997.6013598156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6580,7 +6711,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6799,6 +6930,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6808,7 +6945,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7027,6 +7164,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>39198.668018635537</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>41224.075693618914</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42997.601359815599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7048,11 +7191,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="652342784"/>
-        <c:axId val="652344320"/>
+        <c:axId val="538352640"/>
+        <c:axId val="538362624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="652342784"/>
+        <c:axId val="538352640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7062,14 +7205,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="652344320"/>
+        <c:crossAx val="538362624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="652344320"/>
+        <c:axId val="538362624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7080,7 +7223,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="652342784"/>
+        <c:crossAx val="538352640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7198,7 +7341,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7417,6 +7560,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7426,7 +7575,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7645,6 +7794,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>151000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>153000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>155000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7687,7 +7842,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7906,6 +8061,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7915,7 +8076,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8134,6 +8295,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>189173.97962055329</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>193177.93934580238</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>196932.87675480539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8176,7 +8343,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8395,6 +8562,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8404,7 +8577,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8623,6 +8796,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>38173.979620553291</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>40177.939345802384</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>41932.876754805387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8644,11 +8823,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="656896768"/>
-        <c:axId val="656898688"/>
+        <c:axId val="538398720"/>
+        <c:axId val="538400256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="656896768"/>
+        <c:axId val="538398720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8688,14 +8867,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656898688"/>
+        <c:crossAx val="538400256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="656898688"/>
+        <c:axId val="538400256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8744,7 +8923,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656896768"/>
+        <c:crossAx val="538398720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8874,7 +9053,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9093,6 +9272,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9102,7 +9287,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9321,6 +9506,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>151000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>153000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>155000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9354,7 +9545,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9573,6 +9764,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9582,7 +9779,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9801,6 +9998,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>189173.97962055329</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>193177.93934580238</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>196932.87675480539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9834,7 +10037,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10053,6 +10256,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10062,7 +10271,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10281,6 +10490,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>38173.979620553291</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>40177.939345802384</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>41932.876754805387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10302,11 +10517,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="658753024"/>
-        <c:axId val="658754944"/>
+        <c:axId val="538427776"/>
+        <c:axId val="538429312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="658753024"/>
+        <c:axId val="538427776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10316,14 +10531,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="658754944"/>
+        <c:crossAx val="538429312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="658754944"/>
+        <c:axId val="538429312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10334,7 +10549,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="658753024"/>
+        <c:crossAx val="538427776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10376,7 +10591,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10414,7 +10629,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10455,7 +10670,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10493,7 +10708,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10536,7 +10751,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10574,7 +10789,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10852,7 +11067,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10861,7 +11076,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB75"/>
+  <dimension ref="A1:AB77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13539,6 +13754,64 @@
       </c>
       <c r="J75" s="3"/>
     </row>
+    <row r="76" spans="1:12" ht="12.75">
+      <c r="A76" s="13">
+        <v>45077</v>
+      </c>
+      <c r="B76" s="18">
+        <v>1.4309999942779541</v>
+      </c>
+      <c r="C76" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D76" s="15">
+        <v>1397.6240447220607</v>
+      </c>
+      <c r="E76" s="15">
+        <v>129391.23129173934</v>
+      </c>
+      <c r="F76" s="15">
+        <v>185158.85123809642</v>
+      </c>
+      <c r="G76" s="15">
+        <v>148000</v>
+      </c>
+      <c r="H76" s="15">
+        <v>185158.85123809642</v>
+      </c>
+      <c r="I76" s="15">
+        <v>37158.851238096424</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="12.75">
+      <c r="A77" s="13">
+        <v>45107</v>
+      </c>
+      <c r="B77" s="18">
+        <v>1.4440000057220459</v>
+      </c>
+      <c r="C77" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D77" s="15">
+        <v>1385.0415457581223</v>
+      </c>
+      <c r="E77" s="15">
+        <v>130776.27283749747</v>
+      </c>
+      <c r="F77" s="15">
+        <v>188840.93872565418</v>
+      </c>
+      <c r="G77" s="15">
+        <v>150000</v>
+      </c>
+      <c r="H77" s="15">
+        <v>188840.93872565418</v>
+      </c>
+      <c r="I77" s="15">
+        <v>38840.938725654181</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13550,7 +13823,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH75"/>
+  <dimension ref="A1:AH77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17390,6 +17663,94 @@
         <v>66.8045673873455</v>
       </c>
     </row>
+    <row r="76" spans="1:18" ht="12.75">
+      <c r="A76" s="13">
+        <v>45077</v>
+      </c>
+      <c r="B76" s="18">
+        <v>1.4309999942779541</v>
+      </c>
+      <c r="C76" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D76" s="15">
+        <v>1397.6240447220607</v>
+      </c>
+      <c r="E76" s="15">
+        <v>136424.9311490207</v>
+      </c>
+      <c r="F76" s="15">
+        <v>195224.07569361891</v>
+      </c>
+      <c r="G76" s="15">
+        <v>154000</v>
+      </c>
+      <c r="H76" s="15">
+        <v>195224.07569361891</v>
+      </c>
+      <c r="I76" s="15">
+        <v>41224.075693618914</v>
+      </c>
+      <c r="J76" s="21">
+        <v>1.4999985694885254E-2</v>
+      </c>
+      <c r="K76" s="21">
+        <v>4.9152973769025082E-2</v>
+      </c>
+      <c r="L76" s="21">
+        <v>1.4999985694885254E-2</v>
+      </c>
+      <c r="M76" s="23">
+        <v>7.2335007373018539E-2</v>
+      </c>
+      <c r="N76" s="21">
+        <v>67.951847320001079</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="12.75">
+      <c r="A77" s="13">
+        <v>45107</v>
+      </c>
+      <c r="B77" s="18">
+        <v>1.4440000057220459</v>
+      </c>
+      <c r="C77" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D77" s="15">
+        <v>1385.0415457581223</v>
+      </c>
+      <c r="E77" s="15">
+        <v>137809.97269477881</v>
+      </c>
+      <c r="F77" s="15">
+        <v>198997.6013598156</v>
+      </c>
+      <c r="G77" s="15">
+        <v>156000</v>
+      </c>
+      <c r="H77" s="15">
+        <v>198997.6013598156</v>
+      </c>
+      <c r="I77" s="15">
+        <v>42997.601359815599</v>
+      </c>
+      <c r="J77" s="21">
+        <v>1.3000011444091797E-2</v>
+      </c>
+      <c r="K77" s="21">
+        <v>4.3127480048202861E-2</v>
+      </c>
+      <c r="L77" s="21">
+        <v>1.3000011444091797E-2</v>
+      </c>
+      <c r="M77" s="23">
+        <v>6.2445841384864087E-2</v>
+      </c>
+      <c r="N77" s="21">
+        <v>69.063814485901545</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17401,7 +17762,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH75"/>
+  <dimension ref="A1:AH77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21785,6 +22146,112 @@
         <v>94.815894850860488</v>
       </c>
     </row>
+    <row r="76" spans="1:18" ht="12.75">
+      <c r="A76" s="13">
+        <v>45077</v>
+      </c>
+      <c r="B76" s="18">
+        <v>1.4309999942779541</v>
+      </c>
+      <c r="C76" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D76" s="15">
+        <v>1397.6240447220607</v>
+      </c>
+      <c r="E76" s="15">
+        <v>134995.06646977662</v>
+      </c>
+      <c r="F76" s="15">
+        <v>193177.93934580238</v>
+      </c>
+      <c r="G76" s="15">
+        <v>153000</v>
+      </c>
+      <c r="H76" s="15">
+        <v>193177.93934580238</v>
+      </c>
+      <c r="I76" s="15">
+        <v>40177.939345802384</v>
+      </c>
+      <c r="J76" s="15">
+        <v>1.4320000410079956</v>
+      </c>
+      <c r="K76" s="15">
+        <v>1.309999942779541</v>
+      </c>
+      <c r="L76" s="19">
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="M76" s="19">
+        <v>0.96100002527236938</v>
+      </c>
+      <c r="N76" s="21">
+        <v>71.104385321535176</v>
+      </c>
+      <c r="O76" s="21">
+        <v>69.464908903257466</v>
+      </c>
+      <c r="P76" s="21">
+        <v>60.194842044917607</v>
+      </c>
+      <c r="Q76" s="21">
+        <v>88.005042619937171</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="12.75">
+      <c r="A77" s="13">
+        <v>45107</v>
+      </c>
+      <c r="B77" s="18">
+        <v>1.4440000057220459</v>
+      </c>
+      <c r="C77" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D77" s="15">
+        <v>1385.0415457581223</v>
+      </c>
+      <c r="E77" s="15">
+        <v>136380.10801553473</v>
+      </c>
+      <c r="F77" s="15">
+        <v>196932.87675480539</v>
+      </c>
+      <c r="G77" s="15">
+        <v>155000</v>
+      </c>
+      <c r="H77" s="15">
+        <v>196932.87675480539</v>
+      </c>
+      <c r="I77" s="15">
+        <v>41932.876754805387</v>
+      </c>
+      <c r="J77" s="15">
+        <v>1.6160000562667847</v>
+      </c>
+      <c r="K77" s="15">
+        <v>1.3849999904632568</v>
+      </c>
+      <c r="L77" s="19">
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="M77" s="19">
+        <v>0.96100002527236938</v>
+      </c>
+      <c r="N77" s="21">
+        <v>73.071104223370014</v>
+      </c>
+      <c r="O77" s="21">
+        <v>70.666974009961649</v>
+      </c>
+      <c r="P77" s="21">
+        <v>63.685552699932288</v>
+      </c>
+      <c r="Q77" s="21">
+        <v>84.629816630020372</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
@@ -689,7 +689,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -914,6 +914,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -923,7 +926,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1148,6 +1151,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>152000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1190,7 +1196,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1415,6 +1421,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1424,7 +1433,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1649,6 +1658,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>188840.93872565418</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>183386.68581104401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1691,7 +1703,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1916,6 +1928,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1925,7 +1940,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2150,6 +2165,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>38840.938725654181</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>31386.685811044008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2171,11 +2189,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="503441664"/>
-        <c:axId val="503873920"/>
+        <c:axId val="403794176"/>
+        <c:axId val="403795968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="503441664"/>
+        <c:axId val="403794176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2215,14 +2233,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503873920"/>
+        <c:crossAx val="403795968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="503873920"/>
+        <c:axId val="403795968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2271,7 +2289,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503441664"/>
+        <c:crossAx val="403794176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2401,7 +2419,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2626,6 +2644,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2635,7 +2656,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2860,6 +2881,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>152000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2893,7 +2917,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3118,6 +3142,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3127,7 +3154,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3352,6 +3379,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>188840.93872565418</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>183386.68581104401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3385,7 +3415,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3610,6 +3640,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3619,7 +3652,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3844,6 +3877,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>38840.938725654181</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>31386.685811044008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3865,11 +3901,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="548727808"/>
-        <c:axId val="551928576"/>
+        <c:axId val="403810944"/>
+        <c:axId val="403816832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="548727808"/>
+        <c:axId val="403810944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3879,14 +3915,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="551928576"/>
+        <c:crossAx val="403816832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="551928576"/>
+        <c:axId val="403816832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3897,7 +3933,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="548727808"/>
+        <c:crossAx val="403810944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4015,7 +4051,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4240,6 +4276,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4249,7 +4288,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4474,6 +4513,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>156000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>158000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4516,7 +4558,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4741,6 +4783,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4750,7 +4795,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4975,6 +5020,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>198997.6013598156</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>193142.42726490245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5017,7 +5065,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5242,6 +5290,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5251,7 +5302,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5476,6 +5527,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>42997.601359815599</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>35142.42726490245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5497,11 +5551,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="567490432"/>
-        <c:axId val="567491968"/>
+        <c:axId val="405941632"/>
+        <c:axId val="405947520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="567490432"/>
+        <c:axId val="405941632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5541,14 +5595,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567491968"/>
+        <c:crossAx val="405947520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="567491968"/>
+        <c:axId val="405947520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5597,7 +5651,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567490432"/>
+        <c:crossAx val="405941632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5727,7 +5781,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5952,6 +6006,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5961,7 +6018,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6186,6 +6243,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>156000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>158000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6219,7 +6279,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6444,6 +6504,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6453,7 +6516,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6678,6 +6741,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>198997.6013598156</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>193142.42726490245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6711,7 +6777,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6936,6 +7002,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6945,7 +7014,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7170,6 +7239,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>42997.601359815599</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>35142.42726490245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7191,11 +7263,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="538352640"/>
-        <c:axId val="538362624"/>
+        <c:axId val="405970944"/>
+        <c:axId val="405972480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="538352640"/>
+        <c:axId val="405970944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7205,14 +7277,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="538362624"/>
+        <c:crossAx val="405972480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="538362624"/>
+        <c:axId val="405972480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7223,7 +7295,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="538352640"/>
+        <c:crossAx val="405970944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7341,7 +7413,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7566,6 +7638,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7575,7 +7650,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7800,6 +7875,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>157000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7842,7 +7920,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8067,6 +8145,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8076,7 +8157,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8301,6 +8382,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>196932.87675480539</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>191159.20500524505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8343,7 +8427,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8568,6 +8652,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8577,7 +8664,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8802,6 +8889,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>41932.876754805387</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>34159.20500524505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8823,11 +8913,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="538398720"/>
-        <c:axId val="538400256"/>
+        <c:axId val="500933376"/>
+        <c:axId val="500934912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="538398720"/>
+        <c:axId val="500933376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8867,14 +8957,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538400256"/>
+        <c:crossAx val="500934912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="538400256"/>
+        <c:axId val="500934912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8923,7 +9013,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538398720"/>
+        <c:crossAx val="500933376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9053,7 +9143,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9278,6 +9368,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9287,7 +9380,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9512,6 +9605,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>157000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9545,7 +9641,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9770,6 +9866,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9779,7 +9878,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10004,6 +10103,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>196932.87675480539</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>191159.20500524505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10037,7 +10139,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10262,6 +10364,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10271,7 +10376,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10496,6 +10601,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>41932.876754805387</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>34159.20500524505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10517,11 +10625,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="538427776"/>
-        <c:axId val="538429312"/>
+        <c:axId val="500966528"/>
+        <c:axId val="500968064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="538427776"/>
+        <c:axId val="500966528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10531,14 +10639,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="538429312"/>
+        <c:crossAx val="500968064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="538429312"/>
+        <c:axId val="500968064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10549,7 +10657,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="538427776"/>
+        <c:crossAx val="500966528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10591,7 +10699,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10629,7 +10737,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10670,7 +10778,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10708,7 +10816,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10751,7 +10859,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10789,7 +10897,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11067,7 +11175,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11076,7 +11184,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB77"/>
+  <dimension ref="A1:AB78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13812,6 +13920,35 @@
         <v>38840.938725654181</v>
       </c>
     </row>
+    <row r="78" spans="1:12" ht="12.75">
+      <c r="A78" s="13">
+        <v>45138</v>
+      </c>
+      <c r="B78" s="18">
+        <v>1.3869999647140503</v>
+      </c>
+      <c r="C78" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D78" s="15">
+        <v>1441.9611037353764</v>
+      </c>
+      <c r="E78" s="15">
+        <v>132218.23394123284</v>
+      </c>
+      <c r="F78" s="15">
+        <v>183386.68581104401</v>
+      </c>
+      <c r="G78" s="15">
+        <v>152000</v>
+      </c>
+      <c r="H78" s="15">
+        <v>183386.68581104401</v>
+      </c>
+      <c r="I78" s="15">
+        <v>31386.685811044008</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13823,7 +13960,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH77"/>
+  <dimension ref="A1:AH78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17751,6 +17888,50 @@
         <v>69.063814485901545</v>
       </c>
     </row>
+    <row r="78" spans="1:18" ht="12.75">
+      <c r="A78" s="13">
+        <v>45138</v>
+      </c>
+      <c r="B78" s="18">
+        <v>1.3869999647140503</v>
+      </c>
+      <c r="C78" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D78" s="15">
+        <v>1441.9611037353764</v>
+      </c>
+      <c r="E78" s="15">
+        <v>139251.93379851419</v>
+      </c>
+      <c r="F78" s="15">
+        <v>193142.42726490245</v>
+      </c>
+      <c r="G78" s="15">
+        <v>158000</v>
+      </c>
+      <c r="H78" s="15">
+        <v>193142.42726490245</v>
+      </c>
+      <c r="I78" s="15">
+        <v>35142.42726490245</v>
+      </c>
+      <c r="J78" s="21">
+        <v>0</v>
+      </c>
+      <c r="K78" s="21">
+        <v>3.5939566706835714E-2</v>
+      </c>
+      <c r="L78" s="21">
+        <v>5.7000041007995605E-2</v>
+      </c>
+      <c r="M78" s="23">
+        <v>6.153820798871934E-2</v>
+      </c>
+      <c r="N78" s="21">
+        <v>58.40203652570424</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17762,7 +17943,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH77"/>
+  <dimension ref="A1:AH78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22252,6 +22433,59 @@
         <v>84.629816630020372</v>
       </c>
     </row>
+    <row r="78" spans="1:18" ht="12.75">
+      <c r="A78" s="13">
+        <v>45138</v>
+      </c>
+      <c r="B78" s="18">
+        <v>1.3869999647140503</v>
+      </c>
+      <c r="C78" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D78" s="15">
+        <v>1441.9611037353764</v>
+      </c>
+      <c r="E78" s="15">
+        <v>137822.06911927011</v>
+      </c>
+      <c r="F78" s="15">
+        <v>191159.20500524505</v>
+      </c>
+      <c r="G78" s="15">
+        <v>157000</v>
+      </c>
+      <c r="H78" s="15">
+        <v>191159.20500524505</v>
+      </c>
+      <c r="I78" s="15">
+        <v>34159.20500524505</v>
+      </c>
+      <c r="J78" s="15">
+        <v>1.4780000448226929</v>
+      </c>
+      <c r="K78" s="15">
+        <v>1.3600000143051147</v>
+      </c>
+      <c r="L78" s="19">
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="M78" s="19">
+        <v>1.0609999895095825</v>
+      </c>
+      <c r="N78" s="21">
+        <v>58.110511427528067</v>
+      </c>
+      <c r="O78" s="21">
+        <v>66.481486482483788</v>
+      </c>
+      <c r="P78" s="21">
+        <v>64.617530627449455</v>
+      </c>
+      <c r="Q78" s="21">
+        <v>70.20939819255247</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
@@ -689,7 +689,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -917,6 +917,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -926,7 +929,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1154,6 +1157,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>152000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>154000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1196,7 +1202,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1424,6 +1430,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1433,7 +1442,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1661,6 +1670,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>183386.68581104401</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>174015.92223145079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1703,7 +1715,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1931,6 +1943,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1940,7 +1955,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2168,6 +2183,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>31386.685811044008</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>20015.922231450793</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2189,11 +2207,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="403794176"/>
-        <c:axId val="403795968"/>
+        <c:axId val="609237248"/>
+        <c:axId val="609555584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="403794176"/>
+        <c:axId val="609237248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2233,14 +2251,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403795968"/>
+        <c:crossAx val="609555584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="403795968"/>
+        <c:axId val="609555584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2289,7 +2307,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403794176"/>
+        <c:crossAx val="609237248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2419,7 +2437,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2647,6 +2665,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2656,7 +2677,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2884,6 +2905,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>152000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>154000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2917,7 +2941,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3145,6 +3169,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3154,7 +3181,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3382,6 +3409,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>183386.68581104401</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>174015.92223145079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3415,7 +3445,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3643,6 +3673,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3652,7 +3685,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3880,6 +3913,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>31386.685811044008</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>20015.922231450793</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3901,11 +3937,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="403810944"/>
-        <c:axId val="403816832"/>
+        <c:axId val="464429056"/>
+        <c:axId val="464430592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="403810944"/>
+        <c:axId val="464429056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3915,14 +3951,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="403816832"/>
+        <c:crossAx val="464430592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="403816832"/>
+        <c:axId val="464430592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3933,7 +3969,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="403810944"/>
+        <c:crossAx val="464429056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4051,7 +4087,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4279,6 +4315,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4288,7 +4327,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4516,6 +4555,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>158000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>160000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4558,7 +4600,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4786,6 +4828,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4795,7 +4840,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5023,6 +5068,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>193142.42726490245</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>183166.76573906597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5065,7 +5113,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5293,6 +5341,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5302,7 +5353,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5530,6 +5581,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>35142.42726490245</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>23166.765739065973</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5551,11 +5605,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="405941632"/>
-        <c:axId val="405947520"/>
+        <c:axId val="465552128"/>
+        <c:axId val="465553664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="405941632"/>
+        <c:axId val="465552128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5595,14 +5649,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405947520"/>
+        <c:crossAx val="465553664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="405947520"/>
+        <c:axId val="465553664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5651,7 +5705,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405941632"/>
+        <c:crossAx val="465552128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5781,7 +5835,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6009,6 +6063,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6018,7 +6075,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6246,6 +6303,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>158000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>160000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6279,7 +6339,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6507,6 +6567,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6516,7 +6579,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6744,6 +6807,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>193142.42726490245</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>183166.76573906597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6777,7 +6843,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7005,6 +7071,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7014,7 +7083,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7242,6 +7311,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>35142.42726490245</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>23166.765739065973</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7263,11 +7335,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="405970944"/>
-        <c:axId val="405972480"/>
+        <c:axId val="466290176"/>
+        <c:axId val="466291712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="405970944"/>
+        <c:axId val="466290176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7277,14 +7349,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="405972480"/>
+        <c:crossAx val="466291712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="405972480"/>
+        <c:axId val="466291712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7295,7 +7367,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="405970944"/>
+        <c:crossAx val="466290176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7413,7 +7485,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7641,6 +7713,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7650,7 +7725,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7878,6 +7953,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>157000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>159000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7920,7 +7998,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8148,6 +8226,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8157,7 +8238,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8385,6 +8466,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>191159.20500524505</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>181306.51179273304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8427,7 +8511,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8655,6 +8739,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8664,7 +8751,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8892,6 +8979,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>34159.20500524505</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>22306.511792733043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8913,11 +9003,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="500933376"/>
-        <c:axId val="500934912"/>
+        <c:axId val="466327424"/>
+        <c:axId val="466328960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="500933376"/>
+        <c:axId val="466327424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8957,14 +9047,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500934912"/>
+        <c:crossAx val="466328960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="500934912"/>
+        <c:axId val="466328960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9013,7 +9103,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500933376"/>
+        <c:crossAx val="466327424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9143,7 +9233,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9371,6 +9461,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9380,7 +9473,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9608,6 +9701,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>157000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>159000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9641,7 +9737,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9869,6 +9965,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9878,7 +9977,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10106,6 +10205,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>191159.20500524505</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>181306.51179273304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10139,7 +10241,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10367,6 +10469,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10376,7 +10481,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10604,6 +10709,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>34159.20500524505</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>22306.511792733043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10625,11 +10733,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="500966528"/>
-        <c:axId val="500968064"/>
+        <c:axId val="466348288"/>
+        <c:axId val="466423808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="500966528"/>
+        <c:axId val="466348288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10639,14 +10747,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="500968064"/>
+        <c:crossAx val="466423808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="500968064"/>
+        <c:axId val="466423808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10657,7 +10765,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="500966528"/>
+        <c:crossAx val="466348288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10699,7 +10807,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10737,7 +10845,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10778,7 +10886,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10816,7 +10924,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10859,7 +10967,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10897,7 +11005,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11175,7 +11283,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11184,7 +11292,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB78"/>
+  <dimension ref="A1:AB79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13949,6 +14057,35 @@
         <v>31386.685811044008</v>
       </c>
     </row>
+    <row r="79" spans="1:12" ht="12.75">
+      <c r="A79" s="13">
+        <v>45169</v>
+      </c>
+      <c r="B79" s="18">
+        <v>1.3009999990463257</v>
+      </c>
+      <c r="C79" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D79" s="15">
+        <v>1537.279017268304</v>
+      </c>
+      <c r="E79" s="15">
+        <v>133755.51295850115</v>
+      </c>
+      <c r="F79" s="15">
+        <v>174015.92223145079</v>
+      </c>
+      <c r="G79" s="15">
+        <v>154000</v>
+      </c>
+      <c r="H79" s="15">
+        <v>174015.92223145079</v>
+      </c>
+      <c r="I79" s="15">
+        <v>20015.922231450793</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13960,7 +14097,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH78"/>
+  <dimension ref="A1:AH79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17932,6 +18069,50 @@
         <v>58.40203652570424</v>
       </c>
     </row>
+    <row r="79" spans="1:18" ht="12.75">
+      <c r="A79" s="13">
+        <v>45169</v>
+      </c>
+      <c r="B79" s="18">
+        <v>1.3009999990463257</v>
+      </c>
+      <c r="C79" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D79" s="15">
+        <v>1537.279017268304</v>
+      </c>
+      <c r="E79" s="15">
+        <v>140789.21281578249</v>
+      </c>
+      <c r="F79" s="15">
+        <v>183166.76573906597</v>
+      </c>
+      <c r="G79" s="15">
+        <v>160000</v>
+      </c>
+      <c r="H79" s="15">
+        <v>183166.76573906597</v>
+      </c>
+      <c r="I79" s="15">
+        <v>23166.765739065973</v>
+      </c>
+      <c r="J79" s="21">
+        <v>0</v>
+      </c>
+      <c r="K79" s="21">
+        <v>2.9949638922363093E-2</v>
+      </c>
+      <c r="L79" s="21">
+        <v>8.5999965667724609E-2</v>
+      </c>
+      <c r="M79" s="23">
+        <v>6.561516760188689E-2</v>
+      </c>
+      <c r="N79" s="21">
+        <v>45.644383786504008</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17943,7 +18124,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH78"/>
+  <dimension ref="A1:AH79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22486,6 +22667,59 @@
         <v>70.20939819255247</v>
       </c>
     </row>
+    <row r="79" spans="1:18" ht="12.75">
+      <c r="A79" s="13">
+        <v>45169</v>
+      </c>
+      <c r="B79" s="18">
+        <v>1.3009999990463257</v>
+      </c>
+      <c r="C79" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D79" s="15">
+        <v>1537.279017268304</v>
+      </c>
+      <c r="E79" s="15">
+        <v>139359.34813653841</v>
+      </c>
+      <c r="F79" s="15">
+        <v>181306.51179273304</v>
+      </c>
+      <c r="G79" s="15">
+        <v>159000</v>
+      </c>
+      <c r="H79" s="15">
+        <v>181306.51179273304</v>
+      </c>
+      <c r="I79" s="15">
+        <v>22306.511792733043</v>
+      </c>
+      <c r="J79" s="15">
+        <v>1.4390000104904175</v>
+      </c>
+      <c r="K79" s="15">
+        <v>1.2209999561309814</v>
+      </c>
+      <c r="L79" s="19">
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="M79" s="19">
+        <v>1.0709999799728394</v>
+      </c>
+      <c r="N79" s="21">
+        <v>41.742288695769702</v>
+      </c>
+      <c r="O79" s="21">
+        <v>58.235087220245759</v>
+      </c>
+      <c r="P79" s="21">
+        <v>62.490049491714892</v>
+      </c>
+      <c r="Q79" s="21">
+        <v>49.725162677307495</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
@@ -689,7 +689,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -920,6 +920,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -929,7 +932,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1160,6 +1163,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>154000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>156000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1202,7 +1208,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1433,6 +1439,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1442,7 +1451,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1673,6 +1682,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>174015.92223145079</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>167990.59910749257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1715,7 +1727,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1946,6 +1958,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1955,7 +1970,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2186,6 +2201,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>20015.922231450793</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>11990.59910749257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2207,11 +2225,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="609237248"/>
-        <c:axId val="609555584"/>
+        <c:axId val="517656960"/>
+        <c:axId val="517658496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="609237248"/>
+        <c:axId val="517656960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2251,14 +2269,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609555584"/>
+        <c:crossAx val="517658496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="609555584"/>
+        <c:axId val="517658496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2307,7 +2325,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609237248"/>
+        <c:crossAx val="517656960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2437,7 +2455,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2668,6 +2686,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2677,7 +2698,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2908,6 +2929,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>154000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>156000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2941,7 +2965,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3172,6 +3196,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3181,7 +3208,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3412,6 +3439,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>174015.92223145079</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>167990.59910749257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3445,7 +3475,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3676,6 +3706,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3685,7 +3718,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3916,6 +3949,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>20015.922231450793</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>11990.59910749257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3937,11 +3973,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="464429056"/>
-        <c:axId val="464430592"/>
+        <c:axId val="449008000"/>
+        <c:axId val="449009536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="464429056"/>
+        <c:axId val="449008000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3951,14 +3987,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="464430592"/>
+        <c:crossAx val="449009536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="464430592"/>
+        <c:axId val="449009536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3969,7 +4005,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="464429056"/>
+        <c:crossAx val="449008000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4087,7 +4123,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4318,6 +4354,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4327,7 +4366,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4558,6 +4597,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>162000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4600,7 +4642,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4831,6 +4873,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4840,7 +4885,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5071,6 +5116,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>183166.76573906597</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>176719.4210261424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5113,7 +5161,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5344,6 +5392,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5353,7 +5404,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5584,6 +5635,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>23166.765739065973</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>14719.421026142401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5605,11 +5659,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="465552128"/>
-        <c:axId val="465553664"/>
+        <c:axId val="451101824"/>
+        <c:axId val="451103360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="465552128"/>
+        <c:axId val="451101824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5649,14 +5703,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465553664"/>
+        <c:crossAx val="451103360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="465553664"/>
+        <c:axId val="451103360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5705,7 +5759,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465552128"/>
+        <c:crossAx val="451101824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5835,7 +5889,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6066,6 +6120,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6075,7 +6132,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6306,6 +6363,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>162000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6339,7 +6399,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6570,6 +6630,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6579,7 +6642,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6810,6 +6873,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>183166.76573906597</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>176719.4210261424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6843,7 +6909,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7074,6 +7140,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7083,7 +7152,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7314,6 +7383,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>23166.765739065973</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>14719.421026142401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7335,11 +7407,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="466290176"/>
-        <c:axId val="466291712"/>
+        <c:axId val="451135360"/>
+        <c:axId val="451136896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="466290176"/>
+        <c:axId val="451135360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7349,14 +7421,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="466291712"/>
+        <c:crossAx val="451136896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="466291712"/>
+        <c:axId val="451136896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7367,7 +7439,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="466290176"/>
+        <c:crossAx val="451135360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7485,7 +7557,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7716,6 +7788,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7725,7 +7800,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7956,6 +8031,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>159000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>161000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7998,7 +8076,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8229,6 +8307,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8238,7 +8319,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8469,6 +8550,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>181306.51179273304</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>174944.95887874661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8511,7 +8595,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8742,6 +8826,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8751,7 +8838,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8982,6 +9069,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>22306.511792733043</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>13944.958878746605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9003,11 +9093,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="466327424"/>
-        <c:axId val="466328960"/>
+        <c:axId val="451569920"/>
+        <c:axId val="451588096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="466327424"/>
+        <c:axId val="451569920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9047,14 +9137,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466328960"/>
+        <c:crossAx val="451588096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="466328960"/>
+        <c:axId val="451588096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9103,7 +9193,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466327424"/>
+        <c:crossAx val="451569920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9233,7 +9323,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9464,6 +9554,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9473,7 +9566,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9704,6 +9797,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>159000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>161000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9737,7 +9833,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9968,6 +10064,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9977,7 +10076,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10208,6 +10307,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>181306.51179273304</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>174944.95887874661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10241,7 +10343,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10472,6 +10574,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10481,7 +10586,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10712,6 +10817,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>22306.511792733043</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>13944.958878746605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10733,11 +10841,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="466348288"/>
-        <c:axId val="466423808"/>
+        <c:axId val="451603072"/>
+        <c:axId val="451019136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="466348288"/>
+        <c:axId val="451603072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10747,14 +10855,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="466423808"/>
+        <c:crossAx val="451019136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="466423808"/>
+        <c:axId val="451019136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10765,7 +10873,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="466348288"/>
+        <c:crossAx val="451603072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10807,7 +10915,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10845,7 +10953,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10886,7 +10994,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10924,7 +11032,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10967,7 +11075,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11005,7 +11113,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11283,7 +11391,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11292,7 +11400,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB79"/>
+  <dimension ref="A1:AB80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14086,6 +14194,35 @@
         <v>20015.922231450793</v>
       </c>
     </row>
+    <row r="80" spans="1:12" ht="12.75">
+      <c r="A80" s="13">
+        <v>45197</v>
+      </c>
+      <c r="B80" s="18">
+        <v>1.2410000562667847</v>
+      </c>
+      <c r="C80" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D80" s="15">
+        <v>1611.6034724579004</v>
+      </c>
+      <c r="E80" s="15">
+        <v>135367.11643095905</v>
+      </c>
+      <c r="F80" s="15">
+        <v>167990.59910749257</v>
+      </c>
+      <c r="G80" s="15">
+        <v>156000</v>
+      </c>
+      <c r="H80" s="15">
+        <v>167990.59910749257</v>
+      </c>
+      <c r="I80" s="15">
+        <v>11990.59910749257</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14097,7 +14234,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH79"/>
+  <dimension ref="A1:AH80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18113,6 +18250,50 @@
         <v>45.644383786504008</v>
       </c>
     </row>
+    <row r="80" spans="1:18" ht="12.75">
+      <c r="A80" s="13">
+        <v>45197</v>
+      </c>
+      <c r="B80" s="18">
+        <v>1.2410000562667847</v>
+      </c>
+      <c r="C80" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D80" s="15">
+        <v>1611.6034724579004</v>
+      </c>
+      <c r="E80" s="15">
+        <v>142400.8162882404</v>
+      </c>
+      <c r="F80" s="15">
+        <v>176719.4210261424</v>
+      </c>
+      <c r="G80" s="15">
+        <v>162000</v>
+      </c>
+      <c r="H80" s="15">
+        <v>176719.4210261424</v>
+      </c>
+      <c r="I80" s="15">
+        <v>14719.421026142401</v>
+      </c>
+      <c r="J80" s="21">
+        <v>0</v>
+      </c>
+      <c r="K80" s="21">
+        <v>2.4958032435302577E-2</v>
+      </c>
+      <c r="L80" s="21">
+        <v>5.9999942779541016E-2</v>
+      </c>
+      <c r="M80" s="23">
+        <v>6.4679296798162575E-2</v>
+      </c>
+      <c r="N80" s="21">
+        <v>38.587358970809944</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18124,7 +18305,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH79"/>
+  <dimension ref="A1:AH80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22720,6 +22901,59 @@
         <v>49.725162677307495</v>
       </c>
     </row>
+    <row r="80" spans="1:18" ht="12.75">
+      <c r="A80" s="13">
+        <v>45197</v>
+      </c>
+      <c r="B80" s="18">
+        <v>1.2410000562667847</v>
+      </c>
+      <c r="C80" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D80" s="15">
+        <v>1611.6034724579004</v>
+      </c>
+      <c r="E80" s="15">
+        <v>140970.95160899631</v>
+      </c>
+      <c r="F80" s="15">
+        <v>174944.95887874661</v>
+      </c>
+      <c r="G80" s="15">
+        <v>161000</v>
+      </c>
+      <c r="H80" s="15">
+        <v>174944.95887874661</v>
+      </c>
+      <c r="I80" s="15">
+        <v>13944.958878746605</v>
+      </c>
+      <c r="J80" s="15">
+        <v>1.3070000410079956</v>
+      </c>
+      <c r="K80" s="15">
+        <v>1.1299999952316284</v>
+      </c>
+      <c r="L80" s="19">
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="M80" s="19">
+        <v>1.0709999799728394</v>
+      </c>
+      <c r="N80" s="21">
+        <v>30.853007280392731</v>
+      </c>
+      <c r="O80" s="21">
+        <v>49.107727240294743</v>
+      </c>
+      <c r="P80" s="21">
+        <v>58.02927540790818</v>
+      </c>
+      <c r="Q80" s="21">
+        <v>31.264630905067875</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
@@ -12,9 +12,9 @@
     <sheet name="model1&amp;KDJ" sheetId="38" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">model1!$L$1:$L$83</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'model1&amp;KDJ'!$R$1:$R$82</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'model1&amp;RSI'!$R$1:$R$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">model1!$L$1:$L$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'model1&amp;KDJ'!$R$1:$R$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'model1&amp;RSI'!$R$1:$R$81</definedName>
     <definedName name="金额" localSheetId="0">OFFSET(model1!I1,0,0,COUNTA(model1!I:I)-1)</definedName>
     <definedName name="金额" localSheetId="2">OFFSET('model1&amp;KDJ'!I1,0,0,COUNTA('model1&amp;KDJ'!I:I)-1)</definedName>
     <definedName name="金额" localSheetId="1">OFFSET('model1&amp;RSI'!I1,0,0,COUNTA('model1&amp;RSI'!I:I)-1)</definedName>
@@ -689,7 +689,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -923,6 +923,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -932,7 +935,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1166,6 +1169,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>156000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>158000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1208,7 +1214,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1442,6 +1448,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1451,7 +1460,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1685,6 +1694,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>167990.59910749257</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>161191.72879371172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1727,7 +1739,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1961,6 +1973,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1970,7 +1985,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2204,6 +2219,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>11990.59910749257</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3191.7287937117217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2225,11 +2243,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="517656960"/>
-        <c:axId val="517658496"/>
+        <c:axId val="447621376"/>
+        <c:axId val="472339584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="517656960"/>
+        <c:axId val="447621376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2269,14 +2287,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517658496"/>
+        <c:crossAx val="472339584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="517658496"/>
+        <c:axId val="472339584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2325,7 +2343,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517656960"/>
+        <c:crossAx val="447621376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2455,7 +2473,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2689,6 +2707,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2698,7 +2719,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2932,6 +2953,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>156000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>158000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2965,7 +2989,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3199,6 +3223,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3208,7 +3235,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3442,6 +3469,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>167990.59910749257</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>161191.72879371172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3475,7 +3505,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3709,6 +3739,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3718,7 +3751,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3952,6 +3985,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>11990.59910749257</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3191.7287937117217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3973,11 +4009,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="449008000"/>
-        <c:axId val="449009536"/>
+        <c:axId val="504785920"/>
+        <c:axId val="504878208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="449008000"/>
+        <c:axId val="504785920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3987,14 +4023,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="449009536"/>
+        <c:crossAx val="504878208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="449009536"/>
+        <c:axId val="504878208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4005,7 +4041,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="449008000"/>
+        <c:crossAx val="504785920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4123,7 +4159,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4357,6 +4393,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4366,7 +4405,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4600,6 +4639,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>162000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>164000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4642,7 +4684,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4876,6 +4918,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4885,7 +4930,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5119,6 +5164,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>176719.4210261424</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>169463.35981916671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5161,7 +5209,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5395,6 +5443,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5404,7 +5455,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5638,6 +5689,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>14719.421026142401</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5463.3598191667115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5659,11 +5713,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="451101824"/>
-        <c:axId val="451103360"/>
+        <c:axId val="517528576"/>
+        <c:axId val="517563136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="451101824"/>
+        <c:axId val="517528576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5703,14 +5757,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451103360"/>
+        <c:crossAx val="517563136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="451103360"/>
+        <c:axId val="517563136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5759,7 +5813,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451101824"/>
+        <c:crossAx val="517528576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5889,7 +5943,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6123,6 +6177,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6132,7 +6189,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6366,6 +6423,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>162000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>164000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6399,7 +6459,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6633,6 +6693,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6642,7 +6705,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6876,6 +6939,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>176719.4210261424</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>169463.35981916671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6909,7 +6975,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7143,6 +7209,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7152,7 +7221,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7386,6 +7455,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>14719.421026142401</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5463.3598191667115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7407,11 +7479,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="451135360"/>
-        <c:axId val="451136896"/>
+        <c:axId val="617895040"/>
+        <c:axId val="617896576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="451135360"/>
+        <c:axId val="617895040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7421,14 +7493,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="451136896"/>
+        <c:crossAx val="617896576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="451136896"/>
+        <c:axId val="617896576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7439,7 +7511,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="451135360"/>
+        <c:crossAx val="617895040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7557,7 +7629,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7791,6 +7863,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7800,7 +7875,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8034,6 +8109,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>161000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>163000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8076,7 +8154,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8310,6 +8388,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8319,7 +8400,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8553,6 +8634,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>174944.95887874661</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>167781.8389577393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8595,7 +8679,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8829,6 +8913,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8838,7 +8925,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9072,6 +9159,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>13944.958878746605</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4781.8389577392954</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9093,11 +9183,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="451569920"/>
-        <c:axId val="451588096"/>
+        <c:axId val="618214912"/>
+        <c:axId val="618216448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="451569920"/>
+        <c:axId val="618214912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9137,14 +9227,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451588096"/>
+        <c:crossAx val="618216448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="451588096"/>
+        <c:axId val="618216448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9193,7 +9283,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451569920"/>
+        <c:crossAx val="618214912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9323,7 +9413,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9557,6 +9647,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9566,7 +9659,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9800,6 +9893,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>161000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>163000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9833,7 +9929,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10067,6 +10163,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10076,7 +10175,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10310,6 +10409,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>174944.95887874661</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>167781.8389577393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10343,7 +10445,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10577,6 +10679,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10586,7 +10691,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10820,6 +10925,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>13944.958878746605</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4781.8389577392954</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10841,11 +10949,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="451603072"/>
-        <c:axId val="451019136"/>
+        <c:axId val="618239872"/>
+        <c:axId val="618241408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="451603072"/>
+        <c:axId val="618239872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10855,14 +10963,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="451019136"/>
+        <c:crossAx val="618241408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="451019136"/>
+        <c:axId val="618241408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10873,7 +10981,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="451603072"/>
+        <c:crossAx val="618239872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10915,7 +11023,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10953,7 +11061,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10994,7 +11102,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11032,7 +11140,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11075,7 +11183,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11113,7 +11221,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11391,7 +11499,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11400,7 +11508,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB80"/>
+  <dimension ref="A1:AB81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14223,6 +14331,35 @@
         <v>11990.59910749257</v>
       </c>
     </row>
+    <row r="81" spans="1:9" ht="12.75">
+      <c r="A81" s="13">
+        <v>45230</v>
+      </c>
+      <c r="B81" s="18">
+        <v>1.1759999990463257</v>
+      </c>
+      <c r="C81" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D81" s="15">
+        <v>1700.6802734880059</v>
+      </c>
+      <c r="E81" s="15">
+        <v>137067.79670444707</v>
+      </c>
+      <c r="F81" s="15">
+        <v>161191.72879371172</v>
+      </c>
+      <c r="G81" s="15">
+        <v>158000</v>
+      </c>
+      <c r="H81" s="15">
+        <v>161191.72879371172</v>
+      </c>
+      <c r="I81" s="15">
+        <v>3191.7287937117217</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14234,7 +14371,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH80"/>
+  <dimension ref="A1:AH81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18294,6 +18431,50 @@
         <v>38.587358970809944</v>
       </c>
     </row>
+    <row r="81" spans="1:14" ht="12.75">
+      <c r="A81" s="13">
+        <v>45230</v>
+      </c>
+      <c r="B81" s="18">
+        <v>1.1759999990463257</v>
+      </c>
+      <c r="C81" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D81" s="15">
+        <v>1700.6802734880059</v>
+      </c>
+      <c r="E81" s="15">
+        <v>144101.49656172842</v>
+      </c>
+      <c r="F81" s="15">
+        <v>169463.35981916671</v>
+      </c>
+      <c r="G81" s="15">
+        <v>164000</v>
+      </c>
+      <c r="H81" s="15">
+        <v>169463.35981916671</v>
+      </c>
+      <c r="I81" s="15">
+        <v>5463.3598191667115</v>
+      </c>
+      <c r="J81" s="21">
+        <v>0</v>
+      </c>
+      <c r="K81" s="21">
+        <v>2.0798360362752146E-2</v>
+      </c>
+      <c r="L81" s="21">
+        <v>6.5000057220458984E-2</v>
+      </c>
+      <c r="M81" s="23">
+        <v>6.4732756868545308E-2</v>
+      </c>
+      <c r="N81" s="21">
+        <v>32.129576073807549</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18305,7 +18486,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH80"/>
+  <dimension ref="A1:AH81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22954,6 +23135,59 @@
         <v>31.264630905067875</v>
       </c>
     </row>
+    <row r="81" spans="1:17" ht="12.75">
+      <c r="A81" s="13">
+        <v>45230</v>
+      </c>
+      <c r="B81" s="18">
+        <v>1.1759999990463257</v>
+      </c>
+      <c r="C81" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D81" s="15">
+        <v>1700.6802734880059</v>
+      </c>
+      <c r="E81" s="15">
+        <v>142671.63188248433</v>
+      </c>
+      <c r="F81" s="15">
+        <v>167781.8389577393</v>
+      </c>
+      <c r="G81" s="15">
+        <v>163000</v>
+      </c>
+      <c r="H81" s="15">
+        <v>167781.8389577393</v>
+      </c>
+      <c r="I81" s="15">
+        <v>4781.8389577392954</v>
+      </c>
+      <c r="J81" s="15">
+        <v>1.2790000438690186</v>
+      </c>
+      <c r="K81" s="15">
+        <v>1.1299999952316284</v>
+      </c>
+      <c r="L81" s="19">
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="M81" s="19">
+        <v>1.1299999952316284</v>
+      </c>
+      <c r="N81" s="21">
+        <v>9.3495941806654201</v>
+      </c>
+      <c r="O81" s="21">
+        <v>35.8550162204183</v>
+      </c>
+      <c r="P81" s="21">
+        <v>50.637855678744891</v>
+      </c>
+      <c r="Q81" s="21">
+        <v>6.289337303765123</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
@@ -689,7 +689,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -926,6 +926,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -935,7 +941,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1172,6 +1178,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>158000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>162000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1214,7 +1226,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1451,6 +1463,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1460,7 +1478,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1697,6 +1715,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>161191.72879371172</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>167303.75877330403</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>169026.31000231727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1739,7 +1763,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1976,6 +2000,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1985,7 +2015,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2222,6 +2252,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>3191.7287937117217</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7303.7587733040273</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7026.3100023172738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2243,11 +2279,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="447621376"/>
-        <c:axId val="472339584"/>
+        <c:axId val="538090112"/>
+        <c:axId val="539287936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="447621376"/>
+        <c:axId val="538090112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2287,14 +2323,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472339584"/>
+        <c:crossAx val="539287936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="472339584"/>
+        <c:axId val="539287936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2343,7 +2379,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447621376"/>
+        <c:crossAx val="538090112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2473,7 +2509,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2710,6 +2746,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2719,7 +2761,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2956,6 +2998,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>158000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>162000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2989,7 +3037,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3226,6 +3274,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3235,7 +3289,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3472,6 +3526,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>161191.72879371172</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>167303.75877330403</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>169026.31000231727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3505,7 +3565,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3742,6 +3802,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3751,7 +3817,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3988,6 +4054,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>3191.7287937117217</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7303.7587733040273</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7026.3100023172738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4009,11 +4081,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="504785920"/>
-        <c:axId val="504878208"/>
+        <c:axId val="511752064"/>
+        <c:axId val="511753600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="504785920"/>
+        <c:axId val="511752064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4023,14 +4095,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="504878208"/>
+        <c:crossAx val="511753600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="504878208"/>
+        <c:axId val="511753600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4041,7 +4113,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="504785920"/>
+        <c:crossAx val="511752064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4159,7 +4231,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4396,6 +4468,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4405,7 +4483,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4642,6 +4720,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>164000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>166000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>168000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4684,7 +4768,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4921,6 +5005,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4930,7 +5020,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5167,6 +5257,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>169463.35981916671</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>175786.40059324171</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>177494.88460365258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5209,7 +5305,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5446,6 +5542,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5455,7 +5557,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5692,6 +5794,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>5463.3598191667115</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9786.4005932417058</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9494.8846036525792</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5713,11 +5821,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="517528576"/>
-        <c:axId val="517563136"/>
+        <c:axId val="511571456"/>
+        <c:axId val="511572992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="517528576"/>
+        <c:axId val="511571456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5757,14 +5865,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517563136"/>
+        <c:crossAx val="511572992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="517563136"/>
+        <c:axId val="511572992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5813,7 +5921,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517528576"/>
+        <c:crossAx val="511571456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5943,7 +6051,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6180,6 +6288,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6189,7 +6303,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6426,6 +6540,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>164000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>166000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>168000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6459,7 +6579,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6696,6 +6816,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6705,7 +6831,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6942,6 +7068,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>169463.35981916671</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>175786.40059324171</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>177494.88460365258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6975,7 +7107,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7212,6 +7344,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7221,7 +7359,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7458,6 +7596,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>5463.3598191667115</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9786.4005932417058</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9494.8846036525792</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7479,11 +7623,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617895040"/>
-        <c:axId val="617896576"/>
+        <c:axId val="511603072"/>
+        <c:axId val="511604608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617895040"/>
+        <c:axId val="511603072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7493,14 +7637,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617896576"/>
+        <c:crossAx val="511604608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617896576"/>
+        <c:axId val="511604608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7511,7 +7655,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617895040"/>
+        <c:crossAx val="511603072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7629,7 +7773,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7866,6 +8010,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7875,7 +8025,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8112,6 +8262,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>163000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>165000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>168000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8154,7 +8310,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8391,6 +8547,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8400,7 +8562,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8637,6 +8799,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>167781.8389577393</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>174061.98383234572</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>176773.3275352972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8679,7 +8847,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8916,6 +9084,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8925,7 +9099,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9162,6 +9336,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>4781.8389577392954</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9061.9838323457225</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8773.3275352971978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9183,11 +9363,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="618214912"/>
-        <c:axId val="618216448"/>
+        <c:axId val="511909248"/>
+        <c:axId val="511919232"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="618214912"/>
+        <c:axId val="511909248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9227,14 +9407,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618216448"/>
+        <c:crossAx val="511919232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="618216448"/>
+        <c:axId val="511919232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9283,7 +9463,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618214912"/>
+        <c:crossAx val="511909248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9413,7 +9593,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9650,6 +9830,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9659,7 +9845,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9896,6 +10082,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>163000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>165000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>168000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9929,7 +10121,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10166,6 +10358,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10175,7 +10373,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10412,6 +10610,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>167781.8389577393</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>174061.98383234572</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>176773.3275352972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10445,7 +10649,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10682,6 +10886,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10691,7 +10901,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10928,6 +11138,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>4781.8389577392954</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9061.9838323457225</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8773.3275352971978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10949,11 +11165,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="618239872"/>
-        <c:axId val="618241408"/>
+        <c:axId val="511940864"/>
+        <c:axId val="511950848"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="618239872"/>
+        <c:axId val="511940864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10963,14 +11179,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="618241408"/>
+        <c:crossAx val="511950848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="618241408"/>
+        <c:axId val="511950848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10981,7 +11197,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="618239872"/>
+        <c:crossAx val="511940864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11508,7 +11724,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB81"/>
+  <dimension ref="A1:AB83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14360,6 +14576,64 @@
         <v>3191.7287937117217</v>
       </c>
     </row>
+    <row r="82" spans="1:9" ht="12.75">
+      <c r="A82" s="13">
+        <v>45260</v>
+      </c>
+      <c r="B82" s="18">
+        <v>1.2059999704360962</v>
+      </c>
+      <c r="C82" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D82" s="15">
+        <v>1658.3748333565788</v>
+      </c>
+      <c r="E82" s="15">
+        <v>138726.17153780366</v>
+      </c>
+      <c r="F82" s="15">
+        <v>167303.75877330403</v>
+      </c>
+      <c r="G82" s="15">
+        <v>160000</v>
+      </c>
+      <c r="H82" s="15">
+        <v>167303.75877330403</v>
+      </c>
+      <c r="I82" s="15">
+        <v>7303.7587733040273</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="12.75">
+      <c r="A83" s="13">
+        <v>45289</v>
+      </c>
+      <c r="B83" s="18">
+        <v>1.2039999961853027</v>
+      </c>
+      <c r="C83" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D83" s="15">
+        <v>1661.1295733693576</v>
+      </c>
+      <c r="E83" s="15">
+        <v>140387.30111117303</v>
+      </c>
+      <c r="F83" s="15">
+        <v>169026.31000231727</v>
+      </c>
+      <c r="G83" s="15">
+        <v>162000</v>
+      </c>
+      <c r="H83" s="15">
+        <v>169026.31000231727</v>
+      </c>
+      <c r="I83" s="15">
+        <v>7026.3100023172738</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14371,7 +14645,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH81"/>
+  <dimension ref="A1:AH83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18475,6 +18749,94 @@
         <v>32.129576073807549</v>
       </c>
     </row>
+    <row r="82" spans="1:14" ht="12.75">
+      <c r="A82" s="13">
+        <v>45260</v>
+      </c>
+      <c r="B82" s="18">
+        <v>1.2059999704360962</v>
+      </c>
+      <c r="C82" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D82" s="15">
+        <v>1658.3748333565788</v>
+      </c>
+      <c r="E82" s="15">
+        <v>145759.87139508501</v>
+      </c>
+      <c r="F82" s="15">
+        <v>175786.40059324171</v>
+      </c>
+      <c r="G82" s="15">
+        <v>166000</v>
+      </c>
+      <c r="H82" s="15">
+        <v>175786.40059324171</v>
+      </c>
+      <c r="I82" s="15">
+        <v>9786.4005932417058</v>
+      </c>
+      <c r="J82" s="21">
+        <v>2.9999971389770508E-2</v>
+      </c>
+      <c r="K82" s="21">
+        <v>2.2331962200588539E-2</v>
+      </c>
+      <c r="L82" s="21">
+        <v>2.9999971389770508E-2</v>
+      </c>
+      <c r="M82" s="23">
+        <v>5.8943959288749508E-2</v>
+      </c>
+      <c r="N82" s="21">
+        <v>37.886769857434714</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="12.75">
+      <c r="A83" s="13">
+        <v>45289</v>
+      </c>
+      <c r="B83" s="18">
+        <v>1.2039999961853027</v>
+      </c>
+      <c r="C83" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D83" s="15">
+        <v>1661.1295733693576</v>
+      </c>
+      <c r="E83" s="15">
+        <v>147421.00096845438</v>
+      </c>
+      <c r="F83" s="15">
+        <v>177494.88460365258</v>
+      </c>
+      <c r="G83" s="15">
+        <v>168000</v>
+      </c>
+      <c r="H83" s="15">
+        <v>177494.88460365258</v>
+      </c>
+      <c r="I83" s="15">
+        <v>9494.8846036525792</v>
+      </c>
+      <c r="J83" s="21">
+        <v>0</v>
+      </c>
+      <c r="K83" s="21">
+        <v>1.8609968500490449E-2</v>
+      </c>
+      <c r="L83" s="21">
+        <v>1.999974250793457E-3</v>
+      </c>
+      <c r="M83" s="23">
+        <v>4.9453295115756829E-2</v>
+      </c>
+      <c r="N83" s="21">
+        <v>37.631402431181847</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18486,7 +18848,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH81"/>
+  <dimension ref="A1:AH83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23188,6 +23550,112 @@
         <v>6.289337303765123</v>
       </c>
     </row>
+    <row r="82" spans="1:17" ht="12.75">
+      <c r="A82" s="13">
+        <v>45260</v>
+      </c>
+      <c r="B82" s="18">
+        <v>1.2059999704360962</v>
+      </c>
+      <c r="C82" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D82" s="15">
+        <v>1658.3748333565788</v>
+      </c>
+      <c r="E82" s="15">
+        <v>144330.00671584092</v>
+      </c>
+      <c r="F82" s="15">
+        <v>174061.98383234572</v>
+      </c>
+      <c r="G82" s="15">
+        <v>165000</v>
+      </c>
+      <c r="H82" s="15">
+        <v>174061.98383234572</v>
+      </c>
+      <c r="I82" s="15">
+        <v>9061.9838323457225</v>
+      </c>
+      <c r="J82" s="15">
+        <v>1.2760000228881836</v>
+      </c>
+      <c r="K82" s="15">
+        <v>1.1599999666213989</v>
+      </c>
+      <c r="L82" s="19">
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="M82" s="19">
+        <v>1.1299999952316284</v>
+      </c>
+      <c r="N82" s="21">
+        <v>15.447149282091519</v>
+      </c>
+      <c r="O82" s="21">
+        <v>29.052393907642706</v>
+      </c>
+      <c r="P82" s="21">
+        <v>43.442701755044162</v>
+      </c>
+      <c r="Q82" s="21">
+        <v>0.27177821283979142</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="12.75">
+      <c r="A83" s="13">
+        <v>45289</v>
+      </c>
+      <c r="B83" s="18">
+        <v>1.2039999961853027</v>
+      </c>
+      <c r="C83" s="22">
+        <v>3000</v>
+      </c>
+      <c r="D83" s="15">
+        <v>2491.6943600540362</v>
+      </c>
+      <c r="E83" s="15">
+        <v>146821.70107589496</v>
+      </c>
+      <c r="F83" s="15">
+        <v>176773.3275352972</v>
+      </c>
+      <c r="G83" s="15">
+        <v>168000</v>
+      </c>
+      <c r="H83" s="15">
+        <v>176773.3275352972</v>
+      </c>
+      <c r="I83" s="15">
+        <v>8773.3275352971978</v>
+      </c>
+      <c r="J83" s="15">
+        <v>1.2690000534057617</v>
+      </c>
+      <c r="K83" s="15">
+        <v>1.1529999971389771</v>
+      </c>
+      <c r="L83" s="19">
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="M83" s="19">
+        <v>1.1299999952316284</v>
+      </c>
+      <c r="N83" s="21">
+        <v>15.040650454569146</v>
+      </c>
+      <c r="O83" s="21">
+        <v>24.381812756618189</v>
+      </c>
+      <c r="P83" s="21">
+        <v>37.089072088902171</v>
+      </c>
+      <c r="Q83" s="21">
+        <v>-1.0327059079497758</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
@@ -689,7 +689,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -932,6 +932,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -941,7 +944,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1184,6 +1187,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>162000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>164000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1226,7 +1232,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1469,6 +1475,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1478,7 +1487,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1721,6 +1730,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>169026.31000231727</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>138877.6219304878</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1763,7 +1775,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2006,6 +2018,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2015,7 +2030,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2258,6 +2273,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>7026.3100023172738</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-25122.378069512197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2279,11 +2297,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="538090112"/>
-        <c:axId val="539287936"/>
+        <c:axId val="463282560"/>
+        <c:axId val="463284096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="538090112"/>
+        <c:axId val="463282560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2323,14 +2341,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539287936"/>
+        <c:crossAx val="463284096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="539287936"/>
+        <c:axId val="463284096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2379,7 +2397,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538090112"/>
+        <c:crossAx val="463282560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2509,7 +2527,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2752,6 +2770,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2761,7 +2782,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3004,6 +3025,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>162000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>164000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3037,7 +3061,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3280,6 +3304,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3289,7 +3316,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3532,6 +3559,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>169026.31000231727</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>138877.6219304878</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3565,7 +3595,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3808,6 +3838,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3817,7 +3850,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4060,6 +4093,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>7026.3100023172738</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-25122.378069512197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4081,11 +4117,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511752064"/>
-        <c:axId val="511753600"/>
+        <c:axId val="435446144"/>
+        <c:axId val="435447680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="511752064"/>
+        <c:axId val="435446144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4095,14 +4131,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="511753600"/>
+        <c:crossAx val="435447680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="511753600"/>
+        <c:axId val="435447680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4113,7 +4149,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="511752064"/>
+        <c:crossAx val="435446144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4231,7 +4267,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4474,6 +4510,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4483,7 +4522,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4726,6 +4765,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>168000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>171000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4768,7 +4810,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5011,6 +5053,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5020,7 +5065,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5263,6 +5308,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>177494.88460365258</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>146735.47945903358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5305,7 +5353,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5548,6 +5596,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5557,7 +5608,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5800,6 +5851,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>9494.8846036525792</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-24264.52054096642</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5821,11 +5875,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511571456"/>
-        <c:axId val="511572992"/>
+        <c:axId val="435531136"/>
+        <c:axId val="435532928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="511571456"/>
+        <c:axId val="435531136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5865,14 +5919,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511572992"/>
+        <c:crossAx val="435532928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="511572992"/>
+        <c:axId val="435532928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5921,7 +5975,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511571456"/>
+        <c:crossAx val="435531136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6051,7 +6105,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6294,6 +6348,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6303,7 +6360,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6546,6 +6603,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>168000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>171000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6579,7 +6639,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6822,6 +6882,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6831,7 +6894,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7074,6 +7137,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>177494.88460365258</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>146735.47945903358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7107,7 +7173,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7350,6 +7416,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7359,7 +7428,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7602,6 +7671,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>9494.8846036525792</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-24264.52054096642</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7623,11 +7695,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511603072"/>
-        <c:axId val="511604608"/>
+        <c:axId val="435550464"/>
+        <c:axId val="435355648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="511603072"/>
+        <c:axId val="435550464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7637,14 +7709,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="511604608"/>
+        <c:crossAx val="435355648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="511604608"/>
+        <c:axId val="435355648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7655,7 +7727,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="511603072"/>
+        <c:crossAx val="435550464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7773,7 +7845,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8016,6 +8088,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8025,7 +8100,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8268,6 +8343,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>168000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>171000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8310,7 +8388,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8553,6 +8631,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8562,7 +8643,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8805,6 +8886,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>176773.3275352972</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>146151.16204949972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8847,7 +8931,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9090,6 +9174,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9099,7 +9186,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9342,6 +9429,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>8773.3275352971978</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-24848.837950500281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9363,11 +9453,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511909248"/>
-        <c:axId val="511919232"/>
+        <c:axId val="435402240"/>
+        <c:axId val="435403776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="511909248"/>
+        <c:axId val="435402240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9407,14 +9497,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511919232"/>
+        <c:crossAx val="435403776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="511919232"/>
+        <c:axId val="435403776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9463,7 +9553,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511909248"/>
+        <c:crossAx val="435402240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9593,7 +9683,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9836,6 +9926,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9845,7 +9938,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10088,6 +10181,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>168000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>171000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10121,7 +10217,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10364,6 +10460,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10373,7 +10472,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10616,6 +10715,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>176773.3275352972</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>146151.16204949972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10649,7 +10751,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10892,6 +10994,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10901,7 +11006,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11144,6 +11249,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>8773.3275352971978</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-24848.837950500281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11165,11 +11273,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511940864"/>
-        <c:axId val="511950848"/>
+        <c:axId val="434459008"/>
+        <c:axId val="434460544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="511940864"/>
+        <c:axId val="434459008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11179,14 +11287,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="511950848"/>
+        <c:crossAx val="434460544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="511950848"/>
+        <c:axId val="434460544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11197,7 +11305,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="511940864"/>
+        <c:crossAx val="434459008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11239,7 +11347,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11277,7 +11385,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11318,7 +11426,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11356,7 +11464,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11399,7 +11507,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11437,7 +11545,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11715,7 +11823,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11724,7 +11832,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB83"/>
+  <dimension ref="A1:AB84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14634,6 +14742,35 @@
         <v>7026.3100023172738</v>
       </c>
     </row>
+    <row r="84" spans="1:9" ht="12.75">
+      <c r="A84" s="13">
+        <v>45322</v>
+      </c>
+      <c r="B84" s="18">
+        <v>0.97500002384185791</v>
+      </c>
+      <c r="C84" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D84" s="15">
+        <v>2051.2820011216677</v>
+      </c>
+      <c r="E84" s="15">
+        <v>142438.5831122947</v>
+      </c>
+      <c r="F84" s="15">
+        <v>138877.6219304878</v>
+      </c>
+      <c r="G84" s="15">
+        <v>164000</v>
+      </c>
+      <c r="H84" s="15">
+        <v>138877.6219304878</v>
+      </c>
+      <c r="I84" s="15">
+        <v>-25122.378069512197</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14645,7 +14782,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH83"/>
+  <dimension ref="A1:AH84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18837,6 +18974,50 @@
         <v>37.631402431181847</v>
       </c>
     </row>
+    <row r="84" spans="1:14" ht="12.75">
+      <c r="A84" s="13">
+        <v>45322</v>
+      </c>
+      <c r="B84" s="18">
+        <v>0.97500002384185791</v>
+      </c>
+      <c r="C84" s="22">
+        <v>3000</v>
+      </c>
+      <c r="D84" s="15">
+        <v>3076.9230016825013</v>
+      </c>
+      <c r="E84" s="15">
+        <v>150497.92397013688</v>
+      </c>
+      <c r="F84" s="15">
+        <v>146735.47945903358</v>
+      </c>
+      <c r="G84" s="15">
+        <v>171000</v>
+      </c>
+      <c r="H84" s="15">
+        <v>146735.47945903358</v>
+      </c>
+      <c r="I84" s="15">
+        <v>-24264.52054096642</v>
+      </c>
+      <c r="J84" s="21">
+        <v>0</v>
+      </c>
+      <c r="K84" s="21">
+        <v>1.550830708374204E-2</v>
+      </c>
+      <c r="L84" s="21">
+        <v>0.22899997234344482</v>
+      </c>
+      <c r="M84" s="23">
+        <v>7.9377741320371495E-2</v>
+      </c>
+      <c r="N84" s="21">
+        <v>19.537349924268998</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18848,7 +19029,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH83"/>
+  <dimension ref="A1:AH84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23656,6 +23837,59 @@
         <v>-1.0327059079497758</v>
       </c>
     </row>
+    <row r="84" spans="1:17" ht="12.75">
+      <c r="A84" s="13">
+        <v>45322</v>
+      </c>
+      <c r="B84" s="18">
+        <v>0.97500002384185791</v>
+      </c>
+      <c r="C84" s="22">
+        <v>3000</v>
+      </c>
+      <c r="D84" s="15">
+        <v>3076.9230016825013</v>
+      </c>
+      <c r="E84" s="15">
+        <v>149898.62407757746</v>
+      </c>
+      <c r="F84" s="15">
+        <v>146151.16204949972</v>
+      </c>
+      <c r="G84" s="15">
+        <v>171000</v>
+      </c>
+      <c r="H84" s="15">
+        <v>146151.16204949972</v>
+      </c>
+      <c r="I84" s="15">
+        <v>-24848.837950500281</v>
+      </c>
+      <c r="J84" s="15">
+        <v>1.2109999656677246</v>
+      </c>
+      <c r="K84" s="15">
+        <v>0.97500002384185791</v>
+      </c>
+      <c r="L84" s="19">
+        <v>1.6160000562667847</v>
+      </c>
+      <c r="M84" s="19">
+        <v>0.97500002384185791</v>
+      </c>
+      <c r="N84" s="21">
+        <v>0</v>
+      </c>
+      <c r="O84" s="21">
+        <v>16.25454183774546</v>
+      </c>
+      <c r="P84" s="21">
+        <v>30.144228671849934</v>
+      </c>
+      <c r="Q84" s="21">
+        <v>-11.524831830463491</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
@@ -689,7 +689,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -935,6 +935,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -944,7 +947,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1190,6 +1193,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>164000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>166000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1232,7 +1238,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1478,6 +1484,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1487,7 +1496,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1733,6 +1742,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>138877.6219304878</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>171644.35031330268</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1775,7 +1787,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2021,6 +2033,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2030,7 +2045,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2276,6 +2291,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>-25122.378069512197</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5644.3503133026825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2297,11 +2315,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="463282560"/>
-        <c:axId val="463284096"/>
+        <c:axId val="405008384"/>
+        <c:axId val="405009920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="463282560"/>
+        <c:axId val="405008384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2341,14 +2359,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463284096"/>
+        <c:crossAx val="405009920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="463284096"/>
+        <c:axId val="405009920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2397,7 +2415,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463282560"/>
+        <c:crossAx val="405008384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2527,7 +2545,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2773,6 +2791,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2782,7 +2803,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3028,6 +3049,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>164000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>166000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3061,7 +3085,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3307,6 +3331,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3316,7 +3343,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3562,6 +3589,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>138877.6219304878</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>171644.35031330268</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3595,7 +3625,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3841,6 +3871,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3850,7 +3883,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4096,6 +4129,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>-25122.378069512197</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5644.3503133026825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4117,11 +4153,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435446144"/>
-        <c:axId val="435447680"/>
+        <c:axId val="464777984"/>
+        <c:axId val="464779904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="435446144"/>
+        <c:axId val="464777984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4131,14 +4167,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="435447680"/>
+        <c:crossAx val="464779904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="435447680"/>
+        <c:axId val="464779904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4149,7 +4185,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="435446144"/>
+        <c:crossAx val="464777984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4267,7 +4303,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4513,6 +4549,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4522,7 +4561,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4768,6 +4807,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>171000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>173000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4810,7 +4852,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5056,6 +5098,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5065,7 +5110,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5311,6 +5356,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>146735.47945903358</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>181243.02515201695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5353,7 +5401,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5599,6 +5647,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5608,7 +5659,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5854,6 +5905,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>-24264.52054096642</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8243.025152016955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5875,11 +5929,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435531136"/>
-        <c:axId val="435532928"/>
+        <c:axId val="425793408"/>
+        <c:axId val="425794944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="435531136"/>
+        <c:axId val="425793408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5919,14 +5973,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435532928"/>
+        <c:crossAx val="425794944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="435532928"/>
+        <c:axId val="425794944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5975,7 +6029,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435531136"/>
+        <c:crossAx val="425793408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6105,7 +6159,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6351,6 +6405,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6360,7 +6417,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6606,6 +6663,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>171000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>173000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6639,7 +6699,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6885,6 +6945,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6894,7 +6957,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7140,6 +7203,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>146735.47945903358</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>181243.02515201695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7173,7 +7239,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7419,6 +7485,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7428,7 +7497,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7674,6 +7743,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>-24264.52054096642</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8243.025152016955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7695,11 +7767,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435550464"/>
-        <c:axId val="435355648"/>
+        <c:axId val="425816832"/>
+        <c:axId val="425818368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="435550464"/>
+        <c:axId val="425816832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7709,14 +7781,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="435355648"/>
+        <c:crossAx val="425818368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="435355648"/>
+        <c:axId val="425818368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7727,7 +7799,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="435550464"/>
+        <c:crossAx val="425816832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7845,7 +7917,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8091,6 +8163,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8100,7 +8175,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8346,6 +8421,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>171000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>173000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8388,7 +8466,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8634,6 +8712,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8643,7 +8724,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8889,6 +8970,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>146151.16204949972</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>180529.25898912328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8931,7 +9015,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9177,6 +9261,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9186,7 +9273,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9432,6 +9519,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>-24848.837950500281</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7529.2589891232783</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9453,11 +9543,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435402240"/>
-        <c:axId val="435403776"/>
+        <c:axId val="426414464"/>
+        <c:axId val="426416000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="435402240"/>
+        <c:axId val="426414464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9497,14 +9587,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435403776"/>
+        <c:crossAx val="426416000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="435403776"/>
+        <c:axId val="426416000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9553,7 +9643,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435402240"/>
+        <c:crossAx val="426414464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9683,7 +9773,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9929,6 +10019,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9938,7 +10031,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10184,6 +10277,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>171000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>173000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10217,7 +10313,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10463,6 +10559,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10472,7 +10571,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10718,6 +10817,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>146151.16204949972</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>180529.25898912328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10751,7 +10853,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10997,6 +11099,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11006,7 +11111,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11252,6 +11357,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>-24848.837950500281</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7529.2589891232783</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11273,11 +11381,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="434459008"/>
-        <c:axId val="434460544"/>
+        <c:axId val="426441344"/>
+        <c:axId val="426316160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="434459008"/>
+        <c:axId val="426441344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11287,14 +11395,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="434460544"/>
+        <c:crossAx val="426316160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="434460544"/>
+        <c:axId val="426316160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11305,7 +11413,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="434459008"/>
+        <c:crossAx val="426441344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11347,7 +11455,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11385,7 +11493,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11426,7 +11534,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11464,7 +11572,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11507,7 +11615,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11545,7 +11653,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11823,7 +11931,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11832,7 +11940,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB84"/>
+  <dimension ref="A1:AB85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14771,6 +14879,35 @@
         <v>-25122.378069512197</v>
       </c>
     </row>
+    <row r="85" spans="1:9" ht="12.75">
+      <c r="A85" s="13">
+        <v>45351</v>
+      </c>
+      <c r="B85" s="18">
+        <v>1.1909999847412109</v>
+      </c>
+      <c r="C85" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D85" s="15">
+        <v>1679.2611466192204</v>
+      </c>
+      <c r="E85" s="15">
+        <v>144117.84425891392</v>
+      </c>
+      <c r="F85" s="15">
+        <v>171644.35031330268</v>
+      </c>
+      <c r="G85" s="15">
+        <v>166000</v>
+      </c>
+      <c r="H85" s="15">
+        <v>171644.35031330268</v>
+      </c>
+      <c r="I85" s="15">
+        <v>5644.3503133026825</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14782,7 +14919,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH84"/>
+  <dimension ref="A1:AH85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19018,6 +19155,50 @@
         <v>19.537349924268998</v>
       </c>
     </row>
+    <row r="85" spans="1:14" ht="12.75">
+      <c r="A85" s="13">
+        <v>45351</v>
+      </c>
+      <c r="B85" s="18">
+        <v>1.1909999847412109</v>
+      </c>
+      <c r="C85" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D85" s="15">
+        <v>1679.2611466192204</v>
+      </c>
+      <c r="E85" s="15">
+        <v>152177.1851167561</v>
+      </c>
+      <c r="F85" s="15">
+        <v>181243.02515201695</v>
+      </c>
+      <c r="G85" s="15">
+        <v>173000</v>
+      </c>
+      <c r="H85" s="15">
+        <v>181243.02515201695</v>
+      </c>
+      <c r="I85" s="15">
+        <v>8243.025152016955</v>
+      </c>
+      <c r="J85" s="21">
+        <v>0.21599996089935303</v>
+      </c>
+      <c r="K85" s="21">
+        <v>4.8923582719677207E-2</v>
+      </c>
+      <c r="L85" s="21">
+        <v>0.21599996089935303</v>
+      </c>
+      <c r="M85" s="23">
+        <v>0.10214811125020175</v>
+      </c>
+      <c r="N85" s="21">
+        <v>47.894750202325042</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19029,7 +19210,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH84"/>
+  <dimension ref="A1:AH85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23890,6 +24071,59 @@
         <v>-11.524831830463491</v>
       </c>
     </row>
+    <row r="85" spans="1:17" ht="12.75">
+      <c r="A85" s="13">
+        <v>45351</v>
+      </c>
+      <c r="B85" s="18">
+        <v>1.1909999847412109</v>
+      </c>
+      <c r="C85" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D85" s="15">
+        <v>1679.2611466192204</v>
+      </c>
+      <c r="E85" s="15">
+        <v>151577.88522419668</v>
+      </c>
+      <c r="F85" s="15">
+        <v>180529.25898912328</v>
+      </c>
+      <c r="G85" s="15">
+        <v>173000</v>
+      </c>
+      <c r="H85" s="15">
+        <v>180529.25898912328</v>
+      </c>
+      <c r="I85" s="15">
+        <v>7529.2589891232783</v>
+      </c>
+      <c r="J85" s="15">
+        <v>1.218000054359436</v>
+      </c>
+      <c r="K85" s="15">
+        <v>0.91699999570846558</v>
+      </c>
+      <c r="L85" s="19">
+        <v>1.6160000562667847</v>
+      </c>
+      <c r="M85" s="19">
+        <v>0.91699999570846558</v>
+      </c>
+      <c r="N85" s="21">
+        <v>39.198850542858423</v>
+      </c>
+      <c r="O85" s="21">
+        <v>23.902644739449784</v>
+      </c>
+      <c r="P85" s="21">
+        <v>28.063700694383215</v>
+      </c>
+      <c r="Q85" s="21">
+        <v>15.580532829582921</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
@@ -689,7 +689,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -938,6 +938,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -947,7 +950,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1196,6 +1199,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>166000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>168000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1238,7 +1244,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1487,6 +1493,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1496,7 +1505,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1745,6 +1754,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>171644.35031330268</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>173788.47489219444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1787,7 +1799,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2036,6 +2048,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2045,7 +2060,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2294,6 +2309,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>5644.3503133026825</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5788.4748921944411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2315,11 +2333,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="405008384"/>
-        <c:axId val="405009920"/>
+        <c:axId val="617567744"/>
+        <c:axId val="617569280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="405008384"/>
+        <c:axId val="617567744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2359,14 +2377,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405009920"/>
+        <c:crossAx val="617569280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="405009920"/>
+        <c:axId val="617569280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2415,7 +2433,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405008384"/>
+        <c:crossAx val="617567744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2545,7 +2563,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2794,6 +2812,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2803,7 +2824,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3052,6 +3073,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>166000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>168000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3085,7 +3109,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3334,6 +3358,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3343,7 +3370,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3592,6 +3619,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>171644.35031330268</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>173788.47489219444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3625,7 +3655,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3874,6 +3904,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3883,7 +3916,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4132,6 +4165,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>5644.3503133026825</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5788.4748921944411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4153,11 +4189,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="464777984"/>
-        <c:axId val="464779904"/>
+        <c:axId val="617615360"/>
+        <c:axId val="617617280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="464777984"/>
+        <c:axId val="617615360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4167,14 +4203,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="464779904"/>
+        <c:crossAx val="617617280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="464779904"/>
+        <c:axId val="617617280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4185,7 +4221,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="464777984"/>
+        <c:crossAx val="617615360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4303,7 +4339,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4552,6 +4588,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4561,7 +4600,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4810,6 +4849,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>173000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>175000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4852,7 +4894,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5101,6 +5143,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5110,7 +5155,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5359,6 +5404,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>181243.02515201695</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>183395.20944837987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5401,7 +5449,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5650,6 +5698,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5659,7 +5710,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5908,6 +5959,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>8243.025152016955</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8395.2094483798719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5929,11 +5983,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="425793408"/>
-        <c:axId val="425794944"/>
+        <c:axId val="617691776"/>
+        <c:axId val="617767296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="425793408"/>
+        <c:axId val="617691776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5973,14 +6027,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425794944"/>
+        <c:crossAx val="617767296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="425794944"/>
+        <c:axId val="617767296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6029,7 +6083,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425793408"/>
+        <c:crossAx val="617691776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6159,7 +6213,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6408,6 +6462,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6417,7 +6474,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6666,6 +6723,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>173000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>175000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6699,7 +6759,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6948,6 +7008,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6957,7 +7020,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7206,6 +7269,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>181243.02515201695</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>183395.20944837987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7239,7 +7305,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7488,6 +7554,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7497,7 +7566,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7746,6 +7815,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>8243.025152016955</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8395.2094483798719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7767,11 +7839,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="425816832"/>
-        <c:axId val="425818368"/>
+        <c:axId val="617934208"/>
+        <c:axId val="617974016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="425816832"/>
+        <c:axId val="617934208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7781,14 +7853,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="425818368"/>
+        <c:crossAx val="617974016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="425818368"/>
+        <c:axId val="617974016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7799,7 +7871,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="425816832"/>
+        <c:crossAx val="617934208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7917,7 +7989,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8166,6 +8238,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8175,7 +8250,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8424,6 +8499,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>173000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>175000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8466,7 +8544,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8715,6 +8793,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8724,7 +8805,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8973,6 +9054,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>180529.25898912328</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>182680.84395758834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9015,7 +9099,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9264,6 +9348,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9273,7 +9360,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9522,6 +9609,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>7529.2589891232783</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7680.8439575883385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9543,11 +9633,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="426414464"/>
-        <c:axId val="426416000"/>
+        <c:axId val="618169088"/>
+        <c:axId val="618171392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="426414464"/>
+        <c:axId val="618169088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9587,14 +9677,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426416000"/>
+        <c:crossAx val="618171392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="426416000"/>
+        <c:axId val="618171392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9643,7 +9733,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426414464"/>
+        <c:crossAx val="618169088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9773,7 +9863,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10022,6 +10112,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10031,7 +10124,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10280,6 +10373,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>173000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>175000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10313,7 +10409,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10562,6 +10658,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10571,7 +10670,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10820,6 +10919,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>180529.25898912328</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>182680.84395758834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10853,7 +10955,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11102,6 +11204,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11111,7 +11216,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11360,6 +11465,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>7529.2589891232783</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7680.8439575883385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11381,11 +11489,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="426441344"/>
-        <c:axId val="426316160"/>
+        <c:axId val="631297920"/>
+        <c:axId val="631515008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="426441344"/>
+        <c:axId val="631297920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11395,14 +11503,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="426316160"/>
+        <c:crossAx val="631515008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="426316160"/>
+        <c:axId val="631515008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11413,7 +11521,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="426441344"/>
+        <c:crossAx val="631297920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11940,7 +12048,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB85"/>
+  <dimension ref="A1:AB86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14908,6 +15016,35 @@
         <v>5644.3503133026825</v>
       </c>
     </row>
+    <row r="86" spans="1:9" ht="12.75">
+      <c r="A86" s="13">
+        <v>45380</v>
+      </c>
+      <c r="B86" s="18">
+        <v>1.1920000314712524</v>
+      </c>
+      <c r="C86" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D86" s="15">
+        <v>1677.8523046945356</v>
+      </c>
+      <c r="E86" s="15">
+        <v>145795.69656360845</v>
+      </c>
+      <c r="F86" s="15">
+        <v>173788.47489219444</v>
+      </c>
+      <c r="G86" s="15">
+        <v>168000</v>
+      </c>
+      <c r="H86" s="15">
+        <v>173788.47489219444</v>
+      </c>
+      <c r="I86" s="15">
+        <v>5788.4748921944411</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14919,7 +15056,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH85"/>
+  <dimension ref="A1:AH86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19199,6 +19336,50 @@
         <v>47.894750202325042</v>
       </c>
     </row>
+    <row r="86" spans="1:14" ht="12.75">
+      <c r="A86" s="13">
+        <v>45380</v>
+      </c>
+      <c r="B86" s="18">
+        <v>1.1920000314712524</v>
+      </c>
+      <c r="C86" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D86" s="15">
+        <v>1677.8523046945356</v>
+      </c>
+      <c r="E86" s="15">
+        <v>153855.03742145063</v>
+      </c>
+      <c r="F86" s="15">
+        <v>183395.20944837987</v>
+      </c>
+      <c r="G86" s="15">
+        <v>175000</v>
+      </c>
+      <c r="H86" s="15">
+        <v>183395.20944837987</v>
+      </c>
+      <c r="I86" s="15">
+        <v>8395.2094483798719</v>
+      </c>
+      <c r="J86" s="21">
+        <v>1.0000467300415039E-3</v>
+      </c>
+      <c r="K86" s="21">
+        <v>4.0936326721404591E-2</v>
+      </c>
+      <c r="L86" s="21">
+        <v>1.0000467300415039E-3</v>
+      </c>
+      <c r="M86" s="23">
+        <v>8.5290100496841714E-2</v>
+      </c>
+      <c r="N86" s="21">
+        <v>47.99657461175164</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19210,7 +19391,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH85"/>
+  <dimension ref="A1:AH86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -24124,6 +24305,59 @@
         <v>15.580532829582921</v>
       </c>
     </row>
+    <row r="86" spans="1:17" ht="12.75">
+      <c r="A86" s="13">
+        <v>45380</v>
+      </c>
+      <c r="B86" s="18">
+        <v>1.1920000314712524</v>
+      </c>
+      <c r="C86" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D86" s="15">
+        <v>1677.8523046945356</v>
+      </c>
+      <c r="E86" s="15">
+        <v>153255.73752889122</v>
+      </c>
+      <c r="F86" s="15">
+        <v>182680.84395758834</v>
+      </c>
+      <c r="G86" s="15">
+        <v>175000</v>
+      </c>
+      <c r="H86" s="15">
+        <v>182680.84395758834</v>
+      </c>
+      <c r="I86" s="15">
+        <v>7680.8439575883385</v>
+      </c>
+      <c r="J86" s="15">
+        <v>1.284000039100647</v>
+      </c>
+      <c r="K86" s="15">
+        <v>1.1699999570846558</v>
+      </c>
+      <c r="L86" s="19">
+        <v>1.4780000448226929</v>
+      </c>
+      <c r="M86" s="19">
+        <v>0.91699999570846558</v>
+      </c>
+      <c r="N86" s="21">
+        <v>49.019609926414297</v>
+      </c>
+      <c r="O86" s="21">
+        <v>32.274966468437952</v>
+      </c>
+      <c r="P86" s="21">
+        <v>29.467455952401462</v>
+      </c>
+      <c r="Q86" s="21">
+        <v>37.889987500510934</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
@@ -689,7 +689,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -941,6 +941,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -950,7 +953,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1202,6 +1205,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>168000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>170000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1244,7 +1250,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1496,6 +1502,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1505,7 +1514,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1757,6 +1766,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>173788.47489219444</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>179870.75397885064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1799,7 +1811,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2051,6 +2063,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2060,7 +2075,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2312,6 +2327,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>5788.4748921944411</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9870.7539788506401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2333,11 +2351,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617567744"/>
-        <c:axId val="617569280"/>
+        <c:axId val="458365568"/>
+        <c:axId val="475280128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617567744"/>
+        <c:axId val="458365568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2377,14 +2395,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617569280"/>
+        <c:crossAx val="475280128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617569280"/>
+        <c:axId val="475280128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2433,7 +2451,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617567744"/>
+        <c:crossAx val="458365568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2563,7 +2581,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2815,6 +2833,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2824,7 +2845,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3076,6 +3097,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>168000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>170000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3109,7 +3133,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3361,6 +3385,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3370,7 +3397,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3622,6 +3649,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>173788.47489219444</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>179870.75397885064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3655,7 +3685,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3907,6 +3937,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3916,7 +3949,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4168,6 +4201,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>5788.4748921944411</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9870.7539788506401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4189,11 +4225,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617615360"/>
-        <c:axId val="617617280"/>
+        <c:axId val="506170752"/>
+        <c:axId val="537683072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617615360"/>
+        <c:axId val="506170752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4203,14 +4239,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617617280"/>
+        <c:crossAx val="537683072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617617280"/>
+        <c:axId val="537683072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4221,7 +4257,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617615360"/>
+        <c:crossAx val="506170752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4339,7 +4375,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4591,6 +4627,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4600,7 +4639,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4852,6 +4891,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>177000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4894,7 +4936,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5146,6 +5188,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5155,7 +5200,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5407,6 +5452,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>183395.20944837987</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>189703.15005599771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5449,7 +5497,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5701,6 +5749,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5710,7 +5761,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5962,6 +6013,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>8395.2094483798719</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>12703.150055997714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5983,11 +6037,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617691776"/>
-        <c:axId val="617767296"/>
+        <c:axId val="460378880"/>
+        <c:axId val="460380416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617691776"/>
+        <c:axId val="460378880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6027,14 +6081,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617767296"/>
+        <c:crossAx val="460380416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617767296"/>
+        <c:axId val="460380416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6083,7 +6137,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617691776"/>
+        <c:crossAx val="460378880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6213,7 +6267,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6465,6 +6519,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6474,7 +6531,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6726,6 +6783,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>177000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6759,7 +6819,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7011,6 +7071,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7020,7 +7083,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7272,6 +7335,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>183395.20944837987</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>189703.15005599771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7305,7 +7371,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7557,6 +7623,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7566,7 +7635,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7818,6 +7887,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>8395.2094483798719</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>12703.150055997714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7839,11 +7911,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617934208"/>
-        <c:axId val="617974016"/>
+        <c:axId val="458157440"/>
+        <c:axId val="459740288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617934208"/>
+        <c:axId val="458157440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7853,14 +7925,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617974016"/>
+        <c:crossAx val="459740288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617974016"/>
+        <c:axId val="459740288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7871,7 +7943,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617934208"/>
+        <c:crossAx val="458157440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7989,7 +8061,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8241,6 +8313,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8250,7 +8325,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8502,6 +8577,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>177000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8544,7 +8622,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8796,6 +8874,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8805,7 +8886,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9057,6 +9138,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>182680.84395758834</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>188972.0041699291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9099,7 +9183,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9351,6 +9435,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9360,7 +9447,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9612,6 +9699,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>7680.8439575883385</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>11972.004169929103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9633,11 +9723,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="618169088"/>
-        <c:axId val="618171392"/>
+        <c:axId val="460339840"/>
+        <c:axId val="460345728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="618169088"/>
+        <c:axId val="460339840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9677,14 +9767,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618171392"/>
+        <c:crossAx val="460345728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="618171392"/>
+        <c:axId val="460345728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9733,7 +9823,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618169088"/>
+        <c:crossAx val="460339840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9863,7 +9953,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10115,6 +10205,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10124,7 +10217,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10376,6 +10469,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>177000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10409,7 +10505,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10661,6 +10757,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10670,7 +10769,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10922,6 +11021,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>182680.84395758834</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>188972.0041699291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10955,7 +11057,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11207,6 +11309,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11216,7 +11321,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11468,6 +11573,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>7680.8439575883385</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>11972.004169929103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11489,11 +11597,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="631297920"/>
-        <c:axId val="631515008"/>
+        <c:axId val="461846016"/>
+        <c:axId val="461847552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="631297920"/>
+        <c:axId val="461846016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11503,14 +11611,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="631515008"/>
+        <c:crossAx val="461847552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="631515008"/>
+        <c:axId val="461847552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11521,7 +11629,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="631297920"/>
+        <c:crossAx val="461846016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11563,7 +11671,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11601,7 +11709,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11642,7 +11750,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11680,7 +11788,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11723,7 +11831,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11761,7 +11869,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12039,7 +12147,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12048,7 +12156,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB86"/>
+  <dimension ref="A1:AB87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15045,6 +15153,35 @@
         <v>5788.4748921944411</v>
       </c>
     </row>
+    <row r="87" spans="1:9" ht="12.75">
+      <c r="A87" s="13">
+        <v>45412</v>
+      </c>
+      <c r="B87" s="18">
+        <v>1.2200000286102295</v>
+      </c>
+      <c r="C87" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D87" s="15">
+        <v>1639.3442238508078</v>
+      </c>
+      <c r="E87" s="15">
+        <v>147435.04078745926</v>
+      </c>
+      <c r="F87" s="15">
+        <v>179870.75397885064</v>
+      </c>
+      <c r="G87" s="15">
+        <v>170000</v>
+      </c>
+      <c r="H87" s="15">
+        <v>179870.75397885064</v>
+      </c>
+      <c r="I87" s="15">
+        <v>9870.7539788506401</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15056,7 +15193,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH86"/>
+  <dimension ref="A1:AH87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19380,6 +19517,50 @@
         <v>47.99657461175164</v>
       </c>
     </row>
+    <row r="87" spans="1:14" ht="12.75">
+      <c r="A87" s="13">
+        <v>45412</v>
+      </c>
+      <c r="B87" s="18">
+        <v>1.2200000286102295</v>
+      </c>
+      <c r="C87" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D87" s="15">
+        <v>1639.3442238508078</v>
+      </c>
+      <c r="E87" s="15">
+        <v>155494.38164530144</v>
+      </c>
+      <c r="F87" s="15">
+        <v>189703.15005599771</v>
+      </c>
+      <c r="G87" s="15">
+        <v>177000</v>
+      </c>
+      <c r="H87" s="15">
+        <v>189703.15005599771</v>
+      </c>
+      <c r="I87" s="15">
+        <v>12703.150055997714</v>
+      </c>
+      <c r="J87" s="21">
+        <v>2.7999997138977051E-2</v>
+      </c>
+      <c r="K87" s="21">
+        <v>3.8780271791E-2</v>
+      </c>
+      <c r="L87" s="21">
+        <v>2.7999997138977051E-2</v>
+      </c>
+      <c r="M87" s="23">
+        <v>7.5741749937197608E-2</v>
+      </c>
+      <c r="N87" s="21">
+        <v>51.200654623315721</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19391,7 +19572,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH86"/>
+  <dimension ref="A1:AH87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -24358,6 +24539,59 @@
         <v>37.889987500510934</v>
       </c>
     </row>
+    <row r="87" spans="1:17" ht="12.75">
+      <c r="A87" s="13">
+        <v>45412</v>
+      </c>
+      <c r="B87" s="18">
+        <v>1.2200000286102295</v>
+      </c>
+      <c r="C87" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D87" s="15">
+        <v>1639.3442238508078</v>
+      </c>
+      <c r="E87" s="15">
+        <v>154895.08175274203</v>
+      </c>
+      <c r="F87" s="15">
+        <v>188972.0041699291</v>
+      </c>
+      <c r="G87" s="15">
+        <v>177000</v>
+      </c>
+      <c r="H87" s="15">
+        <v>188972.0041699291</v>
+      </c>
+      <c r="I87" s="15">
+        <v>11972.004169929103</v>
+      </c>
+      <c r="J87" s="15">
+        <v>1.2300000190734863</v>
+      </c>
+      <c r="K87" s="15">
+        <v>1.093999981880188</v>
+      </c>
+      <c r="L87" s="19">
+        <v>1.4390000104904175</v>
+      </c>
+      <c r="M87" s="19">
+        <v>0.91699999570846558</v>
+      </c>
+      <c r="N87" s="21">
+        <v>58.045981670772953</v>
+      </c>
+      <c r="O87" s="21">
+        <v>40.865304869216288</v>
+      </c>
+      <c r="P87" s="21">
+        <v>33.266738924673071</v>
+      </c>
+      <c r="Q87" s="21">
+        <v>56.062436758302724</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
@@ -689,7 +689,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -944,6 +944,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -953,7 +956,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1208,6 +1211,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>172000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1250,7 +1256,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1505,6 +1511,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1514,7 +1523,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1769,6 +1778,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>179870.75397885064</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>171697.7353208859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1811,7 +1823,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2066,6 +2078,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2075,7 +2090,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2330,6 +2345,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>9870.7539788506401</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-302.26467911410145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2351,11 +2369,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="458365568"/>
-        <c:axId val="475280128"/>
+        <c:axId val="181834496"/>
+        <c:axId val="181836032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="458365568"/>
+        <c:axId val="181834496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2395,14 +2413,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475280128"/>
+        <c:crossAx val="181836032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="475280128"/>
+        <c:axId val="181836032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2451,7 +2469,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458365568"/>
+        <c:crossAx val="181834496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2581,7 +2599,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2836,6 +2854,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2845,7 +2866,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3100,6 +3121,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>172000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3133,7 +3157,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3388,6 +3412,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3397,7 +3424,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3652,6 +3679,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>179870.75397885064</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>171697.7353208859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3685,7 +3715,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3940,6 +3970,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3949,7 +3982,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4204,6 +4237,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>9870.7539788506401</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-302.26467911410145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4225,11 +4261,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="506170752"/>
-        <c:axId val="537683072"/>
+        <c:axId val="471016192"/>
+        <c:axId val="471017728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="506170752"/>
+        <c:axId val="471016192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4239,14 +4275,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="537683072"/>
+        <c:crossAx val="471017728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="537683072"/>
+        <c:axId val="471017728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4257,7 +4293,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="506170752"/>
+        <c:crossAx val="471016192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4375,7 +4411,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4630,6 +4666,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4639,7 +4678,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4894,6 +4933,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>177000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>179000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4936,7 +4978,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5191,6 +5233,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5200,7 +5245,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5455,6 +5500,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>189703.15005599771</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>180974.03683272592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5497,7 +5545,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5752,6 +5800,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5761,7 +5812,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6016,6 +6067,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>12703.150055997714</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1974.0368327259202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6037,11 +6091,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="460378880"/>
-        <c:axId val="460380416"/>
+        <c:axId val="477624576"/>
+        <c:axId val="502362112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="460378880"/>
+        <c:axId val="477624576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6081,14 +6135,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460380416"/>
+        <c:crossAx val="502362112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="460380416"/>
+        <c:axId val="502362112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6137,7 +6191,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460378880"/>
+        <c:crossAx val="477624576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6267,7 +6321,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6522,6 +6576,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6531,7 +6588,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6786,6 +6843,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>177000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>179000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6819,7 +6879,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7074,6 +7134,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7083,7 +7146,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7338,6 +7401,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>189703.15005599771</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>180974.03683272592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7371,7 +7437,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7626,6 +7692,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7635,7 +7704,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7890,6 +7959,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>12703.150055997714</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1974.0368327259202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7911,11 +7983,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="458157440"/>
-        <c:axId val="459740288"/>
+        <c:axId val="537172992"/>
+        <c:axId val="574334080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="458157440"/>
+        <c:axId val="537172992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7925,14 +7997,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="459740288"/>
+        <c:crossAx val="574334080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="459740288"/>
+        <c:axId val="574334080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7943,7 +8015,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="458157440"/>
+        <c:crossAx val="537172992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8061,7 +8133,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8316,6 +8388,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8325,7 +8400,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8580,6 +8655,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>177000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>179000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8622,7 +8700,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8877,6 +8955,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8886,7 +8967,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9141,6 +9222,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>188972.0041699291</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>180284.24264267314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9183,7 +9267,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9438,6 +9522,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9447,7 +9534,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9702,6 +9789,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>11972.004169929103</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1284.2426426731399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9723,11 +9813,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="460339840"/>
-        <c:axId val="460345728"/>
+        <c:axId val="797692672"/>
+        <c:axId val="797694208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="460339840"/>
+        <c:axId val="797692672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9767,14 +9857,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460345728"/>
+        <c:crossAx val="797694208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="460345728"/>
+        <c:axId val="797694208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9823,7 +9913,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460339840"/>
+        <c:crossAx val="797692672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9953,7 +10043,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10208,6 +10298,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10217,7 +10310,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10472,6 +10565,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>177000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>179000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10505,7 +10601,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10760,6 +10856,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10769,7 +10868,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11024,6 +11123,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>188972.0041699291</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>180284.24264267314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11057,7 +11159,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11312,6 +11414,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11321,7 +11426,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11576,6 +11681,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>11972.004169929103</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1284.2426426731399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11597,11 +11705,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="461846016"/>
-        <c:axId val="461847552"/>
+        <c:axId val="495500672"/>
+        <c:axId val="495506560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="461846016"/>
+        <c:axId val="495500672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11611,14 +11719,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="461847552"/>
+        <c:crossAx val="495506560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="461847552"/>
+        <c:axId val="495506560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11629,7 +11737,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="461846016"/>
+        <c:crossAx val="495500672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11671,7 +11779,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11709,7 +11817,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11750,7 +11858,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11788,7 +11896,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11831,7 +11939,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11869,7 +11977,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12147,7 +12255,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12156,7 +12264,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB87"/>
+  <dimension ref="A1:AB88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12218,6 +12326,7 @@
       <c r="I1" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:28" ht="14.1" customHeight="1">
       <c r="A2" s="4"/>
@@ -12740,6 +12849,16 @@
         <f t="shared" ref="Y9:Y14" si="6">-X9</f>
         <v>-18000</v>
       </c>
+      <c r="Z9" s="8">
+        <v>43098</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>18000</v>
+      </c>
+      <c r="AB9" s="2">
+        <f t="shared" ref="AB9:AB15" si="7">-AA9</f>
+        <v>-18000</v>
+      </c>
     </row>
     <row r="10" spans="1:28" ht="14.1" customHeight="1">
       <c r="A10" s="13">
@@ -12770,6 +12889,27 @@
         <v>346.838799995101</v>
       </c>
       <c r="J10" s="3"/>
+      <c r="L10" s="8">
+        <v>45289</v>
+      </c>
+      <c r="M10" s="5">
+        <v>24000</v>
+      </c>
+      <c r="N10" s="9">
+        <v>162000</v>
+      </c>
+      <c r="O10" s="9">
+        <v>169026.31000231727</v>
+      </c>
+      <c r="P10" s="9">
+        <v>7026.3100023172738</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>4.3372283964921446E-2</v>
+      </c>
+      <c r="R10" s="11">
+        <v>1.091929616280618E-2</v>
+      </c>
       <c r="T10" s="8">
         <v>43462</v>
       </c>
@@ -12790,6 +12930,16 @@
         <f t="shared" si="6"/>
         <v>-24000</v>
       </c>
+      <c r="Z10" s="8">
+        <v>43462</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AB10" s="2">
+        <f t="shared" si="7"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="11" spans="1:28" ht="14.1" customHeight="1">
       <c r="A11" s="13">
@@ -12840,6 +12990,16 @@
         <f t="shared" si="6"/>
         <v>-24000</v>
       </c>
+      <c r="Z11" s="8">
+        <v>43830</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AB11" s="2">
+        <f t="shared" si="7"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="12" spans="1:28" ht="14.1" customHeight="1">
       <c r="A12" s="13">
@@ -12890,6 +13050,16 @@
         <f t="shared" si="6"/>
         <v>-24000</v>
       </c>
+      <c r="Z12" s="8">
+        <v>44196</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AB12" s="2">
+        <f t="shared" si="7"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="13" spans="1:28" ht="14.1" customHeight="1">
       <c r="A13" s="13">
@@ -12940,6 +13110,16 @@
         <f t="shared" si="6"/>
         <v>-24000</v>
       </c>
+      <c r="Z13" s="8">
+        <v>44561</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AB13" s="2">
+        <f t="shared" si="7"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="14" spans="1:28" ht="14.1" customHeight="1">
       <c r="A14" s="13">
@@ -12986,6 +13166,16 @@
         <f t="shared" si="6"/>
         <v>-24000</v>
       </c>
+      <c r="Z14" s="8">
+        <v>44925</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AB14" s="2">
+        <f t="shared" si="7"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="15" spans="1:28" ht="14.1" customHeight="1">
       <c r="A15" s="13">
@@ -13025,6 +13215,16 @@
       <c r="Y15" s="2">
         <v>133607.30544846162</v>
       </c>
+      <c r="Z15" s="8">
+        <v>45289</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AB15" s="2">
+        <f t="shared" si="7"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="16" spans="1:28" ht="14.1" customHeight="1">
       <c r="A16" s="13">
@@ -13058,8 +13258,14 @@
       <c r="Y16" s="24">
         <v>-9.5303314706246534E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="14.1" customHeight="1">
+      <c r="Z16" s="8">
+        <v>45289</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>169026.31000231727</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="14.1" customHeight="1">
       <c r="A17" s="13">
         <v>43280</v>
       </c>
@@ -13088,8 +13294,11 @@
         <v>-3098.0107870352113</v>
       </c>
       <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" ht="14.1" customHeight="1">
+      <c r="AB17" s="24">
+        <v>1.091929616280618E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="14.1" customHeight="1">
       <c r="A18" s="13">
         <v>43312</v>
       </c>
@@ -13119,7 +13328,7 @@
       </c>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:12" ht="14.1" customHeight="1">
+    <row r="19" spans="1:28" ht="14.1" customHeight="1">
       <c r="A19" s="13">
         <v>43343</v>
       </c>
@@ -13147,9 +13356,9 @@
       <c r="I19" s="15">
         <v>-4901.9066203802577</v>
       </c>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" ht="14.1" customHeight="1">
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:28" ht="14.1" customHeight="1">
       <c r="A20" s="13">
         <v>43371</v>
       </c>
@@ -13177,9 +13386,9 @@
       <c r="I20" s="15">
         <v>-5911.0890497312321</v>
       </c>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="1:12" ht="14.1" customHeight="1">
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:28" ht="14.1" customHeight="1">
       <c r="A21" s="13">
         <v>43404</v>
       </c>
@@ -13209,7 +13418,7 @@
       </c>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="14.1" customHeight="1">
+    <row r="22" spans="1:28" ht="14.1" customHeight="1">
       <c r="A22" s="13">
         <v>43434</v>
       </c>
@@ -13239,7 +13448,7 @@
       </c>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:12" ht="14.1" customHeight="1">
+    <row r="23" spans="1:28" ht="14.1" customHeight="1">
       <c r="A23" s="13">
         <v>43462</v>
       </c>
@@ -13270,7 +13479,7 @@
       <c r="J23" s="3"/>
       <c r="L23" s="10"/>
     </row>
-    <row r="24" spans="1:12" ht="14.1" customHeight="1">
+    <row r="24" spans="1:28" ht="14.1" customHeight="1">
       <c r="A24" s="13">
         <v>43496</v>
       </c>
@@ -13300,7 +13509,7 @@
       </c>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:12" ht="14.1" customHeight="1">
+    <row r="25" spans="1:28" ht="14.1" customHeight="1">
       <c r="A25" s="13">
         <v>43524</v>
       </c>
@@ -13330,7 +13539,7 @@
       </c>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:12" ht="14.1" customHeight="1">
+    <row r="26" spans="1:28" ht="14.1" customHeight="1">
       <c r="A26" s="13">
         <v>43553</v>
       </c>
@@ -13360,7 +13569,7 @@
       </c>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:12" ht="14.1" customHeight="1">
+    <row r="27" spans="1:28" ht="14.1" customHeight="1">
       <c r="A27" s="13">
         <v>43585</v>
       </c>
@@ -13390,7 +13599,7 @@
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:12" ht="14.1" customHeight="1">
+    <row r="28" spans="1:28" ht="14.1" customHeight="1">
       <c r="A28" s="13">
         <v>43616</v>
       </c>
@@ -13420,7 +13629,7 @@
       </c>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:12" ht="14.1" customHeight="1">
+    <row r="29" spans="1:28" ht="14.1" customHeight="1">
       <c r="A29" s="13">
         <v>43644</v>
       </c>
@@ -13450,7 +13659,7 @@
       </c>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:12" ht="14.1" customHeight="1">
+    <row r="30" spans="1:28" ht="14.1" customHeight="1">
       <c r="A30" s="13">
         <v>43677</v>
       </c>
@@ -13480,7 +13689,7 @@
       </c>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:12" ht="14.1" customHeight="1">
+    <row r="31" spans="1:28" ht="14.1" customHeight="1">
       <c r="A31" s="13">
         <v>43707</v>
       </c>
@@ -13510,7 +13719,7 @@
       </c>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:12" ht="14.1" customHeight="1">
+    <row r="32" spans="1:28" ht="14.1" customHeight="1">
       <c r="A32" s="13">
         <v>43738</v>
       </c>
@@ -14832,7 +15041,6 @@
       <c r="I75" s="15">
         <v>35238.948960354406</v>
       </c>
-      <c r="J75" s="3"/>
     </row>
     <row r="76" spans="1:12" ht="12.75">
       <c r="A76" s="13">
@@ -15180,6 +15388,35 @@
       </c>
       <c r="I87" s="15">
         <v>9870.7539788506401</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="12.75">
+      <c r="A88" s="13">
+        <v>45443</v>
+      </c>
+      <c r="B88" s="18">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="C88" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D88" s="15">
+        <v>1737.6194267845765</v>
+      </c>
+      <c r="E88" s="15">
+        <v>149172.66021424384</v>
+      </c>
+      <c r="F88" s="15">
+        <v>171697.7353208859</v>
+      </c>
+      <c r="G88" s="15">
+        <v>172000</v>
+      </c>
+      <c r="H88" s="15">
+        <v>171697.7353208859</v>
+      </c>
+      <c r="I88" s="15">
+        <v>-302.26467911410145</v>
       </c>
     </row>
   </sheetData>
@@ -15193,7 +15430,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH87"/>
+  <dimension ref="A1:AH88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15904,6 +16141,16 @@
         <f t="shared" ref="AE9:AE14" si="3">-AD9</f>
         <v>-19000</v>
       </c>
+      <c r="AF9" s="8">
+        <v>43098</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>19000</v>
+      </c>
+      <c r="AH9" s="2">
+        <f t="shared" ref="AH9:AH15" si="4">-AG9</f>
+        <v>-19000</v>
+      </c>
     </row>
     <row r="10" spans="1:34" ht="14.1" customHeight="1">
       <c r="A10" s="13">
@@ -15951,6 +16198,27 @@
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
+      <c r="R10" s="8">
+        <v>45289</v>
+      </c>
+      <c r="S10" s="5">
+        <v>24000</v>
+      </c>
+      <c r="T10" s="9">
+        <v>168000</v>
+      </c>
+      <c r="U10" s="9">
+        <v>177494.88460365258</v>
+      </c>
+      <c r="V10" s="9">
+        <v>9494.8846036525792</v>
+      </c>
+      <c r="W10" s="11">
+        <v>5.6517170259836783E-2</v>
+      </c>
+      <c r="X10" s="11">
+        <v>1.3933863862292117E-2</v>
+      </c>
       <c r="Z10" s="8">
         <v>43462</v>
       </c>
@@ -15969,6 +16237,16 @@
       </c>
       <c r="AE10" s="2">
         <f t="shared" si="3"/>
+        <v>-28000</v>
+      </c>
+      <c r="AF10" s="8">
+        <v>43462</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>28000</v>
+      </c>
+      <c r="AH10" s="2">
+        <f t="shared" si="4"/>
         <v>-28000</v>
       </c>
     </row>
@@ -16038,6 +16316,16 @@
         <f t="shared" si="3"/>
         <v>-24000</v>
       </c>
+      <c r="AF11" s="8">
+        <v>43830</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AH11" s="2">
+        <f t="shared" si="4"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="12" spans="1:34" ht="14.1" customHeight="1">
       <c r="A12" s="13">
@@ -16105,6 +16393,16 @@
         <f t="shared" si="3"/>
         <v>-24000</v>
       </c>
+      <c r="AF12" s="8">
+        <v>44196</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AH12" s="2">
+        <f t="shared" si="4"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="13" spans="1:34" ht="14.1" customHeight="1">
       <c r="A13" s="13">
@@ -16172,6 +16470,16 @@
         <f t="shared" si="3"/>
         <v>-24000</v>
       </c>
+      <c r="AF13" s="8">
+        <v>44561</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AH13" s="2">
+        <f t="shared" si="4"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="14" spans="1:34" ht="14.1" customHeight="1">
       <c r="A14" s="13">
@@ -16235,6 +16543,16 @@
         <f t="shared" si="3"/>
         <v>-25000</v>
       </c>
+      <c r="AF14" s="8">
+        <v>44925</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>25000</v>
+      </c>
+      <c r="AH14" s="2">
+        <f t="shared" si="4"/>
+        <v>-25000</v>
+      </c>
     </row>
     <row r="15" spans="1:34" ht="14.1" customHeight="1">
       <c r="A15" s="13">
@@ -16291,6 +16609,16 @@
       <c r="AE15" s="2">
         <v>141309.20699342049</v>
       </c>
+      <c r="AF15" s="8">
+        <v>45289</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AH15" s="2">
+        <f t="shared" si="4"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="16" spans="1:34" ht="14.1" customHeight="1">
       <c r="A16" s="13">
@@ -16341,8 +16669,14 @@
       <c r="AE16" s="24">
         <v>-5.4846057597317532E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" ht="14.1" customHeight="1">
+      <c r="AF16" s="8">
+        <v>45289</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>177494.88460365258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="14.1" customHeight="1">
       <c r="A17" s="13">
         <v>43280</v>
       </c>
@@ -16388,8 +16722,11 @@
       <c r="O17" s="21"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
-    </row>
-    <row r="18" spans="1:18" ht="14.1" customHeight="1">
+      <c r="AH17" s="24">
+        <v>1.3933863862292117E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="14.1" customHeight="1">
       <c r="A18" s="13">
         <v>43312</v>
       </c>
@@ -16436,7 +16773,7 @@
       <c r="P18" s="21"/>
       <c r="Q18" s="21"/>
     </row>
-    <row r="19" spans="1:18" ht="14.1" customHeight="1">
+    <row r="19" spans="1:34" ht="14.1" customHeight="1">
       <c r="A19" s="13">
         <v>43343</v>
       </c>
@@ -16483,7 +16820,7 @@
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
     </row>
-    <row r="20" spans="1:18" ht="14.1" customHeight="1">
+    <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="13">
         <v>43371</v>
       </c>
@@ -16530,7 +16867,7 @@
       <c r="P20" s="21"/>
       <c r="Q20" s="21"/>
     </row>
-    <row r="21" spans="1:18" ht="14.1" customHeight="1">
+    <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="13">
         <v>43404</v>
       </c>
@@ -16577,7 +16914,7 @@
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
     </row>
-    <row r="22" spans="1:18" ht="14.1" customHeight="1">
+    <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="13">
         <v>43434</v>
       </c>
@@ -16624,7 +16961,7 @@
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
     </row>
-    <row r="23" spans="1:18" ht="14.1" customHeight="1">
+    <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="13">
         <v>43462</v>
       </c>
@@ -16672,7 +17009,7 @@
       <c r="Q23" s="21"/>
       <c r="R23" s="10"/>
     </row>
-    <row r="24" spans="1:18" ht="14.1" customHeight="1">
+    <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="13">
         <v>43496</v>
       </c>
@@ -16719,7 +17056,7 @@
       <c r="P24" s="21"/>
       <c r="Q24" s="21"/>
     </row>
-    <row r="25" spans="1:18" ht="14.1" customHeight="1">
+    <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="13">
         <v>43524</v>
       </c>
@@ -16766,7 +17103,7 @@
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
     </row>
-    <row r="26" spans="1:18" ht="14.1" customHeight="1">
+    <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="13">
         <v>43553</v>
       </c>
@@ -16813,7 +17150,7 @@
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
     </row>
-    <row r="27" spans="1:18" ht="14.1" customHeight="1">
+    <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="13">
         <v>43585</v>
       </c>
@@ -16860,7 +17197,7 @@
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
     </row>
-    <row r="28" spans="1:18" ht="14.1" customHeight="1">
+    <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="13">
         <v>43616</v>
       </c>
@@ -16907,7 +17244,7 @@
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
     </row>
-    <row r="29" spans="1:18" ht="14.1" customHeight="1">
+    <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="13">
         <v>43644</v>
       </c>
@@ -16954,7 +17291,7 @@
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
     </row>
-    <row r="30" spans="1:18" ht="14.1" customHeight="1">
+    <row r="30" spans="1:34" ht="14.1" customHeight="1">
       <c r="A30" s="13">
         <v>43677</v>
       </c>
@@ -17001,7 +17338,7 @@
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
     </row>
-    <row r="31" spans="1:18" ht="14.1" customHeight="1">
+    <row r="31" spans="1:34" ht="14.1" customHeight="1">
       <c r="A31" s="13">
         <v>43707</v>
       </c>
@@ -17048,7 +17385,7 @@
       <c r="P31" s="21"/>
       <c r="Q31" s="21"/>
     </row>
-    <row r="32" spans="1:18" ht="14.1" customHeight="1">
+    <row r="32" spans="1:34" ht="14.1" customHeight="1">
       <c r="A32" s="13">
         <v>43738</v>
       </c>
@@ -19559,6 +19896,50 @@
       </c>
       <c r="N87" s="21">
         <v>51.200654623315721</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="12.75">
+      <c r="A88" s="13">
+        <v>45443</v>
+      </c>
+      <c r="B88" s="18">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="C88" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D88" s="15">
+        <v>1737.6194267845765</v>
+      </c>
+      <c r="E88" s="15">
+        <v>157232.00107208602</v>
+      </c>
+      <c r="F88" s="15">
+        <v>180974.03683272592</v>
+      </c>
+      <c r="G88" s="15">
+        <v>179000</v>
+      </c>
+      <c r="H88" s="15">
+        <v>180974.03683272592</v>
+      </c>
+      <c r="I88" s="15">
+        <v>1974.0368327259202</v>
+      </c>
+      <c r="J88" s="21">
+        <v>0</v>
+      </c>
+      <c r="K88" s="21">
+        <v>3.2316893159166665E-2</v>
+      </c>
+      <c r="L88" s="21">
+        <v>6.9000005722045898E-2</v>
+      </c>
+      <c r="M88" s="23">
+        <v>7.4618125901338997E-2</v>
+      </c>
+      <c r="N88" s="21">
+        <v>43.309708959853076</v>
       </c>
     </row>
   </sheetData>
@@ -19572,7 +19953,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH87"/>
+  <dimension ref="A1:AH88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20344,6 +20725,16 @@
         <f t="shared" ref="AE9:AE14" si="5">-AD9</f>
         <v>-18000</v>
       </c>
+      <c r="AF9" s="8">
+        <v>43098</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>18000</v>
+      </c>
+      <c r="AH9" s="2">
+        <f t="shared" ref="AH9:AH15" si="6">-AG9</f>
+        <v>-18000</v>
+      </c>
     </row>
     <row r="10" spans="1:34" ht="14.1" customHeight="1">
       <c r="A10" s="13">
@@ -20397,6 +20788,27 @@
       <c r="Q10" s="21">
         <v>55.924844300476877</v>
       </c>
+      <c r="R10" s="8">
+        <v>45289</v>
+      </c>
+      <c r="S10" s="5">
+        <v>25000</v>
+      </c>
+      <c r="T10" s="9">
+        <v>168000</v>
+      </c>
+      <c r="U10" s="9">
+        <v>176773.3275352972</v>
+      </c>
+      <c r="V10" s="9">
+        <v>8773.3275352971978</v>
+      </c>
+      <c r="W10" s="11">
+        <v>5.2222187710102369E-2</v>
+      </c>
+      <c r="X10" s="11">
+        <v>1.3097767436198504E-2</v>
+      </c>
       <c r="Z10" s="8">
         <v>43462</v>
       </c>
@@ -20417,6 +20829,16 @@
         <f t="shared" si="5"/>
         <v>-27000</v>
       </c>
+      <c r="AF10" s="8">
+        <v>43462</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>27000</v>
+      </c>
+      <c r="AH10" s="2">
+        <f t="shared" si="6"/>
+        <v>-27000</v>
+      </c>
     </row>
     <row r="11" spans="1:34" ht="14.1" customHeight="1">
       <c r="A11" s="13">
@@ -20490,6 +20912,16 @@
         <f t="shared" si="5"/>
         <v>-24000</v>
       </c>
+      <c r="AF11" s="8">
+        <v>43830</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AH11" s="2">
+        <f t="shared" si="6"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="12" spans="1:34" ht="14.1" customHeight="1">
       <c r="A12" s="13">
@@ -20563,6 +20995,16 @@
         <f t="shared" si="5"/>
         <v>-24000</v>
       </c>
+      <c r="AF12" s="8">
+        <v>44196</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AH12" s="2">
+        <f t="shared" si="6"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="13" spans="1:34" ht="14.1" customHeight="1">
       <c r="A13" s="13">
@@ -20636,6 +21078,16 @@
         <f t="shared" si="5"/>
         <v>-24000</v>
       </c>
+      <c r="AF13" s="8">
+        <v>44561</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AH13" s="2">
+        <f t="shared" si="6"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="14" spans="1:34" ht="14.1" customHeight="1">
       <c r="A14" s="13">
@@ -20705,6 +21157,16 @@
         <f t="shared" si="5"/>
         <v>-26000</v>
       </c>
+      <c r="AF14" s="8">
+        <v>44925</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>26000</v>
+      </c>
+      <c r="AH14" s="2">
+        <f t="shared" si="6"/>
+        <v>-26000</v>
+      </c>
     </row>
     <row r="15" spans="1:34" ht="14.1" customHeight="1">
       <c r="A15" s="13">
@@ -20767,6 +21229,16 @@
       <c r="AE15" s="2">
         <v>139743.50512873946</v>
       </c>
+      <c r="AF15" s="8">
+        <v>45289</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>25000</v>
+      </c>
+      <c r="AH15" s="2">
+        <f t="shared" si="6"/>
+        <v>-25000</v>
+      </c>
     </row>
     <row r="16" spans="1:34" ht="14.1" customHeight="1">
       <c r="A16" s="13">
@@ -20823,8 +21295,14 @@
       <c r="AE16" s="24">
         <v>-6.7880447167628644E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" ht="14.1" customHeight="1">
+      <c r="AF16" s="8">
+        <v>45289</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>176773.3275352972</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="14.1" customHeight="1">
       <c r="A17" s="13">
         <v>43280</v>
       </c>
@@ -20876,8 +21354,11 @@
       <c r="Q17" s="21">
         <v>16.287311161230534</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" ht="14.1" customHeight="1">
+      <c r="AH17" s="24">
+        <v>1.3097767436198504E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="14.1" customHeight="1">
       <c r="A18" s="13">
         <v>43312</v>
       </c>
@@ -20930,7 +21411,7 @@
         <v>5.8427539252576537</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="14.1" customHeight="1">
+    <row r="19" spans="1:34" ht="14.1" customHeight="1">
       <c r="A19" s="13">
         <v>43343</v>
       </c>
@@ -20983,7 +21464,7 @@
         <v>-4.3867379984749704</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="14.1" customHeight="1">
+    <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="13">
         <v>43371</v>
       </c>
@@ -21036,7 +21517,7 @@
         <v>-8.5165169023150256</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="14.1" customHeight="1">
+    <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="13">
         <v>43404</v>
       </c>
@@ -21089,7 +21570,7 @@
         <v>-4.7259157195168626</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="14.1" customHeight="1">
+    <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="13">
         <v>43434</v>
       </c>
@@ -21142,7 +21623,7 @@
         <v>5.4096563797217456</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="14.1" customHeight="1">
+    <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="13">
         <v>43462</v>
       </c>
@@ -21196,7 +21677,7 @@
       </c>
       <c r="R23" s="10"/>
     </row>
-    <row r="24" spans="1:18" ht="14.1" customHeight="1">
+    <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="13">
         <v>43496</v>
       </c>
@@ -21249,7 +21730,7 @@
         <v>9.3879340641525388</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="14.1" customHeight="1">
+    <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="13">
         <v>43524</v>
       </c>
@@ -21302,7 +21783,7 @@
         <v>58.875528906141291</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="14.1" customHeight="1">
+    <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="13">
         <v>43553</v>
       </c>
@@ -21355,7 +21836,7 @@
         <v>80.67260204345024</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="14.1" customHeight="1">
+    <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="13">
         <v>43585</v>
       </c>
@@ -21408,7 +21889,7 @@
         <v>82.245824555416519</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="14.1" customHeight="1">
+    <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="13">
         <v>43616</v>
       </c>
@@ -21461,7 +21942,7 @@
         <v>70.480353417634802</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="14.1" customHeight="1">
+    <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="13">
         <v>43644</v>
       </c>
@@ -21514,7 +21995,7 @@
         <v>65.818311878760838</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="14.1" customHeight="1">
+    <row r="30" spans="1:34" ht="14.1" customHeight="1">
       <c r="A30" s="13">
         <v>43677</v>
       </c>
@@ -21567,7 +22048,7 @@
         <v>69.576294834845427</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="14.1" customHeight="1">
+    <row r="31" spans="1:34" ht="14.1" customHeight="1">
       <c r="A31" s="13">
         <v>43707</v>
       </c>
@@ -21620,7 +22101,7 @@
         <v>77.216161991546201</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="14.1" customHeight="1">
+    <row r="32" spans="1:34" ht="14.1" customHeight="1">
       <c r="A32" s="13">
         <v>43738</v>
       </c>
@@ -24590,6 +25071,59 @@
       </c>
       <c r="Q87" s="21">
         <v>56.062436758302724</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" ht="12.75">
+      <c r="A88" s="13">
+        <v>45443</v>
+      </c>
+      <c r="B88" s="18">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="C88" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D88" s="15">
+        <v>1737.6194267845765</v>
+      </c>
+      <c r="E88" s="15">
+        <v>156632.7011795266</v>
+      </c>
+      <c r="F88" s="15">
+        <v>180284.24264267314</v>
+      </c>
+      <c r="G88" s="15">
+        <v>179000</v>
+      </c>
+      <c r="H88" s="15">
+        <v>180284.24264267314</v>
+      </c>
+      <c r="I88" s="15">
+        <v>1284.2426426731399</v>
+      </c>
+      <c r="J88" s="15">
+        <v>1.2450000047683716</v>
+      </c>
+      <c r="K88" s="15">
+        <v>1.1390000581741333</v>
+      </c>
+      <c r="L88" s="19">
+        <v>1.3070000410079956</v>
+      </c>
+      <c r="M88" s="19">
+        <v>0.91699999570846558</v>
+      </c>
+      <c r="N88" s="21">
+        <v>60</v>
+      </c>
+      <c r="O88" s="21">
+        <v>47.243536579477528</v>
+      </c>
+      <c r="P88" s="21">
+        <v>37.925671476274552</v>
+      </c>
+      <c r="Q88" s="21">
+        <v>65.879266785883473</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
@@ -689,7 +689,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -947,6 +947,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -956,7 +959,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1214,6 +1217,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>172000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>174000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1256,7 +1262,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1514,6 +1520,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1523,7 +1532,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1781,6 +1790,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>171697.7353208859</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>174443.59791064644</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1823,7 +1835,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2081,6 +2093,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2090,7 +2105,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2348,6 +2363,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>-302.26467911410145</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>443.5979106464365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2369,11 +2387,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="181834496"/>
-        <c:axId val="181836032"/>
+        <c:axId val="507021568"/>
+        <c:axId val="524492800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="181834496"/>
+        <c:axId val="507021568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2413,14 +2431,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181836032"/>
+        <c:crossAx val="524492800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="181836032"/>
+        <c:axId val="524492800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2469,7 +2487,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181834496"/>
+        <c:crossAx val="507021568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2599,7 +2617,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2857,6 +2875,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2866,7 +2887,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3124,6 +3145,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>172000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>174000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3157,7 +3181,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3415,6 +3439,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3424,7 +3451,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3682,6 +3709,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>171697.7353208859</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>174443.59791064644</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3715,7 +3745,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3973,6 +4003,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3982,7 +4015,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4240,6 +4273,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>-302.26467911410145</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>443.5979106464365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4261,11 +4297,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="471016192"/>
-        <c:axId val="471017728"/>
+        <c:axId val="492676608"/>
+        <c:axId val="492678144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="471016192"/>
+        <c:axId val="492676608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4275,14 +4311,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="471017728"/>
+        <c:crossAx val="492678144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="471017728"/>
+        <c:axId val="492678144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4293,7 +4329,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="471016192"/>
+        <c:crossAx val="492676608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4411,7 +4447,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4669,6 +4705,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4678,7 +4717,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4936,6 +4975,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>179000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>181000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4978,7 +5020,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5236,6 +5278,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5245,7 +5290,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5503,6 +5548,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>180974.03683272592</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>183760.19608834572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5545,7 +5593,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5803,6 +5851,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5812,7 +5863,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6070,6 +6121,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>1974.0368327259202</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2760.1960883457214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6091,11 +6145,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="477624576"/>
-        <c:axId val="502362112"/>
+        <c:axId val="492786816"/>
+        <c:axId val="492788352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="477624576"/>
+        <c:axId val="492786816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6135,14 +6189,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502362112"/>
+        <c:crossAx val="492788352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="502362112"/>
+        <c:axId val="492788352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6191,7 +6245,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477624576"/>
+        <c:crossAx val="492786816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6321,7 +6375,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6579,6 +6633,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6588,7 +6645,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6846,6 +6903,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>179000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>181000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6879,7 +6939,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7137,6 +7197,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7146,7 +7209,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7404,6 +7467,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>180974.03683272592</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>183760.19608834572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7437,7 +7503,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7695,6 +7761,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7704,7 +7773,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7962,6 +8031,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>1974.0368327259202</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2760.1960883457214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7983,11 +8055,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="537172992"/>
-        <c:axId val="574334080"/>
+        <c:axId val="492814336"/>
+        <c:axId val="492815872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="537172992"/>
+        <c:axId val="492814336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7997,14 +8069,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="574334080"/>
+        <c:crossAx val="492815872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="574334080"/>
+        <c:axId val="492815872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8015,7 +8087,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="537172992"/>
+        <c:crossAx val="492814336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8133,7 +8205,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8391,6 +8463,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8400,7 +8475,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8658,6 +8733,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>179000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>181000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8700,7 +8778,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8958,6 +9036,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8967,7 +9048,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9225,6 +9306,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>180284.24264267314</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>183067.40540168784</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9267,7 +9351,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9525,6 +9609,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9534,7 +9621,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9792,6 +9879,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>1284.2426426731399</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2067.4054016878363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9813,11 +9903,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="797692672"/>
-        <c:axId val="797694208"/>
+        <c:axId val="492416000"/>
+        <c:axId val="492421888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="797692672"/>
+        <c:axId val="492416000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9857,14 +9947,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="797694208"/>
+        <c:crossAx val="492421888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="797694208"/>
+        <c:axId val="492421888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9913,7 +10003,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="797692672"/>
+        <c:crossAx val="492416000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10043,7 +10133,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10301,6 +10391,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10310,7 +10403,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10568,6 +10661,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>179000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>181000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10601,7 +10697,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10859,6 +10955,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10868,7 +10967,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11126,6 +11225,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>180284.24264267314</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>183067.40540168784</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11159,7 +11261,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11417,6 +11519,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11426,7 +11531,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11684,6 +11789,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>1284.2426426731399</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2067.4054016878363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11705,11 +11813,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="495500672"/>
-        <c:axId val="495506560"/>
+        <c:axId val="492725760"/>
+        <c:axId val="492727296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="495500672"/>
+        <c:axId val="492725760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11719,14 +11827,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="495506560"/>
+        <c:crossAx val="492727296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="495506560"/>
+        <c:axId val="492727296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11737,7 +11845,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="495500672"/>
+        <c:crossAx val="492725760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11779,7 +11887,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11817,7 +11925,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11858,7 +11966,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11896,7 +12004,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11939,7 +12047,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11977,7 +12085,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12255,7 +12363,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12264,7 +12372,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB88"/>
+  <dimension ref="A1:AB89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15419,6 +15527,35 @@
         <v>-302.26467911410145</v>
       </c>
     </row>
+    <row r="89" spans="1:9" ht="12.75">
+      <c r="A89" s="13">
+        <v>45471</v>
+      </c>
+      <c r="B89" s="18">
+        <v>1.156000018119812</v>
+      </c>
+      <c r="C89" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D89" s="15">
+        <v>1730.1037791097274</v>
+      </c>
+      <c r="E89" s="15">
+        <v>150902.76399335355</v>
+      </c>
+      <c r="F89" s="15">
+        <v>174443.59791064644</v>
+      </c>
+      <c r="G89" s="15">
+        <v>174000</v>
+      </c>
+      <c r="H89" s="15">
+        <v>174443.59791064644</v>
+      </c>
+      <c r="I89" s="15">
+        <v>443.5979106464365</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15430,7 +15567,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH88"/>
+  <dimension ref="A1:AH89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19942,6 +20079,50 @@
         <v>43.309708959853076</v>
       </c>
     </row>
+    <row r="89" spans="1:14" ht="12.75">
+      <c r="A89" s="13">
+        <v>45471</v>
+      </c>
+      <c r="B89" s="18">
+        <v>1.156000018119812</v>
+      </c>
+      <c r="C89" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D89" s="15">
+        <v>1730.1037791097274</v>
+      </c>
+      <c r="E89" s="15">
+        <v>158962.10485119573</v>
+      </c>
+      <c r="F89" s="15">
+        <v>183760.19608834572</v>
+      </c>
+      <c r="G89" s="15">
+        <v>181000</v>
+      </c>
+      <c r="H89" s="15">
+        <v>183760.19608834572</v>
+      </c>
+      <c r="I89" s="15">
+        <v>2760.1960883457214</v>
+      </c>
+      <c r="J89" s="21">
+        <v>4.999995231628418E-3</v>
+      </c>
+      <c r="K89" s="21">
+        <v>2.7764076837910292E-2</v>
+      </c>
+      <c r="L89" s="21">
+        <v>4.999995231628418E-3</v>
+      </c>
+      <c r="M89" s="23">
+        <v>6.3015104123053903E-2</v>
+      </c>
+      <c r="N89" s="21">
+        <v>44.05940008238894</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19953,7 +20134,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH88"/>
+  <dimension ref="A1:AH89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25126,6 +25307,59 @@
         <v>65.879266785883473</v>
       </c>
     </row>
+    <row r="89" spans="1:17" ht="12.75">
+      <c r="A89" s="13">
+        <v>45471</v>
+      </c>
+      <c r="B89" s="18">
+        <v>1.156000018119812</v>
+      </c>
+      <c r="C89" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D89" s="15">
+        <v>1730.1037791097274</v>
+      </c>
+      <c r="E89" s="15">
+        <v>158362.80495863632</v>
+      </c>
+      <c r="F89" s="15">
+        <v>183067.40540168784</v>
+      </c>
+      <c r="G89" s="15">
+        <v>181000</v>
+      </c>
+      <c r="H89" s="15">
+        <v>183067.40540168784</v>
+      </c>
+      <c r="I89" s="15">
+        <v>2067.4054016878363</v>
+      </c>
+      <c r="J89" s="15">
+        <v>1.2339999675750732</v>
+      </c>
+      <c r="K89" s="15">
+        <v>1.1360000371932983</v>
+      </c>
+      <c r="L89" s="19">
+        <v>1.284000039100647</v>
+      </c>
+      <c r="M89" s="19">
+        <v>0.91699999570846558</v>
+      </c>
+      <c r="N89" s="21">
+        <v>65.122614210687615</v>
+      </c>
+      <c r="O89" s="21">
+        <v>53.203229123214221</v>
+      </c>
+      <c r="P89" s="21">
+        <v>43.018190691921113</v>
+      </c>
+      <c r="Q89" s="21">
+        <v>73.573305985800445</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="17280" windowHeight="8880" tabRatio="612" activeTab="2"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="15600" windowHeight="8880" tabRatio="612" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="model1" sheetId="5" r:id="rId1"/>
@@ -689,7 +689,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -950,6 +950,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -959,7 +962,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1220,6 +1223,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>174000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>176000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1262,7 +1268,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1523,6 +1529,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1532,7 +1541,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1793,6 +1802,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>174443.59791064644</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>175085.46353650829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1835,7 +1847,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2096,6 +2108,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2105,7 +2120,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2366,6 +2381,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>443.5979106464365</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-914.53646349170594</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2387,11 +2405,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="507021568"/>
-        <c:axId val="524492800"/>
+        <c:axId val="500827264"/>
+        <c:axId val="500828800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="507021568"/>
+        <c:axId val="500827264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2431,14 +2449,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524492800"/>
+        <c:crossAx val="500828800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="524492800"/>
+        <c:axId val="500828800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2487,7 +2505,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507021568"/>
+        <c:crossAx val="500827264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2617,7 +2635,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2878,6 +2896,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2887,7 +2908,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3148,6 +3169,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>174000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>176000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3181,7 +3205,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3442,6 +3466,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3451,7 +3478,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3712,6 +3739,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>174443.59791064644</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>175085.46353650829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3745,7 +3775,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4006,6 +4036,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4015,7 +4048,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4276,6 +4309,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>443.5979106464365</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-914.53646349170594</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4297,11 +4333,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492676608"/>
-        <c:axId val="492678144"/>
+        <c:axId val="562590848"/>
+        <c:axId val="562592384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492676608"/>
+        <c:axId val="562590848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4311,14 +4347,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="492678144"/>
+        <c:crossAx val="562592384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="492678144"/>
+        <c:axId val="562592384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4329,7 +4365,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="492676608"/>
+        <c:crossAx val="562590848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4447,7 +4483,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4708,6 +4744,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4717,7 +4756,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4978,6 +5017,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>181000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>183000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5020,7 +5062,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5281,6 +5323,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5290,7 +5335,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5551,6 +5596,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>183760.19608834572</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>184329.52713921192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5593,7 +5641,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5854,6 +5902,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5863,7 +5914,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6124,6 +6175,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>2760.1960883457214</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1329.5271392119175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6145,11 +6199,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492786816"/>
-        <c:axId val="492788352"/>
+        <c:axId val="496050944"/>
+        <c:axId val="496052480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492786816"/>
+        <c:axId val="496050944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6189,14 +6243,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492788352"/>
+        <c:crossAx val="496052480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="492788352"/>
+        <c:axId val="496052480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6245,7 +6299,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492786816"/>
+        <c:crossAx val="496050944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6375,7 +6429,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6636,6 +6690,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6645,7 +6702,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6906,6 +6963,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>181000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>183000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6939,7 +6999,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7200,6 +7260,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7209,7 +7272,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7470,6 +7533,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>183760.19608834572</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>184329.52713921192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7503,7 +7569,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7764,6 +7830,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7773,7 +7842,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8034,6 +8103,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>2760.1960883457214</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1329.5271392119175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8055,11 +8127,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492814336"/>
-        <c:axId val="492815872"/>
+        <c:axId val="496094592"/>
+        <c:axId val="496100480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492814336"/>
+        <c:axId val="496094592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8069,14 +8141,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="492815872"/>
+        <c:crossAx val="496100480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="492815872"/>
+        <c:axId val="496100480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8087,7 +8159,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="492814336"/>
+        <c:crossAx val="496094592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8205,7 +8277,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8466,6 +8538,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8475,7 +8550,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8736,6 +8811,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>181000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>183000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8778,7 +8856,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9039,6 +9117,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9048,7 +9129,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9309,6 +9390,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>183067.40540168784</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>183642.13018930849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9351,7 +9435,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9612,6 +9696,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9621,7 +9708,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9882,6 +9969,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>2067.4054016878363</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>642.13018930848921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9903,11 +9993,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492416000"/>
-        <c:axId val="492421888"/>
+        <c:axId val="499530368"/>
+        <c:axId val="499540352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492416000"/>
+        <c:axId val="499530368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9947,14 +10037,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492421888"/>
+        <c:crossAx val="499540352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="492421888"/>
+        <c:axId val="499540352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10003,7 +10093,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492416000"/>
+        <c:crossAx val="499530368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10133,7 +10223,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10394,6 +10484,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10403,7 +10496,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10664,6 +10757,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>181000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>183000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10697,7 +10793,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10958,6 +11054,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10967,7 +11066,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11228,6 +11327,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>183067.40540168784</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>183642.13018930849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11261,7 +11363,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11522,6 +11624,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11531,7 +11636,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11792,6 +11897,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>2067.4054016878363</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>642.13018930848921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11813,11 +11921,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492725760"/>
-        <c:axId val="492727296"/>
+        <c:axId val="499561984"/>
+        <c:axId val="499563520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492725760"/>
+        <c:axId val="499561984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11827,14 +11935,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="492727296"/>
+        <c:crossAx val="499563520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="492727296"/>
+        <c:axId val="499563520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11845,7 +11953,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="492725760"/>
+        <c:crossAx val="499561984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11887,7 +11995,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11925,7 +12033,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11966,7 +12074,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12004,7 +12112,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12047,7 +12155,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12085,7 +12193,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12363,7 +12471,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12372,7 +12480,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB89"/>
+  <dimension ref="A1:AB90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15556,6 +15664,35 @@
         <v>443.5979106464365</v>
       </c>
     </row>
+    <row r="90" spans="1:9" ht="12.75">
+      <c r="A90" s="13">
+        <v>45504</v>
+      </c>
+      <c r="B90" s="18">
+        <v>1.1469999551773071</v>
+      </c>
+      <c r="C90" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D90" s="15">
+        <v>1743.6792311738436</v>
+      </c>
+      <c r="E90" s="15">
+        <v>152646.44322452741</v>
+      </c>
+      <c r="F90" s="15">
+        <v>175085.46353650829</v>
+      </c>
+      <c r="G90" s="15">
+        <v>176000</v>
+      </c>
+      <c r="H90" s="15">
+        <v>175085.46353650829</v>
+      </c>
+      <c r="I90" s="15">
+        <v>-914.53646349170594</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15567,7 +15704,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH89"/>
+  <dimension ref="A1:AH90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20123,6 +20260,50 @@
         <v>44.05940008238894</v>
       </c>
     </row>
+    <row r="90" spans="1:14" ht="12.75">
+      <c r="A90" s="13">
+        <v>45504</v>
+      </c>
+      <c r="B90" s="18">
+        <v>1.1469999551773071</v>
+      </c>
+      <c r="C90" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D90" s="15">
+        <v>1743.6792311738436</v>
+      </c>
+      <c r="E90" s="15">
+        <v>160705.78408236959</v>
+      </c>
+      <c r="F90" s="15">
+        <v>184329.52713921192</v>
+      </c>
+      <c r="G90" s="15">
+        <v>183000</v>
+      </c>
+      <c r="H90" s="15">
+        <v>184329.52713921192</v>
+      </c>
+      <c r="I90" s="15">
+        <v>1329.5271392119175</v>
+      </c>
+      <c r="J90" s="21">
+        <v>0</v>
+      </c>
+      <c r="K90" s="21">
+        <v>2.3136730698258574E-2</v>
+      </c>
+      <c r="L90" s="21">
+        <v>9.0000629425048828E-3</v>
+      </c>
+      <c r="M90" s="23">
+        <v>5.4012597259629064E-2</v>
+      </c>
+      <c r="N90" s="21">
+        <v>42.83580474207595</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20134,7 +20315,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH89"/>
+  <dimension ref="A1:AH90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25360,6 +25541,59 @@
         <v>73.573305985800445</v>
       </c>
     </row>
+    <row r="90" spans="1:17" ht="12.75">
+      <c r="A90" s="13">
+        <v>45504</v>
+      </c>
+      <c r="B90" s="18">
+        <v>1.1469999551773071</v>
+      </c>
+      <c r="C90" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D90" s="15">
+        <v>1743.6792311738436</v>
+      </c>
+      <c r="E90" s="15">
+        <v>160106.48418981017</v>
+      </c>
+      <c r="F90" s="15">
+        <v>183642.13018930849</v>
+      </c>
+      <c r="G90" s="15">
+        <v>183000</v>
+      </c>
+      <c r="H90" s="15">
+        <v>183642.13018930849</v>
+      </c>
+      <c r="I90" s="15">
+        <v>642.13018930848921</v>
+      </c>
+      <c r="J90" s="15">
+        <v>1.1890000104904175</v>
+      </c>
+      <c r="K90" s="15">
+        <v>1.1180000305175781</v>
+      </c>
+      <c r="L90" s="19">
+        <v>1.284000039100647</v>
+      </c>
+      <c r="M90" s="19">
+        <v>0.91699999570846558</v>
+      </c>
+      <c r="N90" s="21">
+        <v>62.67028127379821</v>
+      </c>
+      <c r="O90" s="21">
+        <v>56.358913173408887</v>
+      </c>
+      <c r="P90" s="21">
+        <v>47.465098185750371</v>
+      </c>
+      <c r="Q90" s="21">
+        <v>74.146543148725911</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
@@ -689,7 +689,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -953,6 +953,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -962,7 +965,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1226,6 +1229,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>176000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>178000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1268,7 +1274,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1532,6 +1538,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1541,7 +1550,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1805,6 +1814,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>175085.46353650829</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>161210.23766283222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1847,7 +1859,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2111,6 +2123,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2120,7 +2135,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2384,6 +2399,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>-914.53646349170594</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-16789.762337167776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2405,11 +2423,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="500827264"/>
-        <c:axId val="500828800"/>
+        <c:axId val="543012352"/>
+        <c:axId val="543014272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="500827264"/>
+        <c:axId val="543012352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2449,14 +2467,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500828800"/>
+        <c:crossAx val="543014272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="500828800"/>
+        <c:axId val="543014272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2505,7 +2523,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500827264"/>
+        <c:crossAx val="543012352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2635,7 +2653,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2899,6 +2917,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2908,7 +2929,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3172,6 +3193,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>176000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>178000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3205,7 +3229,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3469,6 +3493,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3478,7 +3505,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3742,6 +3769,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>175085.46353650829</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>161210.23766283222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3775,7 +3805,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4039,6 +4069,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4048,7 +4081,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4312,6 +4345,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>-914.53646349170594</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-16789.762337167776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4333,11 +4369,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="562590848"/>
-        <c:axId val="562592384"/>
+        <c:axId val="486902016"/>
+        <c:axId val="486903808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="562590848"/>
+        <c:axId val="486902016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4347,14 +4383,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="562592384"/>
+        <c:crossAx val="486903808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="562592384"/>
+        <c:axId val="486903808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4365,7 +4401,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="562590848"/>
+        <c:crossAx val="486902016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4483,7 +4519,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4747,6 +4783,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4756,7 +4795,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5020,6 +5059,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>183000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>185000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5062,7 +5104,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5326,6 +5368,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5335,7 +5380,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5599,6 +5644,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>184329.52713921192</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>169616.13003921387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5641,7 +5689,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5905,6 +5953,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5914,7 +5965,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6178,6 +6229,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>1329.5271392119175</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-15383.869960786134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6199,11 +6253,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="496050944"/>
-        <c:axId val="496052480"/>
+        <c:axId val="487302656"/>
+        <c:axId val="487304192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="496050944"/>
+        <c:axId val="487302656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6243,14 +6297,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496052480"/>
+        <c:crossAx val="487304192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="496052480"/>
+        <c:axId val="487304192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6299,7 +6353,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496050944"/>
+        <c:crossAx val="487302656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6429,7 +6483,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6693,6 +6747,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6702,7 +6759,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6966,6 +7023,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>183000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>185000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6999,7 +7059,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7263,6 +7323,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7272,7 +7335,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7536,6 +7599,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>184329.52713921192</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>169616.13003921387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7569,7 +7635,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7833,6 +7899,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7842,7 +7911,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8106,6 +8175,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>1329.5271392119175</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-15383.869960786134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8127,11 +8199,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="496094592"/>
-        <c:axId val="496100480"/>
+        <c:axId val="487723776"/>
+        <c:axId val="487725312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="496094592"/>
+        <c:axId val="487723776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8141,14 +8213,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="496100480"/>
+        <c:crossAx val="487725312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="496100480"/>
+        <c:axId val="487725312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8159,7 +8231,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="496094592"/>
+        <c:crossAx val="487723776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8277,7 +8349,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8541,6 +8613,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8550,7 +8625,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8814,6 +8889,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>183000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>185000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8856,7 +8934,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9120,6 +9198,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9129,7 +9210,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9393,6 +9474,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>183642.13018930849</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>168991.06026156206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9435,7 +9519,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9699,6 +9783,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9708,7 +9795,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9972,6 +10059,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>642.13018930848921</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-16008.939738437941</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9993,11 +10083,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="499530368"/>
-        <c:axId val="499540352"/>
+        <c:axId val="487772160"/>
+        <c:axId val="487773696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="499530368"/>
+        <c:axId val="487772160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10037,14 +10127,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499540352"/>
+        <c:crossAx val="487773696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="499540352"/>
+        <c:axId val="487773696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10093,7 +10183,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499530368"/>
+        <c:crossAx val="487772160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10223,7 +10313,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10487,6 +10577,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10496,7 +10589,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10760,6 +10853,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>183000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>185000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10793,7 +10889,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11057,6 +11153,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11066,7 +11165,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11330,6 +11429,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>183642.13018930849</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>168991.06026156206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11363,7 +11465,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11627,6 +11729,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11636,7 +11741,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11900,6 +12005,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>642.13018930848921</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-16008.939738437941</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11921,11 +12029,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="499561984"/>
-        <c:axId val="499563520"/>
+        <c:axId val="487799424"/>
+        <c:axId val="487805312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="499561984"/>
+        <c:axId val="487799424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11935,14 +12043,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="499563520"/>
+        <c:crossAx val="487805312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="499563520"/>
+        <c:axId val="487805312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11953,7 +12061,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="499561984"/>
+        <c:crossAx val="487799424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11995,7 +12103,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12033,7 +12141,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12074,7 +12182,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12112,7 +12220,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12155,7 +12263,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12193,7 +12301,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12471,7 +12579,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12480,7 +12588,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB90"/>
+  <dimension ref="A1:AB91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15693,6 +15801,35 @@
         <v>-914.53646349170594</v>
       </c>
     </row>
+    <row r="91" spans="1:9" ht="12.75">
+      <c r="A91" s="13">
+        <v>45534</v>
+      </c>
+      <c r="B91" s="18">
+        <v>1.0429999828338623</v>
+      </c>
+      <c r="C91" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D91" s="15">
+        <v>1917.5455732663963</v>
+      </c>
+      <c r="E91" s="15">
+        <v>154563.98879779381</v>
+      </c>
+      <c r="F91" s="15">
+        <v>161210.23766283222</v>
+      </c>
+      <c r="G91" s="15">
+        <v>178000</v>
+      </c>
+      <c r="H91" s="15">
+        <v>161210.23766283222</v>
+      </c>
+      <c r="I91" s="15">
+        <v>-16789.762337167776</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15704,7 +15841,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH90"/>
+  <dimension ref="A1:AH91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20304,6 +20441,50 @@
         <v>42.83580474207595</v>
       </c>
     </row>
+    <row r="91" spans="1:14" ht="12.75">
+      <c r="A91" s="13">
+        <v>45534</v>
+      </c>
+      <c r="B91" s="18">
+        <v>1.0429999828338623</v>
+      </c>
+      <c r="C91" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D91" s="15">
+        <v>1917.5455732663963</v>
+      </c>
+      <c r="E91" s="15">
+        <v>162623.32965563599</v>
+      </c>
+      <c r="F91" s="15">
+        <v>169616.13003921387</v>
+      </c>
+      <c r="G91" s="15">
+        <v>185000</v>
+      </c>
+      <c r="H91" s="15">
+        <v>169616.13003921387</v>
+      </c>
+      <c r="I91" s="15">
+        <v>-15383.869960786134</v>
+      </c>
+      <c r="J91" s="21">
+        <v>0</v>
+      </c>
+      <c r="K91" s="21">
+        <v>1.9280608915215477E-2</v>
+      </c>
+      <c r="L91" s="21">
+        <v>0.10399997234344482</v>
+      </c>
+      <c r="M91" s="23">
+        <v>6.2343826440265017E-2</v>
+      </c>
+      <c r="N91" s="21">
+        <v>30.926252070346163</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20315,7 +20496,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH90"/>
+  <dimension ref="A1:AH91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25594,6 +25775,59 @@
         <v>74.146543148725911</v>
       </c>
     </row>
+    <row r="91" spans="1:17" ht="12.75">
+      <c r="A91" s="13">
+        <v>45534</v>
+      </c>
+      <c r="B91" s="18">
+        <v>1.0429999828338623</v>
+      </c>
+      <c r="C91" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D91" s="15">
+        <v>1917.5455732663963</v>
+      </c>
+      <c r="E91" s="15">
+        <v>162024.02976307657</v>
+      </c>
+      <c r="F91" s="15">
+        <v>168991.06026156206</v>
+      </c>
+      <c r="G91" s="15">
+        <v>185000</v>
+      </c>
+      <c r="H91" s="15">
+        <v>168991.06026156206</v>
+      </c>
+      <c r="I91" s="15">
+        <v>-16008.939738437941</v>
+      </c>
+      <c r="J91" s="15">
+        <v>1.159000039100647</v>
+      </c>
+      <c r="K91" s="15">
+        <v>1</v>
+      </c>
+      <c r="L91" s="19">
+        <v>1.284000039100647</v>
+      </c>
+      <c r="M91" s="19">
+        <v>0.91699999570846558</v>
+      </c>
+      <c r="N91" s="21">
+        <v>34.332417500766169</v>
+      </c>
+      <c r="O91" s="21">
+        <v>49.016747949194645</v>
+      </c>
+      <c r="P91" s="21">
+        <v>47.982314773565129</v>
+      </c>
+      <c r="Q91" s="21">
+        <v>51.085614300453685</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
@@ -689,7 +689,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -956,6 +956,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -965,7 +968,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1232,6 +1235,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>178000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>180000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1274,7 +1280,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1541,6 +1547,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1550,7 +1559,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1817,6 +1826,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>161210.23766283222</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>202624.05406925111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1859,7 +1871,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2126,6 +2138,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2135,7 +2150,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2402,6 +2417,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>-16789.762337167776</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>22624.054069251113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2423,11 +2441,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="543012352"/>
-        <c:axId val="543014272"/>
+        <c:axId val="467770368"/>
+        <c:axId val="467804928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="543012352"/>
+        <c:axId val="467770368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2467,14 +2485,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543014272"/>
+        <c:crossAx val="467804928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="543014272"/>
+        <c:axId val="467804928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2523,7 +2541,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543012352"/>
+        <c:crossAx val="467770368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2653,7 +2671,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2920,6 +2938,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2929,7 +2950,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3196,6 +3217,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>178000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>180000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3229,7 +3253,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3496,6 +3520,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3505,7 +3532,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3772,6 +3799,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>161210.23766283222</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>202624.05406925111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3805,7 +3835,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4072,6 +4102,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4081,7 +4114,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4348,6 +4381,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>-16789.762337167776</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>22624.054069251113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4369,11 +4405,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="486902016"/>
-        <c:axId val="486903808"/>
+        <c:axId val="567421568"/>
+        <c:axId val="567431552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="486902016"/>
+        <c:axId val="567421568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4383,14 +4419,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="486903808"/>
+        <c:crossAx val="567431552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="486903808"/>
+        <c:axId val="567431552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4401,7 +4437,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="486902016"/>
+        <c:crossAx val="567421568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4519,7 +4555,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4786,6 +4822,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4795,7 +4834,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5062,6 +5101,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>185000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>187000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5104,7 +5146,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5371,6 +5413,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5380,7 +5425,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5647,6 +5692,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>169616.13003921387</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>213085.07832595258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5689,7 +5737,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5956,6 +6004,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5965,7 +6016,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6232,6 +6283,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>-15383.869960786134</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>26085.078325952578</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6253,11 +6307,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="487302656"/>
-        <c:axId val="487304192"/>
+        <c:axId val="567478144"/>
+        <c:axId val="567479680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="487302656"/>
+        <c:axId val="567478144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6297,14 +6351,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487304192"/>
+        <c:crossAx val="567479680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="487304192"/>
+        <c:axId val="567479680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6353,7 +6407,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487302656"/>
+        <c:crossAx val="567478144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6483,7 +6537,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6750,6 +6804,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6759,7 +6816,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7026,6 +7083,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>185000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>187000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7059,7 +7119,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7326,6 +7386,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7335,7 +7398,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7602,6 +7665,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>169616.13003921387</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>213085.07832595258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7635,7 +7701,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7902,6 +7968,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7911,7 +7980,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8178,6 +8247,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>-15383.869960786134</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>26085.078325952578</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8199,11 +8271,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="487723776"/>
-        <c:axId val="487725312"/>
+        <c:axId val="567534720"/>
+        <c:axId val="567536256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="487723776"/>
+        <c:axId val="567534720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8213,14 +8285,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="487725312"/>
+        <c:crossAx val="567536256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="487725312"/>
+        <c:axId val="567536256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8231,7 +8303,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="487723776"/>
+        <c:crossAx val="567534720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8349,7 +8421,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8616,6 +8688,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8625,7 +8700,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8892,6 +8967,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>185000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>187000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8934,7 +9012,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9201,6 +9279,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9210,7 +9291,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9477,6 +9558,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>168991.06026156206</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>212307.18707855581</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9519,7 +9603,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9786,6 +9870,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9795,7 +9882,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10062,6 +10149,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>-16008.939738437941</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>25307.187078555813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10083,11 +10173,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="487772160"/>
-        <c:axId val="487773696"/>
+        <c:axId val="568127872"/>
+        <c:axId val="568129408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="487772160"/>
+        <c:axId val="568127872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10127,14 +10217,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487773696"/>
+        <c:crossAx val="568129408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="487773696"/>
+        <c:axId val="568129408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10183,7 +10273,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487772160"/>
+        <c:crossAx val="568127872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10313,7 +10403,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10580,6 +10670,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10589,7 +10682,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10856,6 +10949,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>185000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>187000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10889,7 +10985,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11156,6 +11252,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11165,7 +11264,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11432,6 +11531,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>168991.06026156206</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>212307.18707855581</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11465,7 +11567,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11732,6 +11834,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11741,7 +11846,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12008,6 +12113,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>-16008.939738437941</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>25307.187078555813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12029,11 +12137,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="487799424"/>
-        <c:axId val="487805312"/>
+        <c:axId val="568163328"/>
+        <c:axId val="568185600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="487799424"/>
+        <c:axId val="568163328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12043,14 +12151,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="487805312"/>
+        <c:crossAx val="568185600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="487805312"/>
+        <c:axId val="568185600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12061,7 +12169,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="487799424"/>
+        <c:crossAx val="568163328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12103,7 +12211,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12141,7 +12249,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12182,7 +12290,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12220,7 +12328,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12263,7 +12371,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12301,7 +12409,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12579,7 +12687,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12588,7 +12696,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB91"/>
+  <dimension ref="A1:AB92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15830,6 +15938,35 @@
         <v>-16789.762337167776</v>
       </c>
     </row>
+    <row r="92" spans="1:9" ht="12.75">
+      <c r="A92" s="13">
+        <v>45565</v>
+      </c>
+      <c r="B92" s="18">
+        <v>1.2979999780654907</v>
+      </c>
+      <c r="C92" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D92" s="15">
+        <v>1540.8320753446806</v>
+      </c>
+      <c r="E92" s="15">
+        <v>156104.82087313849</v>
+      </c>
+      <c r="F92" s="15">
+        <v>202624.05406925111</v>
+      </c>
+      <c r="G92" s="15">
+        <v>180000</v>
+      </c>
+      <c r="H92" s="15">
+        <v>202624.05406925111</v>
+      </c>
+      <c r="I92" s="15">
+        <v>22624.054069251113</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15841,7 +15978,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH91"/>
+  <dimension ref="A1:AH92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20485,6 +20622,50 @@
         <v>30.926252070346163</v>
       </c>
     </row>
+    <row r="92" spans="1:14" ht="12.75">
+      <c r="A92" s="13">
+        <v>45565</v>
+      </c>
+      <c r="B92" s="18">
+        <v>1.2979999780654907</v>
+      </c>
+      <c r="C92" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D92" s="15">
+        <v>1540.8320753446806</v>
+      </c>
+      <c r="E92" s="15">
+        <v>164164.16173098068</v>
+      </c>
+      <c r="F92" s="15">
+        <v>213085.07832595258</v>
+      </c>
+      <c r="G92" s="15">
+        <v>187000</v>
+      </c>
+      <c r="H92" s="15">
+        <v>213085.07832595258</v>
+      </c>
+      <c r="I92" s="15">
+        <v>26085.078325952578</v>
+      </c>
+      <c r="J92" s="21">
+        <v>0.25499999523162842</v>
+      </c>
+      <c r="K92" s="21">
+        <v>5.8567173301284303E-2</v>
+      </c>
+      <c r="L92" s="21">
+        <v>0.25499999523162842</v>
+      </c>
+      <c r="M92" s="23">
+        <v>9.4453187905492245E-2</v>
+      </c>
+      <c r="N92" s="21">
+        <v>62.006560710142793</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20496,7 +20677,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH91"/>
+  <dimension ref="A1:AH92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25828,6 +26009,59 @@
         <v>51.085614300453685</v>
       </c>
     </row>
+    <row r="92" spans="1:17" ht="12.75">
+      <c r="A92" s="13">
+        <v>45565</v>
+      </c>
+      <c r="B92" s="18">
+        <v>1.2979999780654907</v>
+      </c>
+      <c r="C92" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D92" s="15">
+        <v>1540.8320753446806</v>
+      </c>
+      <c r="E92" s="15">
+        <v>163564.86183842126</v>
+      </c>
+      <c r="F92" s="15">
+        <v>212307.18707855581</v>
+      </c>
+      <c r="G92" s="15">
+        <v>187000</v>
+      </c>
+      <c r="H92" s="15">
+        <v>212307.18707855581</v>
+      </c>
+      <c r="I92" s="15">
+        <v>25307.187078555813</v>
+      </c>
+      <c r="J92" s="15">
+        <v>1.2979999780654907</v>
+      </c>
+      <c r="K92" s="15">
+        <v>0.99800002574920654</v>
+      </c>
+      <c r="L92" s="19">
+        <v>1.2979999780654907</v>
+      </c>
+      <c r="M92" s="19">
+        <v>0.91699999570846558</v>
+      </c>
+      <c r="N92" s="21">
+        <v>100</v>
+      </c>
+      <c r="O92" s="21">
+        <v>66.011165299463087</v>
+      </c>
+      <c r="P92" s="21">
+        <v>53.991931615531115</v>
+      </c>
+      <c r="Q92" s="21">
+        <v>90.049632667327046</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
@@ -689,7 +689,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -959,6 +959,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -968,7 +971,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1238,6 +1241,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>182000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1280,7 +1286,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1550,6 +1556,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1559,7 +1568,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1829,6 +1838,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>202624.05406925111</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>222107.79222056473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1871,7 +1883,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2141,6 +2153,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2150,7 +2165,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2420,6 +2435,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>22624.054069251113</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>40107.792220564734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2441,11 +2459,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="467770368"/>
-        <c:axId val="467804928"/>
+        <c:axId val="90241664"/>
+        <c:axId val="91388160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="467770368"/>
+        <c:axId val="90241664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2485,14 +2503,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467804928"/>
+        <c:crossAx val="91388160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="467804928"/>
+        <c:axId val="91388160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2541,7 +2559,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467770368"/>
+        <c:crossAx val="90241664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2671,7 +2689,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2941,6 +2959,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2950,7 +2971,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3220,6 +3241,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>182000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3253,7 +3277,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3523,6 +3547,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3532,7 +3559,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3802,6 +3829,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>202624.05406925111</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>222107.79222056473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3835,7 +3865,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4105,6 +4135,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4114,7 +4147,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4384,6 +4417,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>22624.054069251113</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>40107.792220564734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4405,11 +4441,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="567421568"/>
-        <c:axId val="567431552"/>
+        <c:axId val="485753216"/>
+        <c:axId val="485754752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="567421568"/>
+        <c:axId val="485753216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4419,14 +4455,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="567431552"/>
+        <c:crossAx val="485754752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="567431552"/>
+        <c:axId val="485754752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4437,7 +4473,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="567421568"/>
+        <c:crossAx val="485753216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4555,7 +4591,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4825,6 +4861,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4834,7 +4873,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5104,6 +5143,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>187000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>189000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5146,7 +5188,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5416,6 +5458,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5425,7 +5470,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5695,6 +5740,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>213085.07832595258</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>233471.46256111268</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5737,7 +5785,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6007,6 +6055,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6016,7 +6067,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6286,6 +6337,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>26085.078325952578</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44471.462561112683</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6307,11 +6361,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="567478144"/>
-        <c:axId val="567479680"/>
+        <c:axId val="590742656"/>
+        <c:axId val="590744192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="567478144"/>
+        <c:axId val="590742656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6351,14 +6405,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567479680"/>
+        <c:crossAx val="590744192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="567479680"/>
+        <c:axId val="590744192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6407,7 +6461,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567478144"/>
+        <c:crossAx val="590742656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6537,7 +6591,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6807,6 +6861,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6816,7 +6873,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7086,6 +7143,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>187000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>189000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7119,7 +7179,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7389,6 +7449,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7398,7 +7461,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7668,6 +7731,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>213085.07832595258</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>233471.46256111268</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7701,7 +7767,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7971,6 +8037,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7980,7 +8049,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8250,6 +8319,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>26085.078325952578</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44471.462561112683</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8271,11 +8343,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="567534720"/>
-        <c:axId val="567536256"/>
+        <c:axId val="590766080"/>
+        <c:axId val="590767616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="567534720"/>
+        <c:axId val="590766080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8285,14 +8357,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="567536256"/>
+        <c:crossAx val="590767616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="567536256"/>
+        <c:axId val="590767616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8303,7 +8375,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="567534720"/>
+        <c:crossAx val="590766080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8421,7 +8493,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8691,6 +8763,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8700,7 +8775,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8970,6 +9045,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>187000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>189000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9012,7 +9090,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9282,6 +9360,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9291,7 +9372,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9561,6 +9642,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>212307.18707855581</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>232626.4497326077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9603,7 +9687,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9873,6 +9957,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9882,7 +9969,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10152,6 +10239,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>25307.187078555813</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43626.449732607696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10173,11 +10263,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="568127872"/>
-        <c:axId val="568129408"/>
+        <c:axId val="441129984"/>
+        <c:axId val="441135872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="568127872"/>
+        <c:axId val="441129984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10217,14 +10307,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568129408"/>
+        <c:crossAx val="441135872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="568129408"/>
+        <c:axId val="441135872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10273,7 +10363,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568127872"/>
+        <c:crossAx val="441129984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10403,7 +10493,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10673,6 +10763,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10682,7 +10775,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10952,6 +11045,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>187000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>189000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10985,7 +11081,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11255,6 +11351,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11264,7 +11363,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11534,6 +11633,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>212307.18707855581</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>232626.4497326077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11567,7 +11669,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11837,6 +11939,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11846,7 +11951,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12116,6 +12221,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>25307.187078555813</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43626.449732607696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12137,11 +12245,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="568163328"/>
-        <c:axId val="568185600"/>
+        <c:axId val="441161600"/>
+        <c:axId val="441163136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="568163328"/>
+        <c:axId val="441161600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12151,14 +12259,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="568185600"/>
+        <c:crossAx val="441163136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="568185600"/>
+        <c:axId val="441163136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12169,7 +12277,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="568163328"/>
+        <c:crossAx val="441161600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12211,7 +12319,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12249,7 +12357,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12290,7 +12398,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12328,7 +12436,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12371,7 +12479,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12409,7 +12517,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12687,7 +12795,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12696,7 +12804,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB92"/>
+  <dimension ref="A1:AB93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15967,6 +16075,35 @@
         <v>22624.054069251113</v>
       </c>
     </row>
+    <row r="93" spans="1:9" ht="12.75">
+      <c r="A93" s="13">
+        <v>45596</v>
+      </c>
+      <c r="B93" s="18">
+        <v>1.4099999666213989</v>
+      </c>
+      <c r="C93" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D93" s="15">
+        <v>1418.43974989045</v>
+      </c>
+      <c r="E93" s="15">
+        <v>157523.26062302894</v>
+      </c>
+      <c r="F93" s="15">
+        <v>222107.79222056473</v>
+      </c>
+      <c r="G93" s="15">
+        <v>182000</v>
+      </c>
+      <c r="H93" s="15">
+        <v>222107.79222056473</v>
+      </c>
+      <c r="I93" s="15">
+        <v>40107.792220564734</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15978,7 +16115,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH92"/>
+  <dimension ref="A1:AH93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20666,6 +20803,50 @@
         <v>62.006560710142793</v>
       </c>
     </row>
+    <row r="93" spans="1:14" ht="12.75">
+      <c r="A93" s="13">
+        <v>45596</v>
+      </c>
+      <c r="B93" s="18">
+        <v>1.4099999666213989</v>
+      </c>
+      <c r="C93" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D93" s="15">
+        <v>1418.43974989045</v>
+      </c>
+      <c r="E93" s="15">
+        <v>165582.60148087112</v>
+      </c>
+      <c r="F93" s="15">
+        <v>233471.46256111268</v>
+      </c>
+      <c r="G93" s="15">
+        <v>189000</v>
+      </c>
+      <c r="H93" s="15">
+        <v>233471.46256111268</v>
+      </c>
+      <c r="I93" s="15">
+        <v>44471.462561112683</v>
+      </c>
+      <c r="J93" s="21">
+        <v>0.1119999885559082</v>
+      </c>
+      <c r="K93" s="21">
+        <v>6.7472642510388287E-2</v>
+      </c>
+      <c r="L93" s="21">
+        <v>0.1119999885559082</v>
+      </c>
+      <c r="M93" s="23">
+        <v>9.7377654680561573E-2</v>
+      </c>
+      <c r="N93" s="21">
+        <v>69.289656576476474</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20677,7 +20858,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH92"/>
+  <dimension ref="A1:AH93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -26062,6 +26243,59 @@
         <v>90.049632667327046</v>
       </c>
     </row>
+    <row r="93" spans="1:17" ht="12.75">
+      <c r="A93" s="13">
+        <v>45596</v>
+      </c>
+      <c r="B93" s="18">
+        <v>1.4099999666213989</v>
+      </c>
+      <c r="C93" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D93" s="15">
+        <v>1418.43974989045</v>
+      </c>
+      <c r="E93" s="15">
+        <v>164983.3015883117</v>
+      </c>
+      <c r="F93" s="15">
+        <v>232626.4497326077</v>
+      </c>
+      <c r="G93" s="15">
+        <v>189000</v>
+      </c>
+      <c r="H93" s="15">
+        <v>232626.4497326077</v>
+      </c>
+      <c r="I93" s="15">
+        <v>43626.449732607696</v>
+      </c>
+      <c r="J93" s="15">
+        <v>1.5360000133514404</v>
+      </c>
+      <c r="K93" s="15">
+        <v>1.2710000276565552</v>
+      </c>
+      <c r="L93" s="19">
+        <v>1.5360000133514404</v>
+      </c>
+      <c r="M93" s="19">
+        <v>0.91699999570846558</v>
+      </c>
+      <c r="N93" s="21">
+        <v>79.644581076132468</v>
+      </c>
+      <c r="O93" s="21">
+        <v>70.555637225019552</v>
+      </c>
+      <c r="P93" s="21">
+        <v>59.513166818693925</v>
+      </c>
+      <c r="Q93" s="21">
+        <v>92.640578037670807</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
@@ -689,7 +689,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -962,6 +962,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -971,7 +974,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1244,6 +1247,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>182000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>184000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1286,7 +1292,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1559,6 +1565,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1568,7 +1577,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1841,6 +1850,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>222107.79222056473</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>230251.2047929948</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1883,7 +1895,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2156,6 +2168,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2165,7 +2180,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2438,6 +2453,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>40107.792220564734</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>46251.204792994802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2459,11 +2477,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90241664"/>
-        <c:axId val="91388160"/>
+        <c:axId val="477306240"/>
+        <c:axId val="541013504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="90241664"/>
+        <c:axId val="477306240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2503,14 +2521,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91388160"/>
+        <c:crossAx val="541013504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="91388160"/>
+        <c:axId val="541013504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2559,7 +2577,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90241664"/>
+        <c:crossAx val="477306240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2689,7 +2707,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2962,6 +2980,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2971,7 +2992,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3244,6 +3265,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>182000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>184000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3277,7 +3301,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3550,6 +3574,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3559,7 +3586,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3832,6 +3859,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>222107.79222056473</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>230251.2047929948</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3865,7 +3895,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4138,6 +4168,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4147,7 +4180,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4420,6 +4453,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>40107.792220564734</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>46251.204792994802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4441,11 +4477,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="485753216"/>
-        <c:axId val="485754752"/>
+        <c:axId val="603575808"/>
+        <c:axId val="603577344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="485753216"/>
+        <c:axId val="603575808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4455,14 +4491,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="485754752"/>
+        <c:crossAx val="603577344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="485754752"/>
+        <c:axId val="603577344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4473,7 +4509,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="485753216"/>
+        <c:crossAx val="603575808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4591,7 +4627,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4864,6 +4900,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4873,7 +4912,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5146,6 +5185,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>189000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>191000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5188,7 +5230,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5461,6 +5503,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5470,7 +5515,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5743,6 +5788,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>233471.46256111268</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>241929.18970369411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5785,7 +5833,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6058,6 +6106,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6067,7 +6118,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6340,6 +6391,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>44471.462561112683</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>50929.189703694108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6361,11 +6415,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="590742656"/>
-        <c:axId val="590744192"/>
+        <c:axId val="607622272"/>
+        <c:axId val="607623808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="590742656"/>
+        <c:axId val="607622272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6405,14 +6459,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="590744192"/>
+        <c:crossAx val="607623808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="590744192"/>
+        <c:axId val="607623808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6461,7 +6515,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="590742656"/>
+        <c:crossAx val="607622272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6591,7 +6645,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6864,6 +6918,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6873,7 +6930,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7146,6 +7203,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>189000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>191000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7179,7 +7239,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7452,6 +7512,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7461,7 +7524,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7734,6 +7797,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>233471.46256111268</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>241929.18970369411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7767,7 +7833,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8040,6 +8106,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8049,7 +8118,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8322,6 +8391,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>44471.462561112683</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>50929.189703694108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8343,11 +8415,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="590766080"/>
-        <c:axId val="590767616"/>
+        <c:axId val="607657984"/>
+        <c:axId val="607659520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="590766080"/>
+        <c:axId val="607657984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8357,14 +8429,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="590767616"/>
+        <c:crossAx val="607659520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="590767616"/>
+        <c:axId val="607659520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8375,7 +8447,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="590766080"/>
+        <c:crossAx val="607657984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8493,7 +8565,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8766,6 +8838,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8775,7 +8850,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9048,6 +9123,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>189000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>191000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9090,7 +9168,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9363,6 +9441,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9372,7 +9453,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9645,6 +9726,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>232626.4497326077</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>241060.80415880398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9687,7 +9771,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9960,6 +10044,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9969,7 +10056,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10242,6 +10329,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>43626.449732607696</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>50060.804158803978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10263,11 +10353,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="441129984"/>
-        <c:axId val="441135872"/>
+        <c:axId val="607698304"/>
+        <c:axId val="607712384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="441129984"/>
+        <c:axId val="607698304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10307,14 +10397,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441135872"/>
+        <c:crossAx val="607712384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="441135872"/>
+        <c:axId val="607712384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10363,7 +10453,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441129984"/>
+        <c:crossAx val="607698304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10493,7 +10583,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10766,6 +10856,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10775,7 +10868,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11048,6 +11141,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>189000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>191000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11081,7 +11177,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11354,6 +11450,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11363,7 +11462,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11636,6 +11735,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>232626.4497326077</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>241060.80415880398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11669,7 +11771,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11942,6 +12044,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11951,7 +12056,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12224,6 +12329,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>43626.449732607696</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>50060.804158803978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12245,11 +12353,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="441161600"/>
-        <c:axId val="441163136"/>
+        <c:axId val="608585600"/>
+        <c:axId val="608587136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="441161600"/>
+        <c:axId val="608585600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12259,14 +12367,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="441163136"/>
+        <c:crossAx val="608587136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="441163136"/>
+        <c:axId val="608587136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12277,7 +12385,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="441161600"/>
+        <c:crossAx val="608585600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12319,7 +12427,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12357,7 +12465,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12398,7 +12506,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12436,7 +12544,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12479,7 +12587,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12517,7 +12625,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12795,7 +12903,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12804,7 +12912,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB93"/>
+  <dimension ref="A1:AB94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16104,6 +16212,35 @@
         <v>40107.792220564734</v>
       </c>
     </row>
+    <row r="94" spans="1:9" ht="12.75">
+      <c r="A94" s="13">
+        <v>45625</v>
+      </c>
+      <c r="B94" s="18">
+        <v>1.4490000009536743</v>
+      </c>
+      <c r="C94" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D94" s="15">
+        <v>1380.2622489190333</v>
+      </c>
+      <c r="E94" s="15">
+        <v>158903.52287194796</v>
+      </c>
+      <c r="F94" s="15">
+        <v>230251.2047929948</v>
+      </c>
+      <c r="G94" s="15">
+        <v>184000</v>
+      </c>
+      <c r="H94" s="15">
+        <v>230251.2047929948</v>
+      </c>
+      <c r="I94" s="15">
+        <v>46251.204792994802</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16115,7 +16252,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH93"/>
+  <dimension ref="A1:AH94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20847,6 +20984,50 @@
         <v>69.289656576476474</v>
       </c>
     </row>
+    <row r="94" spans="1:14" ht="12.75">
+      <c r="A94" s="13">
+        <v>45625</v>
+      </c>
+      <c r="B94" s="18">
+        <v>1.4490000009536743</v>
+      </c>
+      <c r="C94" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D94" s="15">
+        <v>1380.2622489190333</v>
+      </c>
+      <c r="E94" s="15">
+        <v>166962.86372979014</v>
+      </c>
+      <c r="F94" s="15">
+        <v>241929.18970369411</v>
+      </c>
+      <c r="G94" s="15">
+        <v>191000</v>
+      </c>
+      <c r="H94" s="15">
+        <v>241929.18970369411</v>
+      </c>
+      <c r="I94" s="15">
+        <v>50929.189703694108</v>
+      </c>
+      <c r="J94" s="21">
+        <v>3.9000034332275391E-2</v>
+      </c>
+      <c r="K94" s="21">
+        <v>6.2727207814036137E-2</v>
+      </c>
+      <c r="L94" s="21">
+        <v>3.9000034332275391E-2</v>
+      </c>
+      <c r="M94" s="23">
+        <v>8.7648051289180559E-2</v>
+      </c>
+      <c r="N94" s="21">
+        <v>71.567144838255288</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20858,7 +21039,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH93"/>
+  <dimension ref="A1:AH94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -26296,6 +26477,59 @@
         <v>92.640578037670807</v>
       </c>
     </row>
+    <row r="94" spans="1:17" ht="12.75">
+      <c r="A94" s="13">
+        <v>45625</v>
+      </c>
+      <c r="B94" s="18">
+        <v>1.4490000009536743</v>
+      </c>
+      <c r="C94" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D94" s="15">
+        <v>1380.2622489190333</v>
+      </c>
+      <c r="E94" s="15">
+        <v>166363.56383723073</v>
+      </c>
+      <c r="F94" s="15">
+        <v>241060.80415880398</v>
+      </c>
+      <c r="G94" s="15">
+        <v>191000</v>
+      </c>
+      <c r="H94" s="15">
+        <v>241060.80415880398</v>
+      </c>
+      <c r="I94" s="15">
+        <v>50060.804158803978</v>
+      </c>
+      <c r="J94" s="15">
+        <v>1.562000036239624</v>
+      </c>
+      <c r="K94" s="15">
+        <v>1.3519999980926514</v>
+      </c>
+      <c r="L94" s="19">
+        <v>1.562000036239624</v>
+      </c>
+      <c r="M94" s="19">
+        <v>0.99800002574920654</v>
+      </c>
+      <c r="N94" s="21">
+        <v>79.964533123378445</v>
+      </c>
+      <c r="O94" s="21">
+        <v>73.691935857805845</v>
+      </c>
+      <c r="P94" s="21">
+        <v>64.239423165064565</v>
+      </c>
+      <c r="Q94" s="21">
+        <v>92.596961243288405</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
@@ -634,6 +634,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -689,7 +690,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -965,6 +966,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -974,7 +978,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1250,6 +1254,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>184000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>186000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1292,7 +1299,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1568,6 +1575,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1577,7 +1587,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1853,6 +1863,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>230251.2047929948</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>233204.63259808367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1895,7 +1908,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2171,6 +2184,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2180,7 +2196,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2456,6 +2472,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>46251.204792994802</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>47204.63259808367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2477,11 +2496,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="477306240"/>
-        <c:axId val="541013504"/>
+        <c:axId val="390048768"/>
+        <c:axId val="390054656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="477306240"/>
+        <c:axId val="390048768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2521,14 +2540,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541013504"/>
+        <c:crossAx val="390054656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="541013504"/>
+        <c:axId val="390054656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2577,7 +2596,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477306240"/>
+        <c:crossAx val="390048768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2707,7 +2726,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2983,6 +3002,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2992,7 +3014,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3268,6 +3290,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>184000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>186000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3301,7 +3326,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3577,6 +3602,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3586,7 +3614,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3862,6 +3890,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>230251.2047929948</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>233204.63259808367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3895,7 +3926,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4171,6 +4202,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4180,7 +4214,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4456,6 +4490,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>46251.204792994802</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>47204.63259808367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4477,11 +4514,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="603575808"/>
-        <c:axId val="603577344"/>
+        <c:axId val="390076288"/>
+        <c:axId val="390077824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="603575808"/>
+        <c:axId val="390076288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4491,14 +4528,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="603577344"/>
+        <c:crossAx val="390077824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="603577344"/>
+        <c:axId val="390077824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4509,7 +4546,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="603575808"/>
+        <c:crossAx val="390076288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4627,7 +4664,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4903,6 +4940,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4912,7 +4952,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5188,6 +5228,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>191000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>193000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5230,7 +5273,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5506,6 +5549,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5515,7 +5561,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5791,6 +5837,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>241929.18970369411</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>244930.97389211343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5833,7 +5882,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6109,6 +6158,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6118,7 +6170,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6394,6 +6446,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>50929.189703694108</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>51930.973892113427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6415,11 +6470,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="607622272"/>
-        <c:axId val="607623808"/>
+        <c:axId val="390116480"/>
+        <c:axId val="390118016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="607622272"/>
+        <c:axId val="390116480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6459,14 +6514,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607623808"/>
+        <c:crossAx val="390118016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="607623808"/>
+        <c:axId val="390118016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6515,7 +6570,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607622272"/>
+        <c:crossAx val="390116480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6645,7 +6700,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6921,6 +6976,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6930,7 +6988,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7206,6 +7264,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>191000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>193000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7239,7 +7300,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7515,6 +7576,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7524,7 +7588,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7800,6 +7864,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>241929.18970369411</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>244930.97389211343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7833,7 +7900,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8109,6 +8176,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8118,7 +8188,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8394,6 +8464,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>50929.189703694108</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>51930.973892113427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8415,11 +8488,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="607657984"/>
-        <c:axId val="607659520"/>
+        <c:axId val="395129216"/>
+        <c:axId val="395130752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="607657984"/>
+        <c:axId val="395129216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8429,14 +8502,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="607659520"/>
+        <c:crossAx val="395130752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="607659520"/>
+        <c:axId val="395130752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8447,7 +8520,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="607657984"/>
+        <c:crossAx val="395129216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8565,7 +8638,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8841,6 +8914,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8850,7 +8926,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9126,6 +9202,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>191000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>193000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9168,7 +9247,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9444,6 +9523,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9453,7 +9535,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9729,6 +9811,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>241060.80415880398</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>244058.99252272033</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9771,7 +9856,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10047,6 +10132,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10056,7 +10144,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10332,6 +10420,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>50060.804158803978</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>51058.992522720335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10353,11 +10444,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="607698304"/>
-        <c:axId val="607712384"/>
+        <c:axId val="395206016"/>
+        <c:axId val="395211904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="607698304"/>
+        <c:axId val="395206016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10397,14 +10488,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607712384"/>
+        <c:crossAx val="395211904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="607712384"/>
+        <c:axId val="395211904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10453,7 +10544,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607698304"/>
+        <c:crossAx val="395206016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10583,7 +10674,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10859,6 +10950,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10868,7 +10962,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11144,6 +11238,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>191000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>193000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11177,7 +11274,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11453,6 +11550,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11462,7 +11562,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11738,6 +11838,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>241060.80415880398</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>244058.99252272033</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11771,7 +11874,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12047,6 +12150,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12056,7 +12162,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12332,6 +12438,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>50060.804158803978</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>51058.992522720335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12353,11 +12462,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="608585600"/>
-        <c:axId val="608587136"/>
+        <c:axId val="395233536"/>
+        <c:axId val="395509760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="608585600"/>
+        <c:axId val="395233536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12367,14 +12476,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="608587136"/>
+        <c:crossAx val="395509760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="608587136"/>
+        <c:axId val="395509760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12385,7 +12494,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="608585600"/>
+        <c:crossAx val="395233536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12912,7 +13021,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB94"/>
+  <dimension ref="A1:AB95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13618,6 +13727,27 @@
         <v>-128.53831332558548</v>
       </c>
       <c r="J11" s="3"/>
+      <c r="L11" s="8">
+        <v>45657</v>
+      </c>
+      <c r="M11" s="5">
+        <v>24000</v>
+      </c>
+      <c r="N11" s="9">
+        <v>186000</v>
+      </c>
+      <c r="O11" s="9">
+        <v>233204.63259808367</v>
+      </c>
+      <c r="P11" s="9">
+        <v>47204.63259808367</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>0.25378834730152511</v>
+      </c>
+      <c r="R11" s="11">
+        <v>5.1396186951795375E-2</v>
+      </c>
       <c r="T11" s="8">
         <v>43830</v>
       </c>
@@ -13975,6 +14105,16 @@
         <v>-3272.8882900447315</v>
       </c>
       <c r="J18" s="3"/>
+      <c r="T18" s="8">
+        <v>43098</v>
+      </c>
+      <c r="U18" s="2">
+        <v>18000</v>
+      </c>
+      <c r="V18" s="2">
+        <f t="shared" ref="V18:V25" si="8">-U18</f>
+        <v>-18000</v>
+      </c>
     </row>
     <row r="19" spans="1:28" ht="14.1" customHeight="1">
       <c r="A19" s="13">
@@ -14005,6 +14145,16 @@
         <v>-4901.9066203802577</v>
       </c>
       <c r="J19" s="12"/>
+      <c r="T19" s="8">
+        <v>43462</v>
+      </c>
+      <c r="U19" s="2">
+        <v>24000</v>
+      </c>
+      <c r="V19" s="2">
+        <f t="shared" si="8"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="20" spans="1:28" ht="14.1" customHeight="1">
       <c r="A20" s="13">
@@ -14035,6 +14185,16 @@
         <v>-5911.0890497312321</v>
       </c>
       <c r="J20" s="3"/>
+      <c r="T20" s="8">
+        <v>43830</v>
+      </c>
+      <c r="U20" s="2">
+        <v>24000</v>
+      </c>
+      <c r="V20" s="2">
+        <f t="shared" si="8"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="21" spans="1:28" ht="14.1" customHeight="1">
       <c r="A21" s="13">
@@ -14065,6 +14225,16 @@
         <v>-9910.9323018028881</v>
       </c>
       <c r="J21" s="3"/>
+      <c r="T21" s="8">
+        <v>44196</v>
+      </c>
+      <c r="U21" s="2">
+        <v>24000</v>
+      </c>
+      <c r="V21" s="2">
+        <f t="shared" si="8"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="22" spans="1:28" ht="14.1" customHeight="1">
       <c r="A22" s="13">
@@ -14095,6 +14265,16 @@
         <v>-8397.8471633640947</v>
       </c>
       <c r="J22" s="3"/>
+      <c r="T22" s="8">
+        <v>44561</v>
+      </c>
+      <c r="U22" s="2">
+        <v>24000</v>
+      </c>
+      <c r="V22" s="2">
+        <f t="shared" si="8"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="23" spans="1:28" ht="14.1" customHeight="1">
       <c r="A23" s="13">
@@ -14126,6 +14306,16 @@
       </c>
       <c r="J23" s="3"/>
       <c r="L23" s="10"/>
+      <c r="T23" s="8">
+        <v>44925</v>
+      </c>
+      <c r="U23" s="2">
+        <v>24000</v>
+      </c>
+      <c r="V23" s="2">
+        <f t="shared" si="8"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="24" spans="1:28" ht="14.1" customHeight="1">
       <c r="A24" s="13">
@@ -14156,6 +14346,16 @@
         <v>-9267.7271591519821</v>
       </c>
       <c r="J24" s="3"/>
+      <c r="T24" s="8">
+        <v>45289</v>
+      </c>
+      <c r="U24" s="2">
+        <v>24000</v>
+      </c>
+      <c r="V24" s="2">
+        <f t="shared" si="8"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="25" spans="1:28" ht="14.1" customHeight="1">
       <c r="A25" s="13">
@@ -14186,6 +14386,16 @@
         <v>-549.50482663141884</v>
       </c>
       <c r="J25" s="3"/>
+      <c r="T25" s="8">
+        <v>45657</v>
+      </c>
+      <c r="U25" s="2">
+        <v>24000</v>
+      </c>
+      <c r="V25" s="2">
+        <f t="shared" si="8"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="26" spans="1:28" ht="14.1" customHeight="1">
       <c r="A26" s="13">
@@ -14216,6 +14426,12 @@
         <v>4255.4018907257705</v>
       </c>
       <c r="J26" s="3"/>
+      <c r="T26" s="8">
+        <v>45657</v>
+      </c>
+      <c r="V26" s="2">
+        <v>233204.63259808367</v>
+      </c>
     </row>
     <row r="27" spans="1:28" ht="14.1" customHeight="1">
       <c r="A27" s="13">
@@ -14246,6 +14462,9 @@
         <v>2012.2431754165664</v>
       </c>
       <c r="J27" s="3"/>
+      <c r="V27" s="24">
+        <v>5.1396186951795375E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:28" ht="14.1" customHeight="1">
       <c r="A28" s="13">
@@ -16239,6 +16458,35 @@
       </c>
       <c r="I94" s="15">
         <v>46251.204792994802</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="12.75">
+      <c r="A95" s="13">
+        <v>45657</v>
+      </c>
+      <c r="B95" s="18">
+        <v>1.4550000429153442</v>
+      </c>
+      <c r="C95" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D95" s="15">
+        <v>1374.5704061923284</v>
+      </c>
+      <c r="E95" s="15">
+        <v>160278.0932781403</v>
+      </c>
+      <c r="F95" s="15">
+        <v>233204.63259808367</v>
+      </c>
+      <c r="G95" s="15">
+        <v>186000</v>
+      </c>
+      <c r="H95" s="15">
+        <v>233204.63259808367</v>
+      </c>
+      <c r="I95" s="15">
+        <v>47204.63259808367</v>
       </c>
     </row>
   </sheetData>
@@ -16252,7 +16500,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH94"/>
+  <dimension ref="A1:AH95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17118,6 +17366,27 @@
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
+      <c r="R11" s="8">
+        <v>45657</v>
+      </c>
+      <c r="S11" s="5">
+        <v>25000</v>
+      </c>
+      <c r="T11" s="9">
+        <v>193000</v>
+      </c>
+      <c r="U11" s="9">
+        <v>244930.97389211343</v>
+      </c>
+      <c r="V11" s="9">
+        <v>51930.973892113427</v>
+      </c>
+      <c r="W11" s="11">
+        <v>0.26907240358607992</v>
+      </c>
+      <c r="X11" s="11">
+        <v>5.3546422145481998E-2</v>
+      </c>
       <c r="Z11" s="8">
         <v>43830</v>
       </c>
@@ -17594,6 +17863,16 @@
       <c r="O18" s="21"/>
       <c r="P18" s="21"/>
       <c r="Q18" s="21"/>
+      <c r="Z18" s="8">
+        <v>43098</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>19000</v>
+      </c>
+      <c r="AB18" s="2">
+        <f t="shared" ref="AB18:AB25" si="5">-AA18</f>
+        <v>-19000</v>
+      </c>
     </row>
     <row r="19" spans="1:34" ht="14.1" customHeight="1">
       <c r="A19" s="13">
@@ -17641,6 +17920,16 @@
       <c r="O19" s="21"/>
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
+      <c r="Z19" s="8">
+        <v>43462</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>28000</v>
+      </c>
+      <c r="AB19" s="2">
+        <f t="shared" si="5"/>
+        <v>-28000</v>
+      </c>
     </row>
     <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="13">
@@ -17688,6 +17977,16 @@
       <c r="O20" s="21"/>
       <c r="P20" s="21"/>
       <c r="Q20" s="21"/>
+      <c r="Z20" s="8">
+        <v>43830</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AB20" s="2">
+        <f t="shared" si="5"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="13">
@@ -17735,6 +18034,16 @@
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
+      <c r="Z21" s="8">
+        <v>44196</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AB21" s="2">
+        <f t="shared" si="5"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="13">
@@ -17782,6 +18091,16 @@
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
+      <c r="Z22" s="8">
+        <v>44561</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AB22" s="2">
+        <f t="shared" si="5"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="13">
@@ -17830,6 +18149,16 @@
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
       <c r="R23" s="10"/>
+      <c r="Z23" s="8">
+        <v>44925</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>25000</v>
+      </c>
+      <c r="AB23" s="2">
+        <f t="shared" si="5"/>
+        <v>-25000</v>
+      </c>
     </row>
     <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="13">
@@ -17877,6 +18206,16 @@
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="21"/>
+      <c r="Z24" s="8">
+        <v>45289</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AB24" s="2">
+        <f t="shared" si="5"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="13">
@@ -17924,6 +18263,16 @@
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
+      <c r="Z25" s="8">
+        <v>45657</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>25000</v>
+      </c>
+      <c r="AB25" s="2">
+        <f t="shared" si="5"/>
+        <v>-25000</v>
+      </c>
     </row>
     <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="13">
@@ -17971,6 +18320,12 @@
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
+      <c r="Z26" s="8">
+        <v>45657</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>244930.97389211343</v>
+      </c>
     </row>
     <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="13">
@@ -18018,6 +18373,9 @@
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
+      <c r="AB27" s="24">
+        <v>5.3546422145481998E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="13">
@@ -21026,6 +21384,50 @@
       </c>
       <c r="N94" s="21">
         <v>71.567144838255288</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="12.75">
+      <c r="A95" s="13">
+        <v>45657</v>
+      </c>
+      <c r="B95" s="18">
+        <v>1.4550000429153442</v>
+      </c>
+      <c r="C95" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D95" s="15">
+        <v>1374.5704061923284</v>
+      </c>
+      <c r="E95" s="15">
+        <v>168337.43413598248</v>
+      </c>
+      <c r="F95" s="15">
+        <v>244930.97389211343</v>
+      </c>
+      <c r="G95" s="15">
+        <v>193000</v>
+      </c>
+      <c r="H95" s="15">
+        <v>244930.97389211343</v>
+      </c>
+      <c r="I95" s="15">
+        <v>51930.973892113427</v>
+      </c>
+      <c r="J95" s="21">
+        <v>6.0000419616699219E-3</v>
+      </c>
+      <c r="K95" s="21">
+        <v>5.3272680171975097E-2</v>
+      </c>
+      <c r="L95" s="21">
+        <v>6.0000419616699219E-3</v>
+      </c>
+      <c r="M95" s="23">
+        <v>7.4040049734595451E-2</v>
+      </c>
+      <c r="N95" s="21">
+        <v>71.951167459958171</v>
       </c>
     </row>
   </sheetData>
@@ -21039,7 +21441,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH94"/>
+  <dimension ref="A1:AH95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21978,6 +22380,27 @@
       <c r="Q11" s="21">
         <v>33.909222155092408</v>
       </c>
+      <c r="R11" s="8">
+        <v>45657</v>
+      </c>
+      <c r="S11" s="5">
+        <v>25000</v>
+      </c>
+      <c r="T11" s="9">
+        <v>193000</v>
+      </c>
+      <c r="U11" s="9">
+        <v>244058.99252272033</v>
+      </c>
+      <c r="V11" s="9">
+        <v>51058.992522720335</v>
+      </c>
+      <c r="W11" s="11">
+        <v>0.26455436540269606</v>
+      </c>
+      <c r="X11" s="11">
+        <v>5.3367386499293845E-2</v>
+      </c>
       <c r="Z11" s="8">
         <v>43830</v>
       </c>
@@ -22496,6 +22919,16 @@
       <c r="Q18" s="21">
         <v>5.8427539252576537</v>
       </c>
+      <c r="Z18" s="8">
+        <v>43098</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>18000</v>
+      </c>
+      <c r="AB18" s="2">
+        <f t="shared" ref="AB18:AB25" si="7">-AA18</f>
+        <v>-18000</v>
+      </c>
     </row>
     <row r="19" spans="1:34" ht="14.1" customHeight="1">
       <c r="A19" s="13">
@@ -22549,6 +22982,16 @@
       <c r="Q19" s="21">
         <v>-4.3867379984749704</v>
       </c>
+      <c r="Z19" s="8">
+        <v>43462</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>27000</v>
+      </c>
+      <c r="AB19" s="2">
+        <f t="shared" si="7"/>
+        <v>-27000</v>
+      </c>
     </row>
     <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="13">
@@ -22602,6 +23045,16 @@
       <c r="Q20" s="21">
         <v>-8.5165169023150256</v>
       </c>
+      <c r="Z20" s="8">
+        <v>43830</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AB20" s="2">
+        <f t="shared" si="7"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="13">
@@ -22655,6 +23108,16 @@
       <c r="Q21" s="21">
         <v>-4.7259157195168626</v>
       </c>
+      <c r="Z21" s="8">
+        <v>44196</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AB21" s="2">
+        <f t="shared" si="7"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="13">
@@ -22708,6 +23171,16 @@
       <c r="Q22" s="21">
         <v>5.4096563797217456</v>
       </c>
+      <c r="Z22" s="8">
+        <v>44561</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AB22" s="2">
+        <f t="shared" si="7"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="13">
@@ -22762,6 +23235,16 @@
         <v>5.0191538285458392</v>
       </c>
       <c r="R23" s="10"/>
+      <c r="Z23" s="8">
+        <v>44925</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>26000</v>
+      </c>
+      <c r="AB23" s="2">
+        <f t="shared" si="7"/>
+        <v>-26000</v>
+      </c>
     </row>
     <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="13">
@@ -22815,6 +23298,16 @@
       <c r="Q24" s="21">
         <v>9.3879340641525388</v>
       </c>
+      <c r="Z24" s="8">
+        <v>45289</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>25000</v>
+      </c>
+      <c r="AB24" s="2">
+        <f t="shared" si="7"/>
+        <v>-25000</v>
+      </c>
     </row>
     <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="13">
@@ -22868,6 +23361,16 @@
       <c r="Q25" s="21">
         <v>58.875528906141291</v>
       </c>
+      <c r="Z25" s="8">
+        <v>45657</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>25000</v>
+      </c>
+      <c r="AB25" s="2">
+        <f t="shared" si="7"/>
+        <v>-25000</v>
+      </c>
     </row>
     <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="13">
@@ -22921,6 +23424,12 @@
       <c r="Q26" s="21">
         <v>80.67260204345024</v>
       </c>
+      <c r="Z26" s="8">
+        <v>45657</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>244058.99252272033</v>
+      </c>
     </row>
     <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="13">
@@ -22974,6 +23483,9 @@
       <c r="Q27" s="21">
         <v>82.245824555416519</v>
       </c>
+      <c r="AB27" s="24">
+        <v>5.3367386499293845E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="13">
@@ -26528,6 +27040,59 @@
       </c>
       <c r="Q94" s="21">
         <v>92.596961243288405</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" ht="12.75">
+      <c r="A95" s="13">
+        <v>45657</v>
+      </c>
+      <c r="B95" s="18">
+        <v>1.4550000429153442</v>
+      </c>
+      <c r="C95" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D95" s="15">
+        <v>1374.5704061923284</v>
+      </c>
+      <c r="E95" s="15">
+        <v>167738.13424342306</v>
+      </c>
+      <c r="F95" s="15">
+        <v>244058.99252272033</v>
+      </c>
+      <c r="G95" s="15">
+        <v>193000</v>
+      </c>
+      <c r="H95" s="15">
+        <v>244058.99252272033</v>
+      </c>
+      <c r="I95" s="15">
+        <v>51058.992522720335</v>
+      </c>
+      <c r="J95" s="15">
+        <v>1.5520000457763672</v>
+      </c>
+      <c r="K95" s="15">
+        <v>1.4220000505447388</v>
+      </c>
+      <c r="L95" s="19">
+        <v>1.562000036239624</v>
+      </c>
+      <c r="M95" s="19">
+        <v>0.99800002574920654</v>
+      </c>
+      <c r="N95" s="21">
+        <v>81.028370330837475</v>
+      </c>
+      <c r="O95" s="21">
+        <v>76.13741401548306</v>
+      </c>
+      <c r="P95" s="21">
+        <v>68.205420115204063</v>
+      </c>
+      <c r="Q95" s="21">
+        <v>92.001401816041067</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
@@ -2496,11 +2496,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="390048768"/>
-        <c:axId val="390054656"/>
+        <c:axId val="430275200"/>
+        <c:axId val="446325120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="390048768"/>
+        <c:axId val="430275200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2540,14 +2540,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390054656"/>
+        <c:crossAx val="446325120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="390054656"/>
+        <c:axId val="446325120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2596,7 +2596,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390048768"/>
+        <c:crossAx val="430275200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4514,11 +4514,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="390076288"/>
-        <c:axId val="390077824"/>
+        <c:axId val="457088000"/>
+        <c:axId val="457340032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="390076288"/>
+        <c:axId val="457088000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4528,14 +4528,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="390077824"/>
+        <c:crossAx val="457340032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="390077824"/>
+        <c:axId val="457340032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4546,7 +4546,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="390076288"/>
+        <c:crossAx val="457088000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6470,11 +6470,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="390116480"/>
-        <c:axId val="390118016"/>
+        <c:axId val="472892160"/>
+        <c:axId val="472893696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="390116480"/>
+        <c:axId val="472892160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6514,14 +6514,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390118016"/>
+        <c:crossAx val="472893696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="390118016"/>
+        <c:axId val="472893696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6570,7 +6570,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390116480"/>
+        <c:crossAx val="472892160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8488,11 +8488,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="395129216"/>
-        <c:axId val="395130752"/>
+        <c:axId val="533550592"/>
+        <c:axId val="533552128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="395129216"/>
+        <c:axId val="533550592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8502,14 +8502,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="395130752"/>
+        <c:crossAx val="533552128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="395130752"/>
+        <c:axId val="533552128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8520,7 +8520,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="395129216"/>
+        <c:crossAx val="533550592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10444,11 +10444,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="395206016"/>
-        <c:axId val="395211904"/>
+        <c:axId val="533281792"/>
+        <c:axId val="533287680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="395206016"/>
+        <c:axId val="533281792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10488,14 +10488,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395211904"/>
+        <c:crossAx val="533287680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="395211904"/>
+        <c:axId val="533287680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10544,7 +10544,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395206016"/>
+        <c:crossAx val="533281792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12462,11 +12462,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="395233536"/>
-        <c:axId val="395509760"/>
+        <c:axId val="533321600"/>
+        <c:axId val="533323136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="395233536"/>
+        <c:axId val="533321600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12476,14 +12476,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="395509760"/>
+        <c:crossAx val="533323136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="395509760"/>
+        <c:axId val="533323136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12494,7 +12494,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="395233536"/>
+        <c:crossAx val="533321600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
@@ -690,7 +690,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -969,6 +969,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -978,7 +981,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1257,6 +1260,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>186000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>188000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1299,7 +1305,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1578,6 +1584,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1587,7 +1596,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1866,6 +1875,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>233204.63259808367</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>233762.11967027574</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1908,7 +1920,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2187,6 +2199,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2196,7 +2211,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2475,6 +2490,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>47204.63259808367</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45762.119670275744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2496,11 +2514,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="430275200"/>
-        <c:axId val="446325120"/>
+        <c:axId val="530745216"/>
+        <c:axId val="530746752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="430275200"/>
+        <c:axId val="530745216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2540,14 +2558,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446325120"/>
+        <c:crossAx val="530746752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="446325120"/>
+        <c:axId val="530746752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2596,7 +2614,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430275200"/>
+        <c:crossAx val="530745216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2726,7 +2744,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3005,6 +3023,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3014,7 +3035,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3293,6 +3314,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>186000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>188000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3326,7 +3350,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3605,6 +3629,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3614,7 +3641,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3893,6 +3920,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>233204.63259808367</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>233762.11967027574</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3926,7 +3956,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4205,6 +4235,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4214,7 +4247,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4493,6 +4526,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>47204.63259808367</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45762.119670275744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4514,11 +4550,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="457088000"/>
-        <c:axId val="457340032"/>
+        <c:axId val="547286400"/>
+        <c:axId val="426337408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="457088000"/>
+        <c:axId val="547286400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4528,14 +4564,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="457340032"/>
+        <c:crossAx val="426337408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="457340032"/>
+        <c:axId val="426337408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4546,7 +4582,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="457088000"/>
+        <c:crossAx val="547286400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4664,7 +4700,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4943,6 +4979,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4952,7 +4991,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5231,6 +5270,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>193000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>195000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5273,7 +5315,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5552,6 +5594,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5561,7 +5606,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5840,6 +5885,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>244930.97389211343</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>245415.92638930981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5882,7 +5930,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6161,6 +6209,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6170,7 +6221,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6449,6 +6500,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>51930.973892113427</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>50415.92638930981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6470,11 +6524,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472892160"/>
-        <c:axId val="472893696"/>
+        <c:axId val="467982976"/>
+        <c:axId val="468337024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="472892160"/>
+        <c:axId val="467982976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6514,14 +6568,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472893696"/>
+        <c:crossAx val="468337024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="472893696"/>
+        <c:axId val="468337024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6570,7 +6624,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472892160"/>
+        <c:crossAx val="467982976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6700,7 +6754,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6979,6 +7033,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6988,7 +7045,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7267,6 +7324,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>193000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>195000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7300,7 +7360,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7579,6 +7639,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7588,7 +7651,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7867,6 +7930,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>244930.97389211343</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>245415.92638930981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7900,7 +7966,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8179,6 +8245,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8188,7 +8257,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8467,6 +8536,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>51930.973892113427</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>50415.92638930981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8488,11 +8560,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="533550592"/>
-        <c:axId val="533552128"/>
+        <c:axId val="471078400"/>
+        <c:axId val="471079936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="533550592"/>
+        <c:axId val="471078400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8502,14 +8574,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="533552128"/>
+        <c:crossAx val="471079936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="533552128"/>
+        <c:axId val="471079936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8520,7 +8592,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="533550592"/>
+        <c:crossAx val="471078400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8638,7 +8710,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8917,6 +8989,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8926,7 +9001,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9205,6 +9280,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>193000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>195000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9247,7 +9325,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9526,6 +9604,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9535,7 +9616,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9814,6 +9895,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>244058.99252272033</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>244549.33875667118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9856,7 +9940,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10135,6 +10219,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10144,7 +10231,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10423,6 +10510,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>51058.992522720335</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>49549.338756671175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10444,11 +10534,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="533281792"/>
-        <c:axId val="533287680"/>
+        <c:axId val="477512832"/>
+        <c:axId val="477514368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="533281792"/>
+        <c:axId val="477512832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10488,14 +10578,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533287680"/>
+        <c:crossAx val="477514368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="533287680"/>
+        <c:axId val="477514368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10544,7 +10634,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533281792"/>
+        <c:crossAx val="477512832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10674,7 +10764,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10953,6 +11043,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10962,7 +11055,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11241,6 +11334,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>193000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>195000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11274,7 +11370,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11553,6 +11649,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11562,7 +11661,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11841,6 +11940,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>244058.99252272033</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>244549.33875667118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11874,7 +11976,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12153,6 +12255,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12162,7 +12267,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12441,6 +12546,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>51058.992522720335</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>49549.338756671175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12462,11 +12570,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="533321600"/>
-        <c:axId val="533323136"/>
+        <c:axId val="477540352"/>
+        <c:axId val="477541888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="533321600"/>
+        <c:axId val="477540352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12476,14 +12584,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="533323136"/>
+        <c:crossAx val="477541888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="533323136"/>
+        <c:axId val="477541888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12494,7 +12602,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="533321600"/>
+        <c:crossAx val="477540352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12536,7 +12644,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12574,7 +12682,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12615,7 +12723,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12653,7 +12761,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12696,7 +12804,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12734,7 +12842,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13012,7 +13120,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13021,7 +13129,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB95"/>
+  <dimension ref="A1:AB96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16489,6 +16597,35 @@
         <v>47204.63259808367</v>
       </c>
     </row>
+    <row r="96" spans="1:9" ht="12.75">
+      <c r="A96" s="13">
+        <v>45684</v>
+      </c>
+      <c r="B96" s="18">
+        <v>1.4459999799728394</v>
+      </c>
+      <c r="C96" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D96" s="15">
+        <v>1383.1258836100167</v>
+      </c>
+      <c r="E96" s="15">
+        <v>161661.21916175031</v>
+      </c>
+      <c r="F96" s="15">
+        <v>233762.11967027574</v>
+      </c>
+      <c r="G96" s="15">
+        <v>188000</v>
+      </c>
+      <c r="H96" s="15">
+        <v>233762.11967027574</v>
+      </c>
+      <c r="I96" s="15">
+        <v>45762.119670275744</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16500,7 +16637,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH95"/>
+  <dimension ref="A1:AH96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21430,6 +21567,50 @@
         <v>71.951167459958171</v>
       </c>
     </row>
+    <row r="96" spans="1:14" ht="12.75">
+      <c r="A96" s="13">
+        <v>45684</v>
+      </c>
+      <c r="B96" s="18">
+        <v>1.4459999799728394</v>
+      </c>
+      <c r="C96" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D96" s="15">
+        <v>1383.1258836100167</v>
+      </c>
+      <c r="E96" s="15">
+        <v>169720.56001959249</v>
+      </c>
+      <c r="F96" s="15">
+        <v>245415.92638930981</v>
+      </c>
+      <c r="G96" s="15">
+        <v>195000</v>
+      </c>
+      <c r="H96" s="15">
+        <v>245415.92638930981</v>
+      </c>
+      <c r="I96" s="15">
+        <v>50415.92638930981</v>
+      </c>
+      <c r="J96" s="21">
+        <v>0</v>
+      </c>
+      <c r="K96" s="21">
+        <v>4.4393900143312577E-2</v>
+      </c>
+      <c r="L96" s="21">
+        <v>9.0000629425048828E-3</v>
+      </c>
+      <c r="M96" s="23">
+        <v>6.3200051935913687E-2</v>
+      </c>
+      <c r="N96" s="21">
+        <v>70.243455160968878</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21441,7 +21622,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH95"/>
+  <dimension ref="A1:AH96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27095,6 +27276,59 @@
         <v>92.001401816041067</v>
       </c>
     </row>
+    <row r="96" spans="1:17" ht="12.75">
+      <c r="A96" s="13">
+        <v>45684</v>
+      </c>
+      <c r="B96" s="18">
+        <v>1.4459999799728394</v>
+      </c>
+      <c r="C96" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D96" s="15">
+        <v>1383.1258836100167</v>
+      </c>
+      <c r="E96" s="15">
+        <v>169121.26012703308</v>
+      </c>
+      <c r="F96" s="15">
+        <v>244549.33875667118</v>
+      </c>
+      <c r="G96" s="15">
+        <v>195000</v>
+      </c>
+      <c r="H96" s="15">
+        <v>244549.33875667118</v>
+      </c>
+      <c r="I96" s="15">
+        <v>49549.338756671175</v>
+      </c>
+      <c r="J96" s="15">
+        <v>1.4950000047683716</v>
+      </c>
+      <c r="K96" s="15">
+        <v>1.3459999561309814</v>
+      </c>
+      <c r="L96" s="19">
+        <v>1.562000036239624</v>
+      </c>
+      <c r="M96" s="19">
+        <v>0.99800002574920654</v>
+      </c>
+      <c r="N96" s="21">
+        <v>79.432614519648922</v>
+      </c>
+      <c r="O96" s="21">
+        <v>77.235814183538352</v>
+      </c>
+      <c r="P96" s="21">
+        <v>71.215551471315493</v>
+      </c>
+      <c r="Q96" s="21">
+        <v>89.276339607984056</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
@@ -690,7 +690,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -972,6 +972,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -981,7 +984,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1263,6 +1266,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>188000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>190000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1305,7 +1311,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1587,6 +1593,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1596,7 +1605,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1878,6 +1887,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>233762.11967027574</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>264052.84458649351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1920,7 +1932,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2202,6 +2214,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2211,7 +2226,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2493,6 +2508,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45762.119670275744</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>74052.844586493506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2514,11 +2532,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="530745216"/>
-        <c:axId val="530746752"/>
+        <c:axId val="452359296"/>
+        <c:axId val="452360832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="530745216"/>
+        <c:axId val="452359296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2558,14 +2576,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530746752"/>
+        <c:crossAx val="452360832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="530746752"/>
+        <c:axId val="452360832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2614,7 +2632,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530745216"/>
+        <c:crossAx val="452359296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2744,7 +2762,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3026,6 +3044,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3035,7 +3056,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3317,6 +3338,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>188000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>190000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3350,7 +3374,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3632,6 +3656,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3641,7 +3668,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3923,6 +3950,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>233762.11967027574</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>264052.84458649351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3956,7 +3986,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4238,6 +4268,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4247,7 +4280,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4529,6 +4562,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45762.119670275744</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>74052.844586493506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4550,11 +4586,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="547286400"/>
-        <c:axId val="426337408"/>
+        <c:axId val="551087104"/>
+        <c:axId val="614940672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="547286400"/>
+        <c:axId val="551087104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4564,14 +4600,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="426337408"/>
+        <c:crossAx val="614940672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="426337408"/>
+        <c:axId val="614940672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4582,7 +4618,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="547286400"/>
+        <c:crossAx val="551087104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4700,7 +4736,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4982,6 +5018,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4991,7 +5030,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5273,6 +5312,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>197000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5315,7 +5357,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5597,6 +5639,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5606,7 +5651,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5888,6 +5933,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>245415.92638930981</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>277117.03653209889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5930,7 +5978,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6212,6 +6260,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6221,7 +6272,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6503,6 +6554,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>50415.92638930981</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>80117.036532098893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6524,11 +6578,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="467982976"/>
-        <c:axId val="468337024"/>
+        <c:axId val="515527040"/>
+        <c:axId val="515528576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="467982976"/>
+        <c:axId val="515527040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6568,14 +6622,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468337024"/>
+        <c:crossAx val="515528576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="468337024"/>
+        <c:axId val="515528576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6624,7 +6678,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467982976"/>
+        <c:crossAx val="515527040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6754,7 +6808,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7036,6 +7090,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7045,7 +7102,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7327,6 +7384,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>197000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7360,7 +7420,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7642,6 +7702,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7651,7 +7714,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7933,6 +7996,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>245415.92638930981</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>277117.03653209889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7966,7 +8032,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8248,6 +8314,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8257,7 +8326,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8539,6 +8608,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>50415.92638930981</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>80117.036532098893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8560,11 +8632,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="471078400"/>
-        <c:axId val="471079936"/>
+        <c:axId val="515562496"/>
+        <c:axId val="515564288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="471078400"/>
+        <c:axId val="515562496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8574,14 +8646,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="471079936"/>
+        <c:crossAx val="515564288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="471079936"/>
+        <c:axId val="515564288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8592,7 +8664,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="471078400"/>
+        <c:crossAx val="515562496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8710,7 +8782,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8992,6 +9064,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9001,7 +9076,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9283,6 +9358,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>197000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9325,7 +9403,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9607,6 +9685,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9616,7 +9697,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9898,6 +9979,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>244549.33875667118</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>276145.57137539709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9940,7 +10024,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10222,6 +10306,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10231,7 +10318,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10513,6 +10600,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>49549.338756671175</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>79145.571375397092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10534,11 +10624,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="477512832"/>
-        <c:axId val="477514368"/>
+        <c:axId val="515602688"/>
+        <c:axId val="515608576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="477512832"/>
+        <c:axId val="515602688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10578,14 +10668,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477514368"/>
+        <c:crossAx val="515608576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="477514368"/>
+        <c:axId val="515608576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10634,7 +10724,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477512832"/>
+        <c:crossAx val="515602688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10764,7 +10854,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11046,6 +11136,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11055,7 +11148,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11337,6 +11430,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>197000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11370,7 +11466,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11652,6 +11748,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11661,7 +11760,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11943,6 +12042,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>244549.33875667118</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>276145.57137539709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11976,7 +12078,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12258,6 +12360,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12267,7 +12372,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12549,6 +12654,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>49549.338756671175</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>79145.571375397092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12570,11 +12678,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="477540352"/>
-        <c:axId val="477541888"/>
+        <c:axId val="515630208"/>
+        <c:axId val="515631744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="477540352"/>
+        <c:axId val="515630208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12584,14 +12692,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="477541888"/>
+        <c:crossAx val="515631744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="477541888"/>
+        <c:axId val="515631744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12602,7 +12710,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="477540352"/>
+        <c:crossAx val="515630208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12644,7 +12752,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12682,7 +12790,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12723,7 +12831,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12761,7 +12869,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12804,7 +12912,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12842,7 +12950,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13120,7 +13228,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13129,7 +13237,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB96"/>
+  <dimension ref="A1:AB97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16626,6 +16734,35 @@
         <v>45762.119670275744</v>
       </c>
     </row>
+    <row r="97" spans="1:9" ht="12.75">
+      <c r="A97" s="13">
+        <v>45716</v>
+      </c>
+      <c r="B97" s="18">
+        <v>1.6210000514984131</v>
+      </c>
+      <c r="C97" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D97" s="15">
+        <v>1233.8062532146428</v>
+      </c>
+      <c r="E97" s="15">
+        <v>162895.02541496494</v>
+      </c>
+      <c r="F97" s="15">
+        <v>264052.84458649351</v>
+      </c>
+      <c r="G97" s="15">
+        <v>190000</v>
+      </c>
+      <c r="H97" s="15">
+        <v>264052.84458649351</v>
+      </c>
+      <c r="I97" s="15">
+        <v>74052.844586493506</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16637,7 +16774,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH96"/>
+  <dimension ref="A1:AH97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21611,6 +21748,50 @@
         <v>70.243455160968878</v>
       </c>
     </row>
+    <row r="97" spans="1:14" ht="12.75">
+      <c r="A97" s="13">
+        <v>45716</v>
+      </c>
+      <c r="B97" s="18">
+        <v>1.6210000514984131</v>
+      </c>
+      <c r="C97" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D97" s="15">
+        <v>1233.8062532146428</v>
+      </c>
+      <c r="E97" s="15">
+        <v>170954.36627280712</v>
+      </c>
+      <c r="F97" s="15">
+        <v>277117.03653209889</v>
+      </c>
+      <c r="G97" s="15">
+        <v>197000</v>
+      </c>
+      <c r="H97" s="15">
+        <v>277117.03653209889</v>
+      </c>
+      <c r="I97" s="15">
+        <v>80117.036532098893</v>
+      </c>
+      <c r="J97" s="21">
+        <v>0.17500007152557373</v>
+      </c>
+      <c r="K97" s="21">
+        <v>6.616159537368943E-2</v>
+      </c>
+      <c r="L97" s="21">
+        <v>0.17500007152557373</v>
+      </c>
+      <c r="M97" s="23">
+        <v>8.1833388534190366E-2</v>
+      </c>
+      <c r="N97" s="21">
+        <v>80.849145512344037</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21622,7 +21803,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH96"/>
+  <dimension ref="A1:AH97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27329,6 +27510,59 @@
         <v>89.276339607984056</v>
       </c>
     </row>
+    <row r="97" spans="1:17" ht="12.75">
+      <c r="A97" s="13">
+        <v>45716</v>
+      </c>
+      <c r="B97" s="18">
+        <v>1.6210000514984131</v>
+      </c>
+      <c r="C97" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D97" s="15">
+        <v>1233.8062532146428</v>
+      </c>
+      <c r="E97" s="15">
+        <v>170355.06638024771</v>
+      </c>
+      <c r="F97" s="15">
+        <v>276145.57137539709</v>
+      </c>
+      <c r="G97" s="15">
+        <v>197000</v>
+      </c>
+      <c r="H97" s="15">
+        <v>276145.57137539709</v>
+      </c>
+      <c r="I97" s="15">
+        <v>79145.571375397092</v>
+      </c>
+      <c r="J97" s="15">
+        <v>1.7549999952316284</v>
+      </c>
+      <c r="K97" s="15">
+        <v>1.4650000333786011</v>
+      </c>
+      <c r="L97" s="19">
+        <v>1.7549999952316284</v>
+      </c>
+      <c r="M97" s="19">
+        <v>0.99800002574920654</v>
+      </c>
+      <c r="N97" s="21">
+        <v>82.298553614891929</v>
+      </c>
+      <c r="O97" s="21">
+        <v>78.923393993989535</v>
+      </c>
+      <c r="P97" s="21">
+        <v>73.784832312206845</v>
+      </c>
+      <c r="Q97" s="21">
+        <v>89.200517357554929</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
@@ -690,7 +690,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -975,6 +975,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -984,7 +987,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1269,6 +1272,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>192000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1311,7 +1317,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1596,6 +1602,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1605,7 +1614,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1890,6 +1899,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>264052.84458649351</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>250414.90987410149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1932,7 +1944,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2217,6 +2229,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2226,7 +2241,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2511,6 +2526,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>74052.844586493506</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>58414.90987410149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2532,11 +2550,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="452359296"/>
-        <c:axId val="452360832"/>
+        <c:axId val="461914880"/>
+        <c:axId val="461917184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="452359296"/>
+        <c:axId val="461914880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2576,14 +2594,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452360832"/>
+        <c:crossAx val="461917184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="452360832"/>
+        <c:axId val="461917184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2632,7 +2650,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452359296"/>
+        <c:crossAx val="461914880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2762,7 +2780,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3047,6 +3065,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3056,7 +3077,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3341,6 +3362,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>192000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3374,7 +3398,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3659,6 +3683,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3668,7 +3695,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3953,6 +3980,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>264052.84458649351</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>250414.90987410149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3986,7 +4016,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4271,6 +4301,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4280,7 +4313,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4565,6 +4598,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>74052.844586493506</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>58414.90987410149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4586,11 +4622,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="551087104"/>
-        <c:axId val="614940672"/>
+        <c:axId val="659875328"/>
+        <c:axId val="659877248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="551087104"/>
+        <c:axId val="659875328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4600,14 +4636,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="614940672"/>
+        <c:crossAx val="659877248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="614940672"/>
+        <c:axId val="659877248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4618,7 +4654,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="551087104"/>
+        <c:crossAx val="659875328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4736,7 +4772,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5021,6 +5057,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5030,7 +5069,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5315,6 +5354,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>197000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>199000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5357,7 +5399,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5642,6 +5684,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5651,7 +5696,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5936,6 +5981,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>277117.03653209889</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>262705.40449016116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5978,7 +6026,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6263,6 +6311,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6272,7 +6323,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6557,6 +6608,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>80117.036532098893</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>63705.404490161163</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6578,11 +6632,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="515527040"/>
-        <c:axId val="515528576"/>
+        <c:axId val="634143872"/>
+        <c:axId val="634145408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="515527040"/>
+        <c:axId val="634143872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6622,14 +6676,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515528576"/>
+        <c:crossAx val="634145408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="515528576"/>
+        <c:axId val="634145408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6678,7 +6732,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515527040"/>
+        <c:crossAx val="634143872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6808,7 +6862,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7093,6 +7147,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7102,7 +7159,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7387,6 +7444,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>197000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>199000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7420,7 +7480,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7705,6 +7765,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7714,7 +7777,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7999,6 +8062,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>277117.03653209889</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>262705.40449016116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8032,7 +8098,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8317,6 +8383,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8326,7 +8395,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8611,6 +8680,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>80117.036532098893</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>63705.404490161163</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8632,11 +8704,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="515562496"/>
-        <c:axId val="515564288"/>
+        <c:axId val="634175488"/>
+        <c:axId val="634177024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="515562496"/>
+        <c:axId val="634175488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8646,14 +8718,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="515564288"/>
+        <c:crossAx val="634177024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="515564288"/>
+        <c:axId val="634177024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8664,7 +8736,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="515562496"/>
+        <c:crossAx val="634175488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8782,7 +8854,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9067,6 +9139,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9076,7 +9151,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9361,6 +9436,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>197000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>199000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9403,7 +9481,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9688,6 +9766,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9697,7 +9778,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9982,6 +10063,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>276145.57137539709</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>261791.47216829649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10024,7 +10108,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10309,6 +10393,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10318,7 +10405,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10603,6 +10690,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>79145.571375397092</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>62791.472168296488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10624,11 +10714,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="515602688"/>
-        <c:axId val="515608576"/>
+        <c:axId val="635321344"/>
+        <c:axId val="635327232"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="515602688"/>
+        <c:axId val="635321344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10668,14 +10758,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515608576"/>
+        <c:crossAx val="635327232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="515608576"/>
+        <c:axId val="635327232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10724,7 +10814,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515602688"/>
+        <c:crossAx val="635321344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10854,7 +10944,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11139,6 +11229,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11148,7 +11241,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11433,6 +11526,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>197000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>199000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11466,7 +11562,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11751,6 +11847,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11760,7 +11859,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -12045,6 +12144,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>276145.57137539709</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>261791.47216829649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12078,7 +12180,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12363,6 +12465,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12372,7 +12477,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12657,6 +12762,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>79145.571375397092</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>62791.472168296488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12678,11 +12786,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="515630208"/>
-        <c:axId val="515631744"/>
+        <c:axId val="635352960"/>
+        <c:axId val="635354496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="515630208"/>
+        <c:axId val="635352960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12692,14 +12800,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="515631744"/>
+        <c:crossAx val="635354496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="515631744"/>
+        <c:axId val="635354496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12710,7 +12818,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="515630208"/>
+        <c:crossAx val="635352960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12752,7 +12860,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12790,7 +12898,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12831,7 +12939,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12869,7 +12977,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12912,7 +13020,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12950,7 +13058,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13228,7 +13336,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13237,7 +13345,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB97"/>
+  <dimension ref="A1:AB98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16763,6 +16871,35 @@
         <v>74052.844586493506</v>
       </c>
     </row>
+    <row r="98" spans="1:9" ht="12.75">
+      <c r="A98" s="13">
+        <v>45747</v>
+      </c>
+      <c r="B98" s="18">
+        <v>1.5249999761581421</v>
+      </c>
+      <c r="C98" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D98" s="15">
+        <v>1311.4754303396792</v>
+      </c>
+      <c r="E98" s="15">
+        <v>164206.50084530463</v>
+      </c>
+      <c r="F98" s="15">
+        <v>250414.90987410149</v>
+      </c>
+      <c r="G98" s="15">
+        <v>192000</v>
+      </c>
+      <c r="H98" s="15">
+        <v>250414.90987410149</v>
+      </c>
+      <c r="I98" s="15">
+        <v>58414.90987410149</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16774,7 +16911,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH97"/>
+  <dimension ref="A1:AH98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21792,6 +21929,50 @@
         <v>80.849145512344037</v>
       </c>
     </row>
+    <row r="98" spans="1:14" ht="12.75">
+      <c r="A98" s="13">
+        <v>45747</v>
+      </c>
+      <c r="B98" s="18">
+        <v>1.5249999761581421</v>
+      </c>
+      <c r="C98" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D98" s="15">
+        <v>1311.4754303396792</v>
+      </c>
+      <c r="E98" s="15">
+        <v>172265.84170314681</v>
+      </c>
+      <c r="F98" s="15">
+        <v>262705.40449016116</v>
+      </c>
+      <c r="G98" s="15">
+        <v>199000</v>
+      </c>
+      <c r="H98" s="15">
+        <v>262705.40449016116</v>
+      </c>
+      <c r="I98" s="15">
+        <v>63705.404490161163</v>
+      </c>
+      <c r="J98" s="21">
+        <v>0</v>
+      </c>
+      <c r="K98" s="21">
+        <v>5.5134662811407859E-2</v>
+      </c>
+      <c r="L98" s="21">
+        <v>9.6000075340270996E-2</v>
+      </c>
+      <c r="M98" s="23">
+        <v>8.419450300187048E-2</v>
+      </c>
+      <c r="N98" s="21">
+        <v>65.484872343961669</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21803,7 +21984,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH97"/>
+  <dimension ref="A1:AH98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27563,6 +27744,59 @@
         <v>89.200517357554929</v>
       </c>
     </row>
+    <row r="98" spans="1:17" ht="12.75">
+      <c r="A98" s="13">
+        <v>45747</v>
+      </c>
+      <c r="B98" s="18">
+        <v>1.5249999761581421</v>
+      </c>
+      <c r="C98" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D98" s="15">
+        <v>1311.4754303396792</v>
+      </c>
+      <c r="E98" s="15">
+        <v>171666.5418105874</v>
+      </c>
+      <c r="F98" s="15">
+        <v>261791.47216829649</v>
+      </c>
+      <c r="G98" s="15">
+        <v>199000</v>
+      </c>
+      <c r="H98" s="15">
+        <v>261791.47216829649</v>
+      </c>
+      <c r="I98" s="15">
+        <v>62791.472168296488</v>
+      </c>
+      <c r="J98" s="15">
+        <v>1.7000000476837158</v>
+      </c>
+      <c r="K98" s="15">
+        <v>1.4960000514984131</v>
+      </c>
+      <c r="L98" s="19">
+        <v>1.7549999952316284</v>
+      </c>
+      <c r="M98" s="19">
+        <v>0.99800002574920654</v>
+      </c>
+      <c r="N98" s="21">
+        <v>69.616905106252176</v>
+      </c>
+      <c r="O98" s="21">
+        <v>75.82123103141042</v>
+      </c>
+      <c r="P98" s="21">
+        <v>74.463631885274708</v>
+      </c>
+      <c r="Q98" s="21">
+        <v>78.53642932368183</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
@@ -690,7 +690,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -978,6 +978,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -987,7 +990,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1275,6 +1278,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>192000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>194000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1317,7 +1323,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1605,6 +1611,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1614,7 +1623,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1902,6 +1911,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>250414.90987410149</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>242069.90627162918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1944,7 +1956,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2232,6 +2244,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2241,7 +2256,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2529,6 +2544,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>58414.90987410149</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>48069.906271629181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2550,11 +2568,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="461914880"/>
-        <c:axId val="461917184"/>
+        <c:axId val="470403328"/>
+        <c:axId val="470418944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="461914880"/>
+        <c:axId val="470403328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2594,14 +2612,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461917184"/>
+        <c:crossAx val="470418944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="461917184"/>
+        <c:axId val="470418944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2650,7 +2668,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461914880"/>
+        <c:crossAx val="470403328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2780,7 +2798,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3068,6 +3086,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3077,7 +3098,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3365,6 +3386,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>192000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>194000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3398,7 +3422,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3686,6 +3710,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3695,7 +3722,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3983,6 +4010,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>250414.90987410149</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>242069.90627162918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4016,7 +4046,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4304,6 +4334,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4313,7 +4346,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4601,6 +4634,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>58414.90987410149</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>48069.906271629181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4622,11 +4658,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="659875328"/>
-        <c:axId val="659877248"/>
+        <c:axId val="536180992"/>
+        <c:axId val="536182784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="659875328"/>
+        <c:axId val="536180992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4636,14 +4672,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="659877248"/>
+        <c:crossAx val="536182784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="659877248"/>
+        <c:axId val="536182784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4654,7 +4690,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="659875328"/>
+        <c:crossAx val="536180992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4772,7 +4808,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5060,6 +5096,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5069,7 +5108,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5357,6 +5396,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>199000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>201000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5399,7 +5441,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5687,6 +5729,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5696,7 +5741,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5984,6 +6029,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>262705.40449016116</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>253852.66270571228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6026,7 +6074,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6314,6 +6362,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6323,7 +6374,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6611,6 +6662,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>63705.404490161163</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>52852.662705712282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6632,11 +6686,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="634143872"/>
-        <c:axId val="634145408"/>
+        <c:axId val="536202240"/>
+        <c:axId val="536204032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="634143872"/>
+        <c:axId val="536202240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6676,14 +6730,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="634145408"/>
+        <c:crossAx val="536204032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="634145408"/>
+        <c:axId val="536204032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6732,7 +6786,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="634143872"/>
+        <c:crossAx val="536202240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6862,7 +6916,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7150,6 +7204,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7159,7 +7216,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7447,6 +7504,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>199000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>201000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7480,7 +7540,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7768,6 +7828,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7777,7 +7840,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8065,6 +8128,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>262705.40449016116</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>253852.66270571228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8098,7 +8164,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8386,6 +8452,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8395,7 +8464,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8683,6 +8752,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>63705.404490161163</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>52852.662705712282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8704,11 +8776,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="634175488"/>
-        <c:axId val="634177024"/>
+        <c:axId val="536825856"/>
+        <c:axId val="536827392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="634175488"/>
+        <c:axId val="536825856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8718,14 +8790,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="634177024"/>
+        <c:crossAx val="536827392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="634177024"/>
+        <c:axId val="536827392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8736,7 +8808,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="634175488"/>
+        <c:crossAx val="536825856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8854,7 +8926,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9142,6 +9214,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9151,7 +9226,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9439,6 +9514,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>199000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>201000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9481,7 +9559,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9769,6 +9847,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9778,7 +9859,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10066,6 +10147,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>261791.47216829649</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>252976.48625536042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10108,7 +10192,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10396,6 +10480,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10405,7 +10492,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10693,6 +10780,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>62791.472168296488</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>51976.486255360418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10714,11 +10804,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="635321344"/>
-        <c:axId val="635327232"/>
+        <c:axId val="536978176"/>
+        <c:axId val="536979712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="635321344"/>
+        <c:axId val="536978176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10758,14 +10848,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="635327232"/>
+        <c:crossAx val="536979712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="635327232"/>
+        <c:axId val="536979712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10814,7 +10904,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="635321344"/>
+        <c:crossAx val="536978176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10944,7 +11034,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11232,6 +11322,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11241,7 +11334,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11529,6 +11622,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>199000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>201000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11562,7 +11658,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11850,6 +11946,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11859,7 +11958,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -12147,6 +12246,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>261791.47216829649</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>252976.48625536042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12180,7 +12282,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12468,6 +12570,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12477,7 +12582,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12765,6 +12870,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>62791.472168296488</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>51976.486255360418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12786,11 +12894,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="635352960"/>
-        <c:axId val="635354496"/>
+        <c:axId val="537011328"/>
+        <c:axId val="537012864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="635352960"/>
+        <c:axId val="537011328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12800,14 +12908,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="635354496"/>
+        <c:crossAx val="537012864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="635354496"/>
+        <c:axId val="537012864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12818,7 +12926,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="635352960"/>
+        <c:crossAx val="537011328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12860,7 +12968,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12898,7 +13006,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12939,7 +13047,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12977,7 +13085,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13020,7 +13128,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13058,7 +13166,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13336,7 +13444,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13345,7 +13453,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB98"/>
+  <dimension ref="A1:AB99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16900,6 +17008,35 @@
         <v>58414.90987410149</v>
       </c>
     </row>
+    <row r="99" spans="1:9" ht="12.75">
+      <c r="A99" s="13">
+        <v>45777</v>
+      </c>
+      <c r="B99" s="18">
+        <v>1.4620000123977661</v>
+      </c>
+      <c r="C99" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D99" s="15">
+        <v>1367.9890444869984</v>
+      </c>
+      <c r="E99" s="15">
+        <v>165574.48988979164</v>
+      </c>
+      <c r="F99" s="15">
+        <v>242069.90627162918</v>
+      </c>
+      <c r="G99" s="15">
+        <v>194000</v>
+      </c>
+      <c r="H99" s="15">
+        <v>242069.90627162918</v>
+      </c>
+      <c r="I99" s="15">
+        <v>48069.906271629181</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16911,7 +17048,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH98"/>
+  <dimension ref="A1:AH99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21973,6 +22110,50 @@
         <v>65.484872343961669</v>
       </c>
     </row>
+    <row r="99" spans="1:14" ht="12.75">
+      <c r="A99" s="13">
+        <v>45777</v>
+      </c>
+      <c r="B99" s="18">
+        <v>1.4620000123977661</v>
+      </c>
+      <c r="C99" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D99" s="15">
+        <v>1367.9890444869984</v>
+      </c>
+      <c r="E99" s="15">
+        <v>173633.83074763382</v>
+      </c>
+      <c r="F99" s="15">
+        <v>253852.66270571228</v>
+      </c>
+      <c r="G99" s="15">
+        <v>201000</v>
+      </c>
+      <c r="H99" s="15">
+        <v>253852.66270571228</v>
+      </c>
+      <c r="I99" s="15">
+        <v>52852.662705712282</v>
+      </c>
+      <c r="J99" s="21">
+        <v>0</v>
+      </c>
+      <c r="K99" s="21">
+        <v>4.5945552342839889E-2</v>
+      </c>
+      <c r="L99" s="21">
+        <v>6.2999963760375977E-2</v>
+      </c>
+      <c r="M99" s="23">
+        <v>8.0662079794954725E-2</v>
+      </c>
+      <c r="N99" s="21">
+        <v>56.960535185349521</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21984,7 +22165,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH98"/>
+  <dimension ref="A1:AH99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27797,6 +27978,59 @@
         <v>78.53642932368183</v>
       </c>
     </row>
+    <row r="99" spans="1:17" ht="12.75">
+      <c r="A99" s="13">
+        <v>45777</v>
+      </c>
+      <c r="B99" s="18">
+        <v>1.4620000123977661</v>
+      </c>
+      <c r="C99" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D99" s="15">
+        <v>1367.9890444869984</v>
+      </c>
+      <c r="E99" s="15">
+        <v>173034.53085507441</v>
+      </c>
+      <c r="F99" s="15">
+        <v>252976.48625536042</v>
+      </c>
+      <c r="G99" s="15">
+        <v>201000</v>
+      </c>
+      <c r="H99" s="15">
+        <v>252976.48625536042</v>
+      </c>
+      <c r="I99" s="15">
+        <v>51976.486255360418</v>
+      </c>
+      <c r="J99" s="15">
+        <v>1.5379999876022339</v>
+      </c>
+      <c r="K99" s="15">
+        <v>1.2999999523162842</v>
+      </c>
+      <c r="L99" s="19">
+        <v>1.7549999952316284</v>
+      </c>
+      <c r="M99" s="19">
+        <v>0.99800002574920654</v>
+      </c>
+      <c r="N99" s="21">
+        <v>61.294584591041257</v>
+      </c>
+      <c r="O99" s="21">
+        <v>70.979015551287361</v>
+      </c>
+      <c r="P99" s="21">
+        <v>73.302093107278935</v>
+      </c>
+      <c r="Q99" s="21">
+        <v>66.332860439304199</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
@@ -690,7 +690,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -981,6 +981,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -990,7 +993,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1281,6 +1284,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>194000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>196000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1323,7 +1329,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1614,6 +1620,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1623,7 +1632,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1914,6 +1923,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>242069.90627162918</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>239764.96574479528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1956,7 +1968,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2247,6 +2259,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2256,7 +2271,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2547,6 +2562,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>48069.906271629181</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43764.965744795278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2568,11 +2586,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="470403328"/>
-        <c:axId val="470418944"/>
+        <c:axId val="545304960"/>
+        <c:axId val="545306496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="470403328"/>
+        <c:axId val="545304960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2612,14 +2630,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470418944"/>
+        <c:crossAx val="545306496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="470418944"/>
+        <c:axId val="545306496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2668,7 +2686,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470403328"/>
+        <c:crossAx val="545304960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2798,7 +2816,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3089,6 +3107,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3098,7 +3119,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3389,6 +3410,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>194000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>196000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3422,7 +3446,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3713,6 +3737,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3722,7 +3749,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4013,6 +4040,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>242069.90627162918</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>239764.96574479528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4046,7 +4076,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4337,6 +4367,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4346,7 +4379,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4637,6 +4670,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>48069.906271629181</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43764.965744795278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4658,11 +4694,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="536180992"/>
-        <c:axId val="536182784"/>
+        <c:axId val="704513920"/>
+        <c:axId val="704515456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="536180992"/>
+        <c:axId val="704513920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4672,14 +4708,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="536182784"/>
+        <c:crossAx val="704515456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="536182784"/>
+        <c:axId val="704515456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4690,7 +4726,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="536180992"/>
+        <c:crossAx val="704513920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4808,7 +4844,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5099,6 +5135,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5108,7 +5147,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5399,6 +5438,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>201000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>203000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5441,7 +5483,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5732,6 +5774,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5741,7 +5786,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6032,6 +6077,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>253852.66270571228</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>251338.17913211079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6074,7 +6122,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6365,6 +6413,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6374,7 +6425,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6665,6 +6716,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>52852.662705712282</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>48338.179132110788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6686,11 +6740,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="536202240"/>
-        <c:axId val="536204032"/>
+        <c:axId val="704543360"/>
+        <c:axId val="704545152"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="536202240"/>
+        <c:axId val="704543360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6730,14 +6784,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536204032"/>
+        <c:crossAx val="704545152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="536204032"/>
+        <c:axId val="704545152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6786,7 +6840,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536202240"/>
+        <c:crossAx val="704543360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6916,7 +6970,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7207,6 +7261,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7216,7 +7273,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7507,6 +7564,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>201000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>203000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7540,7 +7600,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7831,6 +7891,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7840,7 +7903,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8131,6 +8194,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>253852.66270571228</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>251338.17913211079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8164,7 +8230,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8455,6 +8521,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8464,7 +8533,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8755,6 +8824,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>52852.662705712282</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>48338.179132110788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8776,11 +8848,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="536825856"/>
-        <c:axId val="536827392"/>
+        <c:axId val="704560128"/>
+        <c:axId val="704561920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="536825856"/>
+        <c:axId val="704560128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8790,14 +8862,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="536827392"/>
+        <c:crossAx val="704561920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="536827392"/>
+        <c:axId val="704561920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8808,7 +8880,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="536825856"/>
+        <c:crossAx val="704560128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8926,7 +8998,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9217,6 +9289,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9226,7 +9301,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9517,6 +9592,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>201000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>203000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9559,7 +9637,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9850,6 +9928,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9859,7 +9940,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10150,6 +10231,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>252976.48625536042</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>250477.58449268236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10192,7 +10276,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10483,6 +10567,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10492,7 +10579,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10783,6 +10870,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>51976.486255360418</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>47477.584492682363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10804,11 +10894,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="536978176"/>
-        <c:axId val="536979712"/>
+        <c:axId val="707276800"/>
+        <c:axId val="707278336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="536978176"/>
+        <c:axId val="707276800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10848,14 +10938,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536979712"/>
+        <c:crossAx val="707278336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="536979712"/>
+        <c:axId val="707278336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10904,7 +10994,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536978176"/>
+        <c:crossAx val="707276800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11034,7 +11124,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11325,6 +11415,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11334,7 +11427,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11625,6 +11718,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>201000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>203000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11658,7 +11754,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11949,6 +12045,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11958,7 +12057,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -12249,6 +12348,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>252976.48625536042</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>250477.58449268236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12282,7 +12384,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12573,6 +12675,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12582,7 +12687,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12873,6 +12978,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>51976.486255360418</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>47477.584492682363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12894,11 +13002,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="537011328"/>
-        <c:axId val="537012864"/>
+        <c:axId val="707305856"/>
+        <c:axId val="707307392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="537011328"/>
+        <c:axId val="707305856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12908,14 +13016,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="537012864"/>
+        <c:crossAx val="707307392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="537012864"/>
+        <c:axId val="707307392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12926,7 +13034,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="537011328"/>
+        <c:crossAx val="707305856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12968,7 +13076,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13006,7 +13114,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13047,7 +13155,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13085,7 +13193,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13128,7 +13236,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13166,7 +13274,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13444,7 +13552,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13453,7 +13561,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB99"/>
+  <dimension ref="A1:AB100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17037,6 +17145,35 @@
         <v>48069.906271629181</v>
       </c>
     </row>
+    <row r="100" spans="1:9" ht="12.75">
+      <c r="A100" s="13">
+        <v>45807</v>
+      </c>
+      <c r="B100" s="18">
+        <v>1.4359999895095825</v>
+      </c>
+      <c r="C100" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D100" s="15">
+        <v>1392.7576703416501</v>
+      </c>
+      <c r="E100" s="15">
+        <v>166967.24756013328</v>
+      </c>
+      <c r="F100" s="15">
+        <v>239764.96574479528</v>
+      </c>
+      <c r="G100" s="15">
+        <v>196000</v>
+      </c>
+      <c r="H100" s="15">
+        <v>239764.96574479528</v>
+      </c>
+      <c r="I100" s="15">
+        <v>43764.965744795278</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17048,7 +17185,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH99"/>
+  <dimension ref="A1:AH100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22154,6 +22291,50 @@
         <v>56.960535185349521</v>
       </c>
     </row>
+    <row r="100" spans="1:14" ht="12.75">
+      <c r="A100" s="13">
+        <v>45807</v>
+      </c>
+      <c r="B100" s="18">
+        <v>1.4359999895095825</v>
+      </c>
+      <c r="C100" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D100" s="15">
+        <v>1392.7576703416501</v>
+      </c>
+      <c r="E100" s="15">
+        <v>175026.58841797546</v>
+      </c>
+      <c r="F100" s="15">
+        <v>251338.17913211079</v>
+      </c>
+      <c r="G100" s="15">
+        <v>203000</v>
+      </c>
+      <c r="H100" s="15">
+        <v>251338.17913211079</v>
+      </c>
+      <c r="I100" s="15">
+        <v>48338.179132110788</v>
+      </c>
+      <c r="J100" s="21">
+        <v>0</v>
+      </c>
+      <c r="K100" s="21">
+        <v>3.8287960285699911E-2</v>
+      </c>
+      <c r="L100" s="21">
+        <v>2.6000022888183594E-2</v>
+      </c>
+      <c r="M100" s="23">
+        <v>7.1551736977159539E-2</v>
+      </c>
+      <c r="N100" s="21">
+        <v>53.51087465273141</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22165,7 +22346,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH99"/>
+  <dimension ref="A1:AH100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28031,6 +28212,59 @@
         <v>66.332860439304199</v>
       </c>
     </row>
+    <row r="100" spans="1:17" ht="12.75">
+      <c r="A100" s="13">
+        <v>45807</v>
+      </c>
+      <c r="B100" s="18">
+        <v>1.4359999895095825</v>
+      </c>
+      <c r="C100" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D100" s="15">
+        <v>1392.7576703416501</v>
+      </c>
+      <c r="E100" s="15">
+        <v>174427.28852541605</v>
+      </c>
+      <c r="F100" s="15">
+        <v>250477.58449268236</v>
+      </c>
+      <c r="G100" s="15">
+        <v>203000</v>
+      </c>
+      <c r="H100" s="15">
+        <v>250477.58449268236</v>
+      </c>
+      <c r="I100" s="15">
+        <v>47477.584492682363</v>
+      </c>
+      <c r="J100" s="15">
+        <v>1.5449999570846558</v>
+      </c>
+      <c r="K100" s="15">
+        <v>1.4229999780654907</v>
+      </c>
+      <c r="L100" s="19">
+        <v>1.7549999952316284</v>
+      </c>
+      <c r="M100" s="19">
+        <v>0.99800002574920654</v>
+      </c>
+      <c r="N100" s="21">
+        <v>57.859971125209761</v>
+      </c>
+      <c r="O100" s="21">
+        <v>66.60600074259483</v>
+      </c>
+      <c r="P100" s="21">
+        <v>71.070062319050905</v>
+      </c>
+      <c r="Q100" s="21">
+        <v>57.67787758968268</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
@@ -690,7 +690,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -984,6 +984,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -993,7 +996,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1287,6 +1290,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>196000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>198000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1329,7 +1335,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1623,6 +1629,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1632,7 +1641,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1926,6 +1935,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>239764.96574479528</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>260298.3404148421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1968,7 +1980,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2262,6 +2274,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2271,7 +2286,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2565,6 +2580,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>43764.965744795278</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>62298.340414842096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2586,11 +2604,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="545304960"/>
-        <c:axId val="545306496"/>
+        <c:axId val="161340800"/>
+        <c:axId val="161707520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="545304960"/>
+        <c:axId val="161340800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2630,14 +2648,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545306496"/>
+        <c:crossAx val="161707520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="545306496"/>
+        <c:axId val="161707520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2686,7 +2704,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545304960"/>
+        <c:crossAx val="161340800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2816,7 +2834,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3110,6 +3128,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3119,7 +3140,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3413,6 +3434,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>196000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>198000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3446,7 +3470,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3740,6 +3764,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3749,7 +3776,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4043,6 +4070,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>239764.96574479528</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>260298.3404148421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4076,7 +4106,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4370,6 +4400,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4379,7 +4412,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4673,6 +4706,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>43764.965744795278</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>62298.340414842096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4694,11 +4730,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="704513920"/>
-        <c:axId val="704515456"/>
+        <c:axId val="439138560"/>
+        <c:axId val="476766592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="704513920"/>
+        <c:axId val="439138560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4708,14 +4744,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="704515456"/>
+        <c:crossAx val="476766592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="704515456"/>
+        <c:axId val="476766592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4726,7 +4762,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="704513920"/>
+        <c:crossAx val="439138560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4844,7 +4880,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5138,6 +5174,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5147,7 +5186,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5441,6 +5480,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>203000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>205000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5483,7 +5525,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5777,6 +5819,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5786,7 +5831,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6080,6 +6125,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>251338.17913211079</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>272766.1411292812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6122,7 +6170,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6416,6 +6464,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6425,7 +6476,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6719,6 +6770,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>48338.179132110788</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>67766.141129281197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6740,11 +6794,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="704543360"/>
-        <c:axId val="704545152"/>
+        <c:axId val="510256256"/>
+        <c:axId val="510258176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="704543360"/>
+        <c:axId val="510256256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6784,14 +6838,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="704545152"/>
+        <c:crossAx val="510258176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="704545152"/>
+        <c:axId val="510258176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6840,7 +6894,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="704543360"/>
+        <c:crossAx val="510256256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6970,7 +7024,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7264,6 +7318,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7273,7 +7330,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7567,6 +7624,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>203000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>205000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7600,7 +7660,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7894,6 +7954,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7903,7 +7966,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8197,6 +8260,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>251338.17913211079</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>272766.1411292812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8230,7 +8296,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8524,6 +8590,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8533,7 +8602,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8827,6 +8896,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>48338.179132110788</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>67766.141129281197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8848,11 +8920,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="704560128"/>
-        <c:axId val="704561920"/>
+        <c:axId val="466285312"/>
+        <c:axId val="466286848"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="704560128"/>
+        <c:axId val="466285312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8862,14 +8934,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="704561920"/>
+        <c:crossAx val="466286848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="704561920"/>
+        <c:axId val="466286848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8880,7 +8952,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="704560128"/>
+        <c:crossAx val="466285312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8998,7 +9070,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9292,6 +9364,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9301,7 +9376,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9595,6 +9670,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>203000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>205000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9637,7 +9715,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9931,6 +10009,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9940,7 +10021,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10234,6 +10315,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>250477.58449268236</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>271839.02416520036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10276,7 +10360,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10570,6 +10654,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10579,7 +10666,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10873,6 +10960,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>47477.584492682363</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>66839.024165200361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10894,11 +10984,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="707276800"/>
-        <c:axId val="707278336"/>
+        <c:axId val="469735296"/>
+        <c:axId val="469736832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="707276800"/>
+        <c:axId val="469735296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10938,14 +11028,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="707278336"/>
+        <c:crossAx val="469736832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="707278336"/>
+        <c:axId val="469736832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10994,7 +11084,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="707276800"/>
+        <c:crossAx val="469735296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11124,7 +11214,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11418,6 +11508,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11427,7 +11520,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11721,6 +11814,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>203000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>205000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11754,7 +11850,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12048,6 +12144,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12057,7 +12156,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -12351,6 +12450,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>250477.58449268236</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>271839.02416520036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12384,7 +12486,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12678,6 +12780,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12687,7 +12792,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12981,6 +13086,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>47477.584492682363</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>66839.024165200361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13002,11 +13110,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="707305856"/>
-        <c:axId val="707307392"/>
+        <c:axId val="469751680"/>
+        <c:axId val="469753216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="707305856"/>
+        <c:axId val="469751680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13016,14 +13124,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="707307392"/>
+        <c:crossAx val="469753216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="707307392"/>
+        <c:axId val="469753216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13034,7 +13142,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="707305856"/>
+        <c:crossAx val="469751680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13076,7 +13184,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13114,7 +13222,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13155,7 +13263,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13193,7 +13301,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13236,7 +13344,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13274,7 +13382,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13552,7 +13660,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13561,7 +13669,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB100"/>
+  <dimension ref="A1:AB101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17174,6 +17282,35 @@
         <v>43764.965744795278</v>
       </c>
     </row>
+    <row r="101" spans="1:9" ht="12.75">
+      <c r="A101" s="13">
+        <v>45838</v>
+      </c>
+      <c r="B101" s="18">
+        <v>1.5470000505447388</v>
+      </c>
+      <c r="C101" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D101" s="15">
+        <v>1292.8247799964506</v>
+      </c>
+      <c r="E101" s="15">
+        <v>168260.07234012973</v>
+      </c>
+      <c r="F101" s="15">
+        <v>260298.3404148421</v>
+      </c>
+      <c r="G101" s="15">
+        <v>198000</v>
+      </c>
+      <c r="H101" s="15">
+        <v>260298.3404148421</v>
+      </c>
+      <c r="I101" s="15">
+        <v>62298.340414842096</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17185,7 +17322,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH100"/>
+  <dimension ref="A1:AH101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22335,6 +22472,50 @@
         <v>53.51087465273141</v>
       </c>
     </row>
+    <row r="101" spans="1:14" ht="12.75">
+      <c r="A101" s="13">
+        <v>45838</v>
+      </c>
+      <c r="B101" s="18">
+        <v>1.5470000505447388</v>
+      </c>
+      <c r="C101" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D101" s="15">
+        <v>1292.8247799964506</v>
+      </c>
+      <c r="E101" s="15">
+        <v>176319.41319797191</v>
+      </c>
+      <c r="F101" s="15">
+        <v>272766.1411292812</v>
+      </c>
+      <c r="G101" s="15">
+        <v>205000</v>
+      </c>
+      <c r="H101" s="15">
+        <v>272766.1411292812</v>
+      </c>
+      <c r="I101" s="15">
+        <v>67766.141129281197</v>
+      </c>
+      <c r="J101" s="21">
+        <v>0.11100006103515625</v>
+      </c>
+      <c r="K101" s="21">
+        <v>5.0406643743942638E-2</v>
+      </c>
+      <c r="L101" s="21">
+        <v>0.11100006103515625</v>
+      </c>
+      <c r="M101" s="23">
+        <v>7.8126457653492326E-2</v>
+      </c>
+      <c r="N101" s="21">
+        <v>64.519300193420989</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22346,7 +22527,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH100"/>
+  <dimension ref="A1:AH101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28265,6 +28446,59 @@
         <v>57.67787758968268</v>
       </c>
     </row>
+    <row r="101" spans="1:17" ht="12.75">
+      <c r="A101" s="13">
+        <v>45838</v>
+      </c>
+      <c r="B101" s="18">
+        <v>1.5470000505447388</v>
+      </c>
+      <c r="C101" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D101" s="15">
+        <v>1292.8247799964506</v>
+      </c>
+      <c r="E101" s="15">
+        <v>175720.11330541249</v>
+      </c>
+      <c r="F101" s="15">
+        <v>271839.02416520036</v>
+      </c>
+      <c r="G101" s="15">
+        <v>205000</v>
+      </c>
+      <c r="H101" s="15">
+        <v>271839.02416520036</v>
+      </c>
+      <c r="I101" s="15">
+        <v>66839.024165200361</v>
+      </c>
+      <c r="J101" s="15">
+        <v>1.5479999780654907</v>
+      </c>
+      <c r="K101" s="15">
+        <v>1.4299999475479126</v>
+      </c>
+      <c r="L101" s="19">
+        <v>1.7549999952316284</v>
+      </c>
+      <c r="M101" s="19">
+        <v>1.2710000276565552</v>
+      </c>
+      <c r="N101" s="21">
+        <v>57.024801937692942</v>
+      </c>
+      <c r="O101" s="21">
+        <v>63.412267807627529</v>
+      </c>
+      <c r="P101" s="21">
+        <v>68.517464148576451</v>
+      </c>
+      <c r="Q101" s="21">
+        <v>53.201875125729686</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
@@ -690,7 +690,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -987,6 +987,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -996,7 +999,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1293,6 +1296,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>198000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>200000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1335,7 +1341,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1632,6 +1638,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1641,7 +1650,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1938,6 +1947,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>260298.3404148421</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>287369.07931908855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1980,7 +1992,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2277,6 +2289,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2286,7 +2301,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2583,6 +2598,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>62298.340414842096</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>87369.079319088545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2604,11 +2622,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="161340800"/>
-        <c:axId val="161707520"/>
+        <c:axId val="452010752"/>
+        <c:axId val="452012288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="161340800"/>
+        <c:axId val="452010752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2648,14 +2666,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161707520"/>
+        <c:crossAx val="452012288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="161707520"/>
+        <c:axId val="452012288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2704,7 +2722,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161340800"/>
+        <c:crossAx val="452010752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2834,7 +2852,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3131,6 +3149,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3140,7 +3161,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3437,6 +3458,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>198000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>200000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3470,7 +3494,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3767,6 +3791,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3776,7 +3803,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4073,6 +4100,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>260298.3404148421</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>287369.07931908855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4106,7 +4136,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4403,6 +4433,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4412,7 +4445,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4709,6 +4742,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>62298.340414842096</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>87369.079319088545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4730,11 +4766,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="439138560"/>
-        <c:axId val="476766592"/>
+        <c:axId val="464124160"/>
+        <c:axId val="503976320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="439138560"/>
+        <c:axId val="464124160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4744,14 +4780,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="476766592"/>
+        <c:crossAx val="503976320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="476766592"/>
+        <c:axId val="503976320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4762,7 +4798,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="439138560"/>
+        <c:crossAx val="464124160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4880,7 +4916,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5177,6 +5213,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5186,7 +5225,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5483,6 +5522,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>205000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>207000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5525,7 +5567,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5822,6 +5864,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5831,7 +5876,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6128,6 +6173,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>272766.1411292812</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>301037.72125258314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6170,7 +6218,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6467,6 +6515,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6476,7 +6527,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6773,6 +6824,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>67766.141129281197</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>94037.721252583142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6794,11 +6848,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="510256256"/>
-        <c:axId val="510258176"/>
+        <c:axId val="534341504"/>
+        <c:axId val="534343040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="510256256"/>
+        <c:axId val="534341504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6838,14 +6892,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510258176"/>
+        <c:crossAx val="534343040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="510258176"/>
+        <c:axId val="534343040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6894,7 +6948,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510256256"/>
+        <c:crossAx val="534341504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7024,7 +7078,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7321,6 +7375,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7330,7 +7387,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7627,6 +7684,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>205000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>207000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7660,7 +7720,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7957,6 +8017,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7966,7 +8029,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8263,6 +8326,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>272766.1411292812</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>301037.72125258314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8296,7 +8362,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8593,6 +8659,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8602,7 +8671,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8899,6 +8968,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>67766.141129281197</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>94037.721252583142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8920,11 +8992,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="466285312"/>
-        <c:axId val="466286848"/>
+        <c:axId val="535829120"/>
+        <c:axId val="535830912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="466285312"/>
+        <c:axId val="535829120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8934,14 +9006,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="466286848"/>
+        <c:crossAx val="535830912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="466286848"/>
+        <c:axId val="535830912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8952,7 +9024,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="466285312"/>
+        <c:crossAx val="535829120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9070,7 +9142,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9367,6 +9439,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9376,7 +9451,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9673,6 +9748,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>205000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>207000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9715,7 +9793,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10012,6 +10090,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10021,7 +10102,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10318,6 +10399,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>271839.02416520036</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>300021.30864680465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10360,7 +10444,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10657,6 +10741,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10666,7 +10753,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10963,6 +11050,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>66839.024165200361</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>93021.308646804653</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10984,11 +11074,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="469735296"/>
-        <c:axId val="469736832"/>
+        <c:axId val="565128192"/>
+        <c:axId val="565138176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="469735296"/>
+        <c:axId val="565128192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11028,14 +11118,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469736832"/>
+        <c:crossAx val="565138176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="469736832"/>
+        <c:axId val="565138176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11084,7 +11174,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469735296"/>
+        <c:crossAx val="565128192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11214,7 +11304,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11511,6 +11601,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11520,7 +11613,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11817,6 +11910,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>205000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>207000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11850,7 +11946,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12147,6 +12243,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12156,7 +12255,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -12453,6 +12552,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>271839.02416520036</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>300021.30864680465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12486,7 +12588,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12783,6 +12885,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12792,7 +12897,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13089,6 +13194,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>66839.024165200361</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>93021.308646804653</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13110,11 +13218,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="469751680"/>
-        <c:axId val="469753216"/>
+        <c:axId val="565165440"/>
+        <c:axId val="565167232"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="469751680"/>
+        <c:axId val="565165440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13124,14 +13232,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="469753216"/>
+        <c:crossAx val="565167232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="469753216"/>
+        <c:axId val="565167232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13142,7 +13250,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="469751680"/>
+        <c:crossAx val="565165440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13184,7 +13292,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13222,7 +13330,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13263,7 +13371,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13301,7 +13409,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13344,7 +13452,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13382,7 +13490,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13660,7 +13768,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13669,7 +13777,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB101"/>
+  <dimension ref="A1:AB102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17311,6 +17419,35 @@
         <v>62298.340414842096</v>
       </c>
     </row>
+    <row r="102" spans="1:9" ht="12.75">
+      <c r="A102" s="13">
+        <v>45869</v>
+      </c>
+      <c r="B102" s="18">
+        <v>1.6959999799728394</v>
+      </c>
+      <c r="C102" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D102" s="15">
+        <v>1179.2452969439476</v>
+      </c>
+      <c r="E102" s="15">
+        <v>169439.31763707369</v>
+      </c>
+      <c r="F102" s="15">
+        <v>287369.07931908855</v>
+      </c>
+      <c r="G102" s="15">
+        <v>200000</v>
+      </c>
+      <c r="H102" s="15">
+        <v>287369.07931908855</v>
+      </c>
+      <c r="I102" s="15">
+        <v>87369.079319088545</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17322,7 +17459,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH101"/>
+  <dimension ref="A1:AH102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22516,6 +22653,50 @@
         <v>64.519300193420989</v>
       </c>
     </row>
+    <row r="102" spans="1:14" ht="12.75">
+      <c r="A102" s="13">
+        <v>45869</v>
+      </c>
+      <c r="B102" s="18">
+        <v>1.6959999799728394</v>
+      </c>
+      <c r="C102" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D102" s="15">
+        <v>1179.2452969439476</v>
+      </c>
+      <c r="E102" s="15">
+        <v>177498.65849491587</v>
+      </c>
+      <c r="F102" s="15">
+        <v>301037.72125258314</v>
+      </c>
+      <c r="G102" s="15">
+        <v>207000</v>
+      </c>
+      <c r="H102" s="15">
+        <v>301037.72125258314</v>
+      </c>
+      <c r="I102" s="15">
+        <v>94037.721252583142</v>
+      </c>
+      <c r="J102" s="21">
+        <v>0.14899992942810059</v>
+      </c>
+      <c r="K102" s="21">
+        <v>6.6838858024635628E-2</v>
+      </c>
+      <c r="L102" s="21">
+        <v>0.14899992942810059</v>
+      </c>
+      <c r="M102" s="23">
+        <v>8.9938702949260374E-2</v>
+      </c>
+      <c r="N102" s="21">
+        <v>74.316012831920972</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22527,7 +22708,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH101"/>
+  <dimension ref="A1:AH102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28499,6 +28680,59 @@
         <v>53.201875125729686</v>
       </c>
     </row>
+    <row r="102" spans="1:17" ht="12.75">
+      <c r="A102" s="13">
+        <v>45869</v>
+      </c>
+      <c r="B102" s="18">
+        <v>1.6959999799728394</v>
+      </c>
+      <c r="C102" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D102" s="15">
+        <v>1179.2452969439476</v>
+      </c>
+      <c r="E102" s="15">
+        <v>176899.35860235646</v>
+      </c>
+      <c r="F102" s="15">
+        <v>300021.30864680465</v>
+      </c>
+      <c r="G102" s="15">
+        <v>207000</v>
+      </c>
+      <c r="H102" s="15">
+        <v>300021.30864680465</v>
+      </c>
+      <c r="I102" s="15">
+        <v>93021.308646804653</v>
+      </c>
+      <c r="J102" s="15">
+        <v>1.7300000190734863</v>
+      </c>
+      <c r="K102" s="15">
+        <v>1.4939999580383301</v>
+      </c>
+      <c r="L102" s="19">
+        <v>1.7549999952316284</v>
+      </c>
+      <c r="M102" s="19">
+        <v>1.2999999523162842</v>
+      </c>
+      <c r="N102" s="21">
+        <v>87.032964902430479</v>
+      </c>
+      <c r="O102" s="21">
+        <v>71.285833505895184</v>
+      </c>
+      <c r="P102" s="21">
+        <v>69.440253934349357</v>
+      </c>
+      <c r="Q102" s="21">
+        <v>74.976992648986823</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
@@ -690,7 +690,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -990,6 +990,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -999,7 +1002,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1299,6 +1302,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>202000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1341,7 +1347,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1641,6 +1647,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1650,7 +1659,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1950,6 +1959,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>287369.07931908855</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>475752.33275961777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1992,7 +2004,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2292,6 +2304,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2301,7 +2316,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2601,6 +2616,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>87369.079319088545</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>273752.33275961777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2622,11 +2640,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="452010752"/>
-        <c:axId val="452012288"/>
+        <c:axId val="428962176"/>
+        <c:axId val="428963712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="452010752"/>
+        <c:axId val="428962176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2666,14 +2684,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452012288"/>
+        <c:crossAx val="428963712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="452012288"/>
+        <c:axId val="428963712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2722,7 +2740,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452010752"/>
+        <c:crossAx val="428962176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2852,7 +2870,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3152,6 +3170,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3161,7 +3182,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3461,6 +3482,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>202000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3494,7 +3518,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3794,6 +3818,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3803,7 +3830,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4103,6 +4130,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>287369.07931908855</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>475752.33275961777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4136,7 +4166,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4436,6 +4466,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4445,7 +4478,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4745,6 +4778,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>87369.079319088545</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>273752.33275961777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4766,11 +4802,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="464124160"/>
-        <c:axId val="503976320"/>
+        <c:axId val="428983040"/>
+        <c:axId val="428984576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="464124160"/>
+        <c:axId val="428983040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4780,14 +4816,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="503976320"/>
+        <c:crossAx val="428984576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="503976320"/>
+        <c:axId val="428984576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4798,7 +4834,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="464124160"/>
+        <c:crossAx val="428983040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4916,7 +4952,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5216,6 +5252,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5225,7 +5264,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5525,6 +5564,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>207000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>209000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5567,7 +5609,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5867,6 +5909,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5876,7 +5921,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6176,6 +6221,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>301037.72125258314</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>498286.24982888845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6218,7 +6266,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6518,6 +6566,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6527,7 +6578,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6827,6 +6878,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>94037.721252583142</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>289286.24982888845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6848,11 +6902,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="534341504"/>
-        <c:axId val="534343040"/>
+        <c:axId val="428688896"/>
+        <c:axId val="428690432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="534341504"/>
+        <c:axId val="428688896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6892,14 +6946,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534343040"/>
+        <c:crossAx val="428690432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="534343040"/>
+        <c:axId val="428690432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6948,7 +7002,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534341504"/>
+        <c:crossAx val="428688896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7078,7 +7132,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7378,6 +7432,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7387,7 +7444,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7687,6 +7744,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>207000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>209000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7720,7 +7780,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8020,6 +8080,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8029,7 +8092,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8329,6 +8392,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>301037.72125258314</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>498286.24982888845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8362,7 +8428,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8662,6 +8728,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8671,7 +8740,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8971,6 +9040,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>94037.721252583142</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>289286.24982888845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8992,11 +9064,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="535829120"/>
-        <c:axId val="535830912"/>
+        <c:axId val="428713856"/>
+        <c:axId val="428715392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="535829120"/>
+        <c:axId val="428713856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9006,14 +9078,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="535830912"/>
+        <c:crossAx val="428715392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="535830912"/>
+        <c:axId val="428715392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9024,7 +9096,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="535829120"/>
+        <c:crossAx val="428713856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9142,7 +9214,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9442,6 +9514,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9451,7 +9526,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9751,6 +9826,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>207000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>209000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9793,7 +9871,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10093,6 +10171,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10102,7 +10183,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10402,6 +10483,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>300021.30864680465</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>496610.60732700618</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10444,7 +10528,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10744,6 +10828,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10753,7 +10840,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11053,6 +11140,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>93021.308646804653</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>287610.60732700618</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11074,11 +11164,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="565128192"/>
-        <c:axId val="565138176"/>
+        <c:axId val="429177856"/>
+        <c:axId val="429187840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="565128192"/>
+        <c:axId val="429177856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11118,14 +11208,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565138176"/>
+        <c:crossAx val="429187840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="565138176"/>
+        <c:axId val="429187840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11174,7 +11264,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565128192"/>
+        <c:crossAx val="429177856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11304,7 +11394,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11604,6 +11694,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11613,7 +11706,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11913,6 +12006,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>207000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>209000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11946,7 +12042,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12246,6 +12342,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12255,7 +12354,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -12555,6 +12654,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>300021.30864680465</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>496610.60732700618</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12588,7 +12690,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12888,6 +12990,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12897,7 +13002,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13197,6 +13302,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>93021.308646804653</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>287610.60732700618</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13218,11 +13326,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="565165440"/>
-        <c:axId val="565167232"/>
+        <c:axId val="425102720"/>
+        <c:axId val="429008000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="565165440"/>
+        <c:axId val="425102720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13232,14 +13340,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="565167232"/>
+        <c:crossAx val="429008000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="565167232"/>
+        <c:axId val="429008000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13250,7 +13358,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="565165440"/>
+        <c:crossAx val="425102720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13292,7 +13400,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13330,7 +13438,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13371,7 +13479,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13409,7 +13517,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13452,7 +13560,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13490,7 +13598,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13768,7 +13876,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13777,7 +13885,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB102"/>
+  <dimension ref="A1:AB103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17448,6 +17556,35 @@
         <v>87369.079319088545</v>
       </c>
     </row>
+    <row r="103" spans="1:9" ht="12.75">
+      <c r="A103" s="13">
+        <v>45898</v>
+      </c>
+      <c r="B103" s="18">
+        <v>2.7960000038146973</v>
+      </c>
+      <c r="C103" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D103" s="15">
+        <v>715.30758128444859</v>
+      </c>
+      <c r="E103" s="15">
+        <v>170154.62521835815</v>
+      </c>
+      <c r="F103" s="15">
+        <v>475752.33275961777</v>
+      </c>
+      <c r="G103" s="15">
+        <v>202000</v>
+      </c>
+      <c r="H103" s="15">
+        <v>475752.33275961777</v>
+      </c>
+      <c r="I103" s="15">
+        <v>273752.33275961777</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17459,7 +17596,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH102"/>
+  <dimension ref="A1:AH103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22697,6 +22834,50 @@
         <v>74.316012831920972</v>
       </c>
     </row>
+    <row r="103" spans="1:14" ht="12.75">
+      <c r="A103" s="13">
+        <v>45898</v>
+      </c>
+      <c r="B103" s="18">
+        <v>2.7960000038146973</v>
+      </c>
+      <c r="C103" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D103" s="15">
+        <v>715.30758128444859</v>
+      </c>
+      <c r="E103" s="15">
+        <v>178213.96607620033</v>
+      </c>
+      <c r="F103" s="15">
+        <v>498286.24982888845</v>
+      </c>
+      <c r="G103" s="15">
+        <v>209000</v>
+      </c>
+      <c r="H103" s="15">
+        <v>498286.24982888845</v>
+      </c>
+      <c r="I103" s="15">
+        <v>289286.24982888845</v>
+      </c>
+      <c r="J103" s="21">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="K103" s="21">
+        <v>0.23903238566083931</v>
+      </c>
+      <c r="L103" s="21">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="M103" s="23">
+        <v>0.25828225643135999</v>
+      </c>
+      <c r="N103" s="21">
+        <v>92.546963528779443</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22708,7 +22889,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH102"/>
+  <dimension ref="A1:AH103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28733,6 +28914,59 @@
         <v>74.976992648986823</v>
       </c>
     </row>
+    <row r="103" spans="1:17" ht="12.75">
+      <c r="A103" s="13">
+        <v>45898</v>
+      </c>
+      <c r="B103" s="18">
+        <v>2.7960000038146973</v>
+      </c>
+      <c r="C103" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D103" s="15">
+        <v>715.30758128444859</v>
+      </c>
+      <c r="E103" s="15">
+        <v>177614.66618364092</v>
+      </c>
+      <c r="F103" s="15">
+        <v>496610.60732700618</v>
+      </c>
+      <c r="G103" s="15">
+        <v>209000</v>
+      </c>
+      <c r="H103" s="15">
+        <v>496610.60732700618</v>
+      </c>
+      <c r="I103" s="15">
+        <v>287610.60732700618</v>
+      </c>
+      <c r="J103" s="15">
+        <v>2.8289999961853027</v>
+      </c>
+      <c r="K103" s="15">
+        <v>1.6579999923706055</v>
+      </c>
+      <c r="L103" s="19">
+        <v>2.8289999961853027</v>
+      </c>
+      <c r="M103" s="19">
+        <v>1.2999999523162842</v>
+      </c>
+      <c r="N103" s="21">
+        <v>97.841727179608085</v>
+      </c>
+      <c r="O103" s="21">
+        <v>80.13779806379948</v>
+      </c>
+      <c r="P103" s="21">
+        <v>73.006101977499398</v>
+      </c>
+      <c r="Q103" s="21">
+        <v>94.401190236399628</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
@@ -690,7 +690,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -993,6 +993,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1002,7 +1005,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1305,6 +1308,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>202000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>204000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1347,7 +1353,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1650,6 +1656,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1659,7 +1668,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1962,6 +1971,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>475752.33275961777</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>410371.11675126915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2004,7 +2016,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2307,6 +2319,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2316,7 +2331,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2619,6 +2634,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>273752.33275961777</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>206371.11675126915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2640,11 +2658,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="428962176"/>
-        <c:axId val="428963712"/>
+        <c:axId val="536844160"/>
+        <c:axId val="537723648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="428962176"/>
+        <c:axId val="536844160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2684,14 +2702,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428963712"/>
+        <c:crossAx val="537723648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="428963712"/>
+        <c:axId val="537723648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2740,7 +2758,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428962176"/>
+        <c:crossAx val="536844160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2870,7 +2888,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3173,6 +3191,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3182,7 +3203,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3485,6 +3506,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>202000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>204000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3518,7 +3542,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3821,6 +3845,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3830,7 +3857,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4133,6 +4160,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>475752.33275961777</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>410371.11675126915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4166,7 +4196,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4469,6 +4499,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4478,7 +4511,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4781,6 +4814,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>273752.33275961777</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>206371.11675126915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4802,11 +4838,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="428983040"/>
-        <c:axId val="428984576"/>
+        <c:axId val="613533568"/>
+        <c:axId val="613535104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="428983040"/>
+        <c:axId val="613533568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4816,14 +4852,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="428984576"/>
+        <c:crossAx val="613535104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="428984576"/>
+        <c:axId val="613535104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4834,7 +4870,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="428983040"/>
+        <c:crossAx val="613533568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4952,7 +4988,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5255,6 +5291,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5264,7 +5303,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5567,6 +5606,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>209000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>211000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5609,7 +5651,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5912,6 +5954,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5921,7 +5966,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6224,6 +6269,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>498286.24982888845</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>429713.53557868901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6266,7 +6314,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6569,6 +6617,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6578,7 +6629,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6881,6 +6932,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>289286.24982888845</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>218713.53557868901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6902,11 +6956,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="428688896"/>
-        <c:axId val="428690432"/>
+        <c:axId val="703005056"/>
+        <c:axId val="703006976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="428688896"/>
+        <c:axId val="703005056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6946,14 +7000,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428690432"/>
+        <c:crossAx val="703006976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="428690432"/>
+        <c:axId val="703006976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7002,7 +7056,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428688896"/>
+        <c:crossAx val="703005056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7132,7 +7186,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7435,6 +7489,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7444,7 +7501,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7747,6 +7804,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>209000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>211000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7780,7 +7840,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8083,6 +8143,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8092,7 +8155,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8395,6 +8458,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>498286.24982888845</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>429713.53557868901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8428,7 +8494,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8731,6 +8797,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8740,7 +8809,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9043,6 +9112,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>289286.24982888845</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>218713.53557868901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9064,11 +9136,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="428713856"/>
-        <c:axId val="428715392"/>
+        <c:axId val="712088576"/>
+        <c:axId val="712094464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="428713856"/>
+        <c:axId val="712088576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9078,14 +9150,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="428715392"/>
+        <c:crossAx val="712094464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="428715392"/>
+        <c:axId val="712094464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9096,7 +9168,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="428713856"/>
+        <c:crossAx val="712088576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9214,7 +9286,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9517,6 +9589,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9526,7 +9601,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9829,6 +9904,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>209000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>211000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9871,7 +9949,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10174,6 +10252,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10183,7 +10264,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10486,6 +10567,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>496610.60732700618</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>428275.21577939275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10528,7 +10612,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10831,6 +10915,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10840,7 +10927,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11143,6 +11230,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>287610.60732700618</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>217275.21577939275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11164,11 +11254,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="429177856"/>
-        <c:axId val="429187840"/>
+        <c:axId val="714354688"/>
+        <c:axId val="714356224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="429177856"/>
+        <c:axId val="714354688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11208,14 +11298,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429187840"/>
+        <c:crossAx val="714356224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="429187840"/>
+        <c:axId val="714356224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11264,7 +11354,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429177856"/>
+        <c:crossAx val="714354688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11394,7 +11484,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11697,6 +11787,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11706,7 +11799,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -12009,6 +12102,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>209000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>211000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12042,7 +12138,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12345,6 +12441,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12354,7 +12453,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -12657,6 +12756,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>496610.60732700618</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>428275.21577939275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12690,7 +12792,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12993,6 +13095,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13002,7 +13107,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13305,6 +13410,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>287610.60732700618</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>217275.21577939275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13326,11 +13434,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="425102720"/>
-        <c:axId val="429008000"/>
+        <c:axId val="714375552"/>
+        <c:axId val="714377088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="425102720"/>
+        <c:axId val="714375552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13340,14 +13448,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="429008000"/>
+        <c:crossAx val="714377088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="429008000"/>
+        <c:axId val="714377088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13358,7 +13466,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="425102720"/>
+        <c:crossAx val="714375552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13400,7 +13508,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13438,7 +13546,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13479,7 +13587,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13517,7 +13625,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13560,7 +13668,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13598,7 +13706,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13876,7 +13984,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13885,7 +13993,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB103"/>
+  <dimension ref="A1:AB104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17585,6 +17693,35 @@
         <v>273752.33275961777</v>
       </c>
     </row>
+    <row r="104" spans="1:9" ht="12.75">
+      <c r="A104" s="13">
+        <v>45930</v>
+      </c>
+      <c r="B104" s="18">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="C104" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D104" s="15">
+        <v>833.33330021964309</v>
+      </c>
+      <c r="E104" s="15">
+        <v>170987.9585185778</v>
+      </c>
+      <c r="F104" s="15">
+        <v>410371.11675126915</v>
+      </c>
+      <c r="G104" s="15">
+        <v>204000</v>
+      </c>
+      <c r="H104" s="15">
+        <v>410371.11675126915</v>
+      </c>
+      <c r="I104" s="15">
+        <v>206371.11675126915</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17596,7 +17733,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH103"/>
+  <dimension ref="A1:AH104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22878,6 +23015,50 @@
         <v>92.546963528779443</v>
       </c>
     </row>
+    <row r="104" spans="1:14" ht="12.75">
+      <c r="A104" s="13">
+        <v>45930</v>
+      </c>
+      <c r="B104" s="18">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="C104" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D104" s="15">
+        <v>833.33330021964309</v>
+      </c>
+      <c r="E104" s="15">
+        <v>179047.29937641998</v>
+      </c>
+      <c r="F104" s="15">
+        <v>429713.53557868901</v>
+      </c>
+      <c r="G104" s="15">
+        <v>211000</v>
+      </c>
+      <c r="H104" s="15">
+        <v>429713.53557868901</v>
+      </c>
+      <c r="I104" s="15">
+        <v>218713.53557868901</v>
+      </c>
+      <c r="J104" s="21">
+        <v>0</v>
+      </c>
+      <c r="K104" s="21">
+        <v>0.19919365471736608</v>
+      </c>
+      <c r="L104" s="21">
+        <v>0.39599990844726563</v>
+      </c>
+      <c r="M104" s="23">
+        <v>0.28123519843401096</v>
+      </c>
+      <c r="N104" s="21">
+        <v>70.828138094565318</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22889,7 +23070,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH103"/>
+  <dimension ref="A1:AH104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28967,6 +29148,59 @@
         <v>94.401190236399628</v>
       </c>
     </row>
+    <row r="104" spans="1:17" ht="12.75">
+      <c r="A104" s="13">
+        <v>45930</v>
+      </c>
+      <c r="B104" s="18">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="C104" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D104" s="15">
+        <v>833.33330021964309</v>
+      </c>
+      <c r="E104" s="15">
+        <v>178447.99948386056</v>
+      </c>
+      <c r="F104" s="15">
+        <v>428275.21577939275</v>
+      </c>
+      <c r="G104" s="15">
+        <v>211000</v>
+      </c>
+      <c r="H104" s="15">
+        <v>428275.21577939275</v>
+      </c>
+      <c r="I104" s="15">
+        <v>217275.21577939275</v>
+      </c>
+      <c r="J104" s="15">
+        <v>2.5160000324249268</v>
+      </c>
+      <c r="K104" s="15">
+        <v>2.0439999103546143</v>
+      </c>
+      <c r="L104" s="19">
+        <v>2.8289999961853027</v>
+      </c>
+      <c r="M104" s="19">
+        <v>1.2999999523162842</v>
+      </c>
+      <c r="N104" s="21">
+        <v>71.942453334905125</v>
+      </c>
+      <c r="O104" s="21">
+        <v>77.406016487501361</v>
+      </c>
+      <c r="P104" s="21">
+        <v>74.472740147500062</v>
+      </c>
+      <c r="Q104" s="21">
+        <v>83.272569167503974</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
@@ -690,7 +690,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -996,6 +996,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1005,7 +1008,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1311,6 +1314,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>204000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>206000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1353,7 +1359,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1659,6 +1665,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1668,7 +1677,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1974,6 +1983,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>410371.11675126915</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>401085.9140981122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2016,7 +2028,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2322,6 +2334,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2331,7 +2346,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2637,6 +2652,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>206371.11675126915</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>195085.9140981122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2658,11 +2676,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="536844160"/>
-        <c:axId val="537723648"/>
+        <c:axId val="513459712"/>
+        <c:axId val="513461632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="536844160"/>
+        <c:axId val="513459712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2702,14 +2720,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537723648"/>
+        <c:crossAx val="513461632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="537723648"/>
+        <c:axId val="513461632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2758,7 +2776,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536844160"/>
+        <c:crossAx val="513459712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2888,7 +2906,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3194,6 +3212,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3203,7 +3224,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3509,6 +3530,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>204000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>206000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3542,7 +3566,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3848,6 +3872,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3857,7 +3884,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4163,6 +4190,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>410371.11675126915</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>401085.9140981122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4196,7 +4226,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4502,6 +4532,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4511,7 +4544,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4817,6 +4850,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>206371.11675126915</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>195085.9140981122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4838,11 +4874,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="613533568"/>
-        <c:axId val="613535104"/>
+        <c:axId val="437025792"/>
+        <c:axId val="437035776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="613533568"/>
+        <c:axId val="437025792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4852,14 +4888,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="613535104"/>
+        <c:crossAx val="437035776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="613535104"/>
+        <c:axId val="437035776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4870,7 +4906,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="613533568"/>
+        <c:crossAx val="437025792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4988,7 +5024,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5294,6 +5330,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5303,7 +5342,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5609,6 +5648,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>211000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>213000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5651,7 +5693,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5957,6 +5999,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5966,7 +6011,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6272,6 +6317,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>429713.53557868901</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>419896.41655189026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6314,7 +6362,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6620,6 +6668,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6629,7 +6680,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6935,6 +6986,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>218713.53557868901</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>206896.41655189026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6956,11 +7010,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="703005056"/>
-        <c:axId val="703006976"/>
+        <c:axId val="435818496"/>
+        <c:axId val="435820032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="703005056"/>
+        <c:axId val="435818496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7000,14 +7054,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="703006976"/>
+        <c:crossAx val="435820032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="703006976"/>
+        <c:axId val="435820032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7056,7 +7110,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="703005056"/>
+        <c:crossAx val="435818496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7186,7 +7240,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7492,6 +7546,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7501,7 +7558,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7807,6 +7864,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>211000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>213000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7840,7 +7900,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8146,6 +8206,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8155,7 +8218,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8461,6 +8524,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>429713.53557868901</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>419896.41655189026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8494,7 +8560,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8800,6 +8866,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8809,7 +8878,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9115,6 +9184,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>218713.53557868901</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>206896.41655189026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9136,11 +9208,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="712088576"/>
-        <c:axId val="712094464"/>
+        <c:axId val="435835648"/>
+        <c:axId val="435837184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="712088576"/>
+        <c:axId val="435835648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9150,14 +9222,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="712094464"/>
+        <c:crossAx val="435837184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="712094464"/>
+        <c:axId val="435837184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9168,7 +9240,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="712088576"/>
+        <c:crossAx val="435835648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9286,7 +9358,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9592,6 +9664,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9601,7 +9676,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9907,6 +9982,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>211000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>213000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9949,7 +10027,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10255,6 +10333,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10264,7 +10345,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10570,6 +10651,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>428275.21577939275</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>418497.65053635836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10612,7 +10696,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10918,6 +11002,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10927,7 +11014,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11233,6 +11320,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>217275.21577939275</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>205497.65053635836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11254,11 +11344,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="714354688"/>
-        <c:axId val="714356224"/>
+        <c:axId val="448960000"/>
+        <c:axId val="448961536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="714354688"/>
+        <c:axId val="448960000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11298,14 +11388,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="714356224"/>
+        <c:crossAx val="448961536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="714356224"/>
+        <c:axId val="448961536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11354,7 +11444,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="714354688"/>
+        <c:crossAx val="448960000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11484,7 +11574,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11790,6 +11880,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11799,7 +11892,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -12105,6 +12198,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>211000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>213000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12138,7 +12234,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12444,6 +12540,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12453,7 +12552,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -12759,6 +12858,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>428275.21577939275</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>418497.65053635836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12792,7 +12894,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13098,6 +13200,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13107,7 +13212,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13413,6 +13518,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>217275.21577939275</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>205497.65053635836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13434,11 +13542,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="714375552"/>
-        <c:axId val="714377088"/>
+        <c:axId val="448534400"/>
+        <c:axId val="448535936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="714375552"/>
+        <c:axId val="448534400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13448,14 +13556,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="714377088"/>
+        <c:crossAx val="448535936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="714377088"/>
+        <c:axId val="448535936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13466,7 +13574,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="714375552"/>
+        <c:crossAx val="448534400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13508,7 +13616,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13546,7 +13654,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13587,7 +13695,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13625,7 +13733,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13668,7 +13776,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13706,7 +13814,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13984,7 +14092,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13993,7 +14101,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB104"/>
+  <dimension ref="A1:AB105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17722,6 +17830,35 @@
         <v>206371.11675126915</v>
       </c>
     </row>
+    <row r="105" spans="1:9" ht="12.75">
+      <c r="A105" s="13">
+        <v>45961</v>
+      </c>
+      <c r="B105" s="18">
+        <v>2.3340001106262207</v>
+      </c>
+      <c r="C105" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D105" s="15">
+        <v>856.89798851954322</v>
+      </c>
+      <c r="E105" s="15">
+        <v>171844.85650709734</v>
+      </c>
+      <c r="F105" s="15">
+        <v>401085.9140981122</v>
+      </c>
+      <c r="G105" s="15">
+        <v>206000</v>
+      </c>
+      <c r="H105" s="15">
+        <v>401085.9140981122</v>
+      </c>
+      <c r="I105" s="15">
+        <v>195085.9140981122</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17733,7 +17870,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH104"/>
+  <dimension ref="A1:AH105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23059,6 +23196,50 @@
         <v>70.828138094565318</v>
       </c>
     </row>
+    <row r="105" spans="1:14" ht="12.75">
+      <c r="A105" s="13">
+        <v>45961</v>
+      </c>
+      <c r="B105" s="18">
+        <v>2.3340001106262207</v>
+      </c>
+      <c r="C105" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D105" s="15">
+        <v>856.89798851954322</v>
+      </c>
+      <c r="E105" s="15">
+        <v>179904.19736493952</v>
+      </c>
+      <c r="F105" s="15">
+        <v>419896.41655189026</v>
+      </c>
+      <c r="G105" s="15">
+        <v>213000</v>
+      </c>
+      <c r="H105" s="15">
+        <v>419896.41655189026</v>
+      </c>
+      <c r="I105" s="15">
+        <v>206896.41655189026</v>
+      </c>
+      <c r="J105" s="21">
+        <v>0</v>
+      </c>
+      <c r="K105" s="21">
+        <v>0.16599471226447174</v>
+      </c>
+      <c r="L105" s="21">
+        <v>6.5999984741210938E-2</v>
+      </c>
+      <c r="M105" s="23">
+        <v>0.24536266281854427</v>
+      </c>
+      <c r="N105" s="21">
+        <v>67.652800290658575</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23070,7 +23251,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH104"/>
+  <dimension ref="A1:AH105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29201,6 +29382,59 @@
         <v>83.272569167503974</v>
       </c>
     </row>
+    <row r="105" spans="1:17" ht="12.75">
+      <c r="A105" s="13">
+        <v>45961</v>
+      </c>
+      <c r="B105" s="18">
+        <v>2.3340001106262207</v>
+      </c>
+      <c r="C105" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D105" s="15">
+        <v>856.89798851954322</v>
+      </c>
+      <c r="E105" s="15">
+        <v>179304.89747238011</v>
+      </c>
+      <c r="F105" s="15">
+        <v>418497.65053635836</v>
+      </c>
+      <c r="G105" s="15">
+        <v>213000</v>
+      </c>
+      <c r="H105" s="15">
+        <v>418497.65053635836</v>
+      </c>
+      <c r="I105" s="15">
+        <v>205497.65053635836</v>
+      </c>
+      <c r="J105" s="15">
+        <v>2.4849998950958252</v>
+      </c>
+      <c r="K105" s="15">
+        <v>2.1500000953674316</v>
+      </c>
+      <c r="L105" s="19">
+        <v>2.8289999961853027</v>
+      </c>
+      <c r="M105" s="19">
+        <v>1.2999999523162842</v>
+      </c>
+      <c r="N105" s="21">
+        <v>67.625907694121295</v>
+      </c>
+      <c r="O105" s="21">
+        <v>74.145980223041349</v>
+      </c>
+      <c r="P105" s="21">
+        <v>74.363820172680491</v>
+      </c>
+      <c r="Q105" s="21">
+        <v>73.71030032376305</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1mean.xlsx
@@ -690,7 +690,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -999,6 +999,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1008,7 +1011,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1317,6 +1320,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>206000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>208000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1359,7 +1365,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1668,6 +1674,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1677,7 +1686,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1986,6 +1995,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>401085.9140981122</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>388822.75954229012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2028,7 +2040,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2337,6 +2349,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2346,7 +2361,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2655,6 +2670,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>195085.9140981122</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>180822.75954229012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2676,11 +2694,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="513459712"/>
-        <c:axId val="513461632"/>
+        <c:axId val="474834816"/>
+        <c:axId val="474836352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="513459712"/>
+        <c:axId val="474834816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2720,14 +2738,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513461632"/>
+        <c:crossAx val="474836352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="513461632"/>
+        <c:axId val="474836352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2776,7 +2794,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513459712"/>
+        <c:crossAx val="474834816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2906,7 +2924,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3215,6 +3233,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3224,7 +3245,7 @@
               <c:f>model1!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3533,6 +3554,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>206000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>208000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3566,7 +3590,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3875,6 +3899,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3884,7 +3911,7 @@
               <c:f>model1!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4193,6 +4220,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>401085.9140981122</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>388822.75954229012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4226,7 +4256,7 @@
               <c:f>model1!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4535,6 +4565,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4544,7 +4577,7 @@
               <c:f>model1!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4853,6 +4886,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>195085.9140981122</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>180822.75954229012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4874,11 +4910,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="437025792"/>
-        <c:axId val="437035776"/>
+        <c:axId val="507685504"/>
+        <c:axId val="510284160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="437025792"/>
+        <c:axId val="507685504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4888,14 +4924,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="437035776"/>
+        <c:crossAx val="510284160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="437035776"/>
+        <c:axId val="510284160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4906,7 +4942,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="437025792"/>
+        <c:crossAx val="507685504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5024,7 +5060,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5333,6 +5369,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5342,7 +5381,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5651,6 +5690,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>213000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>215000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5693,7 +5735,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6002,6 +6044,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6011,7 +6056,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6320,6 +6365,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>419896.41655189026</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>406964.33522915788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6362,7 +6410,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6671,6 +6719,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6680,7 +6731,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6989,6 +7040,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>206896.41655189026</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>191964.33522915788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7010,11 +7064,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435818496"/>
-        <c:axId val="435820032"/>
+        <c:axId val="536818432"/>
+        <c:axId val="536819968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="435818496"/>
+        <c:axId val="536818432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7054,14 +7108,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435820032"/>
+        <c:crossAx val="536819968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="435820032"/>
+        <c:axId val="536819968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7110,7 +7164,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435818496"/>
+        <c:crossAx val="536818432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7240,7 +7294,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7549,6 +7603,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7558,7 +7615,7 @@
               <c:f>'model1&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7867,6 +7924,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>213000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>215000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7900,7 +7960,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8209,6 +8269,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8218,7 +8281,7 @@
               <c:f>'model1&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8527,6 +8590,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>419896.41655189026</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>406964.33522915788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8560,7 +8626,7 @@
               <c:f>'model1&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8869,6 +8935,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8878,7 +8947,7 @@
               <c:f>'model1&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9187,6 +9256,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>206896.41655189026</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>191964.33522915788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9208,11 +9280,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435835648"/>
-        <c:axId val="435837184"/>
+        <c:axId val="426576512"/>
+        <c:axId val="426582400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="435835648"/>
+        <c:axId val="426576512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9222,14 +9294,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="435837184"/>
+        <c:crossAx val="426582400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="435837184"/>
+        <c:axId val="426582400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9240,7 +9312,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="435835648"/>
+        <c:crossAx val="426576512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9358,7 +9430,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9667,6 +9739,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9676,7 +9751,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9985,6 +10060,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>213000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>215000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10027,7 +10105,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10336,6 +10414,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10345,7 +10426,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10654,6 +10735,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>418497.65053635836</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>405615.31121444347</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10696,7 +10780,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11005,6 +11089,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11014,7 +11101,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11323,6 +11410,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>205497.65053635836</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>190615.31121444347</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11344,11 +11434,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="448960000"/>
-        <c:axId val="448961536"/>
+        <c:axId val="426852352"/>
+        <c:axId val="426853888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="448960000"/>
+        <c:axId val="426852352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11388,14 +11478,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448961536"/>
+        <c:crossAx val="426853888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="448961536"/>
+        <c:axId val="426853888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11444,7 +11534,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448960000"/>
+        <c:crossAx val="426852352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11574,7 +11664,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11883,6 +11973,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11892,7 +11985,7 @@
               <c:f>'model1&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -12201,6 +12294,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>213000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>215000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12234,7 +12330,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12543,6 +12639,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12552,7 +12651,7 @@
               <c:f>'model1&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -12861,6 +12960,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>418497.65053635836</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>405615.31121444347</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12894,7 +12996,7 @@
               <c:f>'model1&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13203,6 +13305,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13212,7 +13317,7 @@
               <c:f>'model1&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13521,6 +13626,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>205497.65053635836</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>190615.31121444347</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13542,11 +13650,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="448534400"/>
-        <c:axId val="448535936"/>
+        <c:axId val="426869120"/>
+        <c:axId val="426870656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="448534400"/>
+        <c:axId val="426869120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13556,14 +13664,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="448535936"/>
+        <c:crossAx val="426870656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="448535936"/>
+        <c:axId val="426870656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13574,7 +13682,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="448534400"/>
+        <c:crossAx val="426869120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13616,7 +13724,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13654,7 +13762,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13695,7 +13803,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13733,7 +13841,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13776,7 +13884,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13814,7 +13922,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14092,7 +14200,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -14101,7 +14209,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB105"/>
+  <dimension ref="A1:AB106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17859,6 +17967,35 @@
         <v>195085.9140981122</v>
       </c>
     </row>
+    <row r="106" spans="1:9" ht="12.75">
+      <c r="A106" s="13">
+        <v>45989</v>
+      </c>
+      <c r="B106" s="18">
+        <v>2.250999927520752</v>
+      </c>
+      <c r="C106" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D106" s="15">
+        <v>888.4940312738247</v>
+      </c>
+      <c r="E106" s="15">
+        <v>172733.35053837116</v>
+      </c>
+      <c r="F106" s="15">
+        <v>388822.75954229012</v>
+      </c>
+      <c r="G106" s="15">
+        <v>208000</v>
+      </c>
+      <c r="H106" s="15">
+        <v>388822.75954229012</v>
+      </c>
+      <c r="I106" s="15">
+        <v>180822.75954229012</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17870,7 +18007,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH105"/>
+  <dimension ref="A1:AH106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23240,6 +23377,50 @@
         <v>67.652800290658575</v>
       </c>
     </row>
+    <row r="106" spans="1:14" ht="12.75">
+      <c r="A106" s="13">
+        <v>45989</v>
+      </c>
+      <c r="B106" s="18">
+        <v>2.250999927520752</v>
+      </c>
+      <c r="C106" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D106" s="15">
+        <v>888.4940312738247</v>
+      </c>
+      <c r="E106" s="15">
+        <v>180792.69139621334</v>
+      </c>
+      <c r="F106" s="15">
+        <v>406964.33522915788</v>
+      </c>
+      <c r="G106" s="15">
+        <v>215000</v>
+      </c>
+      <c r="H106" s="15">
+        <v>406964.33522915788</v>
+      </c>
+      <c r="I106" s="15">
+        <v>191964.33522915788</v>
+      </c>
+      <c r="J106" s="21">
+        <v>0</v>
+      </c>
+      <c r="K106" s="21">
+        <v>0.13832892688705978</v>
+      </c>
+      <c r="L106" s="21">
+        <v>8.300018310546875E-2</v>
+      </c>
+      <c r="M106" s="23">
+        <v>0.21830224953303168</v>
+      </c>
+      <c r="N106" s="21">
+        <v>63.365781700810651</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23251,7 +23432,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH105"/>
+  <dimension ref="A1:AH106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29435,6 +29616,59 @@
         <v>73.71030032376305</v>
       </c>
     </row>
+    <row r="106" spans="1:17" ht="12.75">
+      <c r="A106" s="13">
+        <v>45989</v>
+      </c>
+      <c r="B106" s="18">
+        <v>2.250999927520752</v>
+      </c>
+      <c r="C106" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D106" s="15">
+        <v>888.4940312738247</v>
+      </c>
+      <c r="E106" s="15">
+        <v>180193.39150365393</v>
+      </c>
+      <c r="F106" s="15">
+        <v>405615.31121444347</v>
+      </c>
+      <c r="G106" s="15">
+        <v>215000</v>
+      </c>
+      <c r="H106" s="15">
+        <v>405615.31121444347</v>
+      </c>
+      <c r="I106" s="15">
+        <v>190615.31121444347</v>
+      </c>
+      <c r="J106" s="15">
+        <v>2.378000020980835</v>
+      </c>
+      <c r="K106" s="15">
+        <v>2.1180000305175781</v>
+      </c>
+      <c r="L106" s="19">
+        <v>2.8289999961853027</v>
+      </c>
+      <c r="M106" s="19">
+        <v>1.2999999523162842</v>
+      </c>
+      <c r="N106" s="21">
+        <v>62.197511309289077</v>
+      </c>
+      <c r="O106" s="21">
+        <v>70.163157251790594</v>
+      </c>
+      <c r="P106" s="21">
+        <v>72.96359919905052</v>
+      </c>
+      <c r="Q106" s="21">
+        <v>64.562273357270726</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
